--- a/input/reg_unemployment.xlsx
+++ b/input/reg_unemployment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A9D7462-ED92-4169-A8F2-6C937398DDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133E2E06-7F23-4182-9544-C56345FDB8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC9AB010-6F1C-42A2-A1E7-CC06071EB15C}"/>
+    <workbookView xWindow="-19020" yWindow="0" windowWidth="19140" windowHeight="10485" firstSheet="2" activeTab="6" xr2:uid="{CC9AB010-6F1C-42A2-A1E7-CC06071EB15C}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DD3FED-033E-405B-A2A7-67A35968B641}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10402,7 +10402,7 @@
         <v>0.11940515812499999</v>
       </c>
       <c r="Q58" s="5">
-        <f t="shared" ref="D58:BC64" si="7">2*Q57-Q56</f>
+        <f t="shared" ref="D58:AZ64" si="7">2*Q57-Q56</f>
         <v>0.10952626312500002</v>
       </c>
       <c r="R58" s="5">
@@ -12591,7 +12591,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="W33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU52" sqref="AU52:AW67"/>
+      <selection pane="bottomRight" activeCell="AJ3" sqref="AJ3:AW67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21394,7 +21394,7 @@
         <v>8.9519817699360071E-2</v>
       </c>
       <c r="AF57" s="5">
-        <f t="shared" ref="AB57:AN66" si="13">2*AF56-AF55</f>
+        <f t="shared" ref="AB57:AJ66" si="13">2*AF56-AF55</f>
         <v>8.6841845648887209E-2</v>
       </c>
       <c r="AG57" s="5">
@@ -23443,7 +23443,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="W33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU52" sqref="AU52:AW67"/>
+      <selection pane="bottomRight" activeCell="AJ3" sqref="AJ3:AW67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34118,7 +34118,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="AA33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA48" sqref="BA48:BC67"/>
+      <selection pane="bottomRight" activeCell="AP3" sqref="AP3:AW67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44807,7 +44807,7 @@
         <v>0.10921957500000004</v>
       </c>
       <c r="AX60" s="5">
-        <f t="shared" ref="AX60:BC60" si="8">2*AX59-AX58</f>
+        <f t="shared" ref="AX60:AZ60" si="8">2*AX59-AX58</f>
         <v>0.11390964500000006</v>
       </c>
       <c r="AY60" s="5">
@@ -46338,21 +46338,21 @@
       <pane xSplit="1" ySplit="2" topLeftCell="U33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU47" sqref="AU47:AW67"/>
+      <selection pane="bottomRight" activeCell="AJ3" sqref="AJ3:AW67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="8.85546875" style="4"/>
     <col min="5" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:90" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -46551,7 +46551,7 @@
       <c r="BM2" s="4"/>
       <c r="BN2" s="4"/>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>16</v>
       </c>
@@ -46704,7 +46704,7 @@
       <c r="AY3"/>
       <c r="AZ3"/>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>17</v>
       </c>
@@ -46857,7 +46857,7 @@
       <c r="AY4"/>
       <c r="AZ4"/>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>18</v>
       </c>
@@ -47010,7 +47010,7 @@
       <c r="AY5"/>
       <c r="AZ5"/>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>19</v>
       </c>
@@ -47163,7 +47163,7 @@
       <c r="AY6"/>
       <c r="AZ6"/>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>20</v>
       </c>
@@ -47316,7 +47316,7 @@
       <c r="AY7"/>
       <c r="AZ7"/>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>21</v>
       </c>
@@ -47469,7 +47469,7 @@
       <c r="AY8"/>
       <c r="AZ8"/>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>22</v>
       </c>
@@ -47622,7 +47622,7 @@
       <c r="AY9"/>
       <c r="AZ9"/>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>23</v>
       </c>
@@ -47776,7 +47776,7 @@
       <c r="AZ10"/>
       <c r="CL10" s="8"/>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>24</v>
       </c>
@@ -47930,7 +47930,7 @@
       <c r="AZ11"/>
       <c r="CL11" s="8"/>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>25</v>
       </c>
@@ -48084,7 +48084,7 @@
       <c r="AZ12"/>
       <c r="CL12" s="8"/>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>26</v>
       </c>
@@ -48238,7 +48238,7 @@
       <c r="AZ13"/>
       <c r="CL13" s="8"/>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>27</v>
       </c>
@@ -48392,7 +48392,7 @@
       <c r="AZ14"/>
       <c r="CL14" s="8"/>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>28</v>
       </c>
@@ -48546,7 +48546,7 @@
       <c r="AZ15"/>
       <c r="CL15" s="8"/>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>29</v>
       </c>
@@ -48700,7 +48700,7 @@
       <c r="AZ16"/>
       <c r="CL16" s="8"/>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>30</v>
       </c>
@@ -48854,7 +48854,7 @@
       <c r="AZ17"/>
       <c r="CL17" s="8"/>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>31</v>
       </c>
@@ -49008,7 +49008,7 @@
       <c r="AZ18"/>
       <c r="CL18" s="8"/>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>32</v>
       </c>
@@ -49162,7 +49162,7 @@
       <c r="AZ19"/>
       <c r="CL19" s="8"/>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>33</v>
       </c>
@@ -49316,7 +49316,7 @@
       <c r="AZ20"/>
       <c r="CL20" s="8"/>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>34</v>
       </c>
@@ -49470,7 +49470,7 @@
       <c r="AZ21"/>
       <c r="CL21" s="8"/>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>35</v>
       </c>
@@ -49624,7 +49624,7 @@
       <c r="AZ22"/>
       <c r="CL22" s="8"/>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>36</v>
       </c>
@@ -49778,7 +49778,7 @@
       <c r="AZ23"/>
       <c r="CL23" s="8"/>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>37</v>
       </c>
@@ -49932,7 +49932,7 @@
       <c r="AZ24"/>
       <c r="CL24" s="8"/>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>38</v>
       </c>
@@ -50086,7 +50086,7 @@
       <c r="AZ25"/>
       <c r="CL25" s="8"/>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>39</v>
       </c>
@@ -50240,7 +50240,7 @@
       <c r="AZ26"/>
       <c r="CL26" s="8"/>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>40</v>
       </c>
@@ -50394,7 +50394,7 @@
       <c r="AZ27"/>
       <c r="CL27" s="8"/>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>41</v>
       </c>
@@ -50548,7 +50548,7 @@
       <c r="AZ28"/>
       <c r="CL28" s="8"/>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>42</v>
       </c>
@@ -50702,7 +50702,7 @@
       <c r="AZ29"/>
       <c r="CL29" s="8"/>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43</v>
       </c>
@@ -50856,7 +50856,7 @@
       <c r="AZ30"/>
       <c r="CL30" s="8"/>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44</v>
       </c>
@@ -51010,7 +51010,7 @@
       <c r="AZ31"/>
       <c r="CL31" s="8"/>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45</v>
       </c>
@@ -51164,7 +51164,7 @@
       <c r="AZ32"/>
       <c r="CL32" s="8"/>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>46</v>
       </c>
@@ -51318,7 +51318,7 @@
       <c r="AZ33"/>
       <c r="CL33" s="8"/>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>47</v>
       </c>
@@ -51472,7 +51472,7 @@
       <c r="AZ34"/>
       <c r="CL34" s="8"/>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>48</v>
       </c>
@@ -51626,7 +51626,7 @@
       <c r="AZ35"/>
       <c r="CL35" s="8"/>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>49</v>
       </c>
@@ -51780,7 +51780,7 @@
       <c r="AZ36"/>
       <c r="CL36" s="8"/>
     </row>
-    <row r="37" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>50</v>
       </c>
@@ -51934,7 +51934,7 @@
       <c r="AZ37"/>
       <c r="CL37" s="8"/>
     </row>
-    <row r="38" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>51</v>
       </c>
@@ -52088,7 +52088,7 @@
       <c r="AZ38"/>
       <c r="CL38" s="8"/>
     </row>
-    <row r="39" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>52</v>
       </c>
@@ -52242,7 +52242,7 @@
       <c r="AZ39"/>
       <c r="CL39" s="8"/>
     </row>
-    <row r="40" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>53</v>
       </c>
@@ -52396,7 +52396,7 @@
       <c r="AZ40"/>
       <c r="CL40" s="8"/>
     </row>
-    <row r="41" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>54</v>
       </c>
@@ -52550,7 +52550,7 @@
       <c r="AZ41"/>
       <c r="CL41" s="8"/>
     </row>
-    <row r="42" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>55</v>
       </c>
@@ -52704,7 +52704,7 @@
       <c r="AZ42"/>
       <c r="CL42" s="8"/>
     </row>
-    <row r="43" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>56</v>
       </c>
@@ -52858,7 +52858,7 @@
       <c r="AZ43"/>
       <c r="CL43" s="8"/>
     </row>
-    <row r="44" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>57</v>
       </c>
@@ -53012,7 +53012,7 @@
       <c r="AZ44"/>
       <c r="CL44" s="8"/>
     </row>
-    <row r="45" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>58</v>
       </c>
@@ -53166,7 +53166,7 @@
       <c r="AZ45"/>
       <c r="CL45" s="8"/>
     </row>
-    <row r="46" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>59</v>
       </c>
@@ -53320,7 +53320,7 @@
       <c r="AZ46"/>
       <c r="CL46" s="8"/>
     </row>
-    <row r="47" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>60</v>
       </c>
@@ -53481,7 +53481,7 @@
         <v>1.2800739999999998E-2</v>
       </c>
       <c r="AO47" s="5">
-        <f t="shared" ref="AO47:AT47" si="3">AVERAGE(AO42:AO46)*2-AVERAGE(AO41:AO45)</f>
+        <f t="shared" ref="AO47:AQ47" si="3">AVERAGE(AO42:AO46)*2-AVERAGE(AO41:AO45)</f>
         <v>2.894422E-2</v>
       </c>
       <c r="AP47" s="5">
@@ -53521,7 +53521,7 @@
       <c r="AZ47"/>
       <c r="CL47" s="8"/>
     </row>
-    <row r="48" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>61</v>
       </c>
@@ -53719,7 +53719,7 @@
       </c>
       <c r="CL48" s="8"/>
     </row>
-    <row r="49" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>62</v>
       </c>
@@ -53917,7 +53917,7 @@
       </c>
       <c r="CL49" s="8"/>
     </row>
-    <row r="50" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>63</v>
       </c>
@@ -54115,7 +54115,7 @@
       </c>
       <c r="CL50" s="8"/>
     </row>
-    <row r="51" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>64</v>
       </c>
@@ -54313,7 +54313,7 @@
       </c>
       <c r="CL51" s="8"/>
     </row>
-    <row r="52" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>65</v>
       </c>
@@ -54511,7 +54511,7 @@
       </c>
       <c r="CL52" s="8"/>
     </row>
-    <row r="53" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>66</v>
       </c>
@@ -54709,7 +54709,7 @@
       </c>
       <c r="CL53" s="8"/>
     </row>
-    <row r="54" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>67</v>
       </c>
@@ -54907,7 +54907,7 @@
       </c>
       <c r="CL54" s="8"/>
     </row>
-    <row r="55" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>68</v>
       </c>
@@ -55105,7 +55105,7 @@
       </c>
       <c r="CL55" s="8"/>
     </row>
-    <row r="56" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>69</v>
       </c>
@@ -55303,7 +55303,7 @@
       </c>
       <c r="CL56" s="8"/>
     </row>
-    <row r="57" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>70</v>
       </c>
@@ -55501,7 +55501,7 @@
       </c>
       <c r="CL57" s="8"/>
     </row>
-    <row r="58" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>71</v>
       </c>
@@ -55699,7 +55699,7 @@
       </c>
       <c r="CL58" s="8"/>
     </row>
-    <row r="59" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>72</v>
       </c>
@@ -55896,7 +55896,7 @@
         <v>9.761807200000007E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>73</v>
       </c>
@@ -56093,7 +56093,7 @@
         <v>0.10416581300000008</v>
       </c>
     </row>
-    <row r="61" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>74</v>
       </c>
@@ -56290,7 +56290,7 @@
         <v>0.11071355400000009</v>
       </c>
     </row>
-    <row r="62" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>75</v>
       </c>
@@ -56487,7 +56487,7 @@
         <v>0.1172612950000001</v>
       </c>
     </row>
-    <row r="63" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>76</v>
       </c>
@@ -56684,7 +56684,7 @@
         <v>0.12380903600000011</v>
       </c>
     </row>
-    <row r="64" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>77</v>
       </c>
@@ -56881,7 +56881,7 @@
         <v>0.13035677700000012</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>78</v>
       </c>
@@ -57078,7 +57078,7 @@
         <v>0.13690451800000014</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>79</v>
       </c>
@@ -57275,7 +57275,7 @@
         <v>0.14345225900000017</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>80</v>
       </c>
@@ -57434,11 +57434,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2C5941-0F60-4C3F-9BA6-C77841CC7AAE}">
   <dimension ref="A1:AW67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="X33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU52" sqref="AU52:AW67"/>
+      <selection pane="bottomRight" activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64640,17 +64640,20 @@
         <v>2.9525559999999999E-2</v>
       </c>
       <c r="AT48" s="5">
-        <f t="shared" si="4"/>
+        <f>AT47+(AT67-AT47)/20</f>
         <v>2.8945110000000003E-2</v>
       </c>
       <c r="AU48" s="5">
-        <v>3.3473200000000002E-2</v>
+        <f t="shared" ref="AU48:AW48" si="5">AU47+(AU67-AU47)/20</f>
+        <v>4.4015625000000003E-2</v>
       </c>
       <c r="AV48" s="5">
-        <v>2.2551399999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.9523565000000002E-2</v>
       </c>
       <c r="AW48" s="5">
-        <v>3.9519000000000004E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.5297759999999997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.25">
@@ -64666,185 +64669,188 @@
         <v>5.0423013600000004E-2</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" ref="D49:AT54" si="5">2*D48-D47</f>
+        <f t="shared" ref="D49:AT54" si="6">2*D48-D47</f>
         <v>5.2299929400000007E-2</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.4176848799999996E-2</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9085477600000019E-2</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3994106399999987E-2</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6319288799999987E-2</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.864447479999998E-2</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7557094799999995E-2</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7498798199999988E-2</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7015134599999998E-2</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5843280599999998E-2</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.4983216199999994E-2</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.1175859799999991E-2</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5852930399999995E-2</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.782311860000001E-2</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0676588600000003E-2</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9062532000000024E-2</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.1357035200000016E-2</v>
       </c>
       <c r="U49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2206970999999993E-2</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.7568797599999992E-2</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9654511600000001E-2</v>
       </c>
       <c r="X49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4966504399999982E-2</v>
       </c>
       <c r="Y49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3353855599999991E-2</v>
       </c>
       <c r="Z49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6254755399999993E-2</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0825475800000005E-2</v>
       </c>
       <c r="AB49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.91406064E-2</v>
       </c>
       <c r="AC49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2279571600000001E-2</v>
       </c>
       <c r="AD49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1382431799999999E-2</v>
       </c>
       <c r="AE49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1563239999999999E-2</v>
       </c>
       <c r="AF49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.60611718E-2</v>
       </c>
       <c r="AG49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7262058000000001E-2</v>
       </c>
       <c r="AH49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5473066800000001E-2</v>
       </c>
       <c r="AI49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4949328799999994E-2</v>
       </c>
       <c r="AJ49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8187519800000002E-2</v>
       </c>
       <c r="AK49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1870049999999997E-2</v>
       </c>
       <c r="AL49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5371580000000002E-2</v>
       </c>
       <c r="AM49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1871370000000002E-2</v>
       </c>
       <c r="AN49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5773979999999997E-2</v>
       </c>
       <c r="AO49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0891740000000003E-2</v>
       </c>
       <c r="AP49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0933940000000004E-2</v>
       </c>
       <c r="AQ49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5136049999999997E-2</v>
       </c>
       <c r="AR49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.7196230000000001E-2</v>
       </c>
       <c r="AS49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.586632E-2</v>
       </c>
       <c r="AT49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5316420000000001E-2</v>
       </c>
       <c r="AU49" s="5">
-        <v>3.4467299999999999E-2</v>
+        <f t="shared" ref="AU49:AW53" si="7">2*AU48-AU47</f>
+        <v>4.9593750000000006E-2</v>
       </c>
       <c r="AV49" s="5">
-        <v>4.7675200000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.5864430000000003E-2</v>
       </c>
       <c r="AW49" s="5">
-        <v>2.1784000000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.1334719999999991E-2</v>
       </c>
     </row>
     <row r="50" spans="1:49" x14ac:dyDescent="0.25">
@@ -64856,189 +64862,192 @@
         <v>5.7168543777272741E-2</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" ref="C50:R65" si="6">2*C49-C48</f>
+        <f t="shared" ref="C50:R65" si="8">2*C49-C48</f>
         <v>5.5955068400000002E-2</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.7727711100000009E-2</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9500357199999993E-2</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4136284400000021E-2</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8772211599999994E-2</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0968217199999989E-2</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.3164226199999974E-2</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2137256199999999E-2</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2082198299999983E-2</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.1625404900000009E-2</v>
       </c>
       <c r="M50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0518653900000006E-2</v>
       </c>
       <c r="N50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9150815299999996E-2</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5554978699999997E-2</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0527767599999999E-2</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2388500900000013E-2</v>
       </c>
       <c r="R50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6194555900000005E-2</v>
       </c>
       <c r="S50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.3559058000000024E-2</v>
       </c>
       <c r="T50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5726088800000008E-2</v>
       </c>
       <c r="U50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7084361499999995E-2</v>
       </c>
       <c r="V50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.270386439999999E-2</v>
       </c>
       <c r="W50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4673705400000003E-2</v>
       </c>
       <c r="X50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.080169859999998E-2</v>
       </c>
       <c r="Y50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9278641399999989E-2</v>
       </c>
       <c r="Z50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.201838009999999E-2</v>
       </c>
       <c r="AA50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7446282700000007E-2</v>
       </c>
       <c r="AB50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.52994616E-2</v>
       </c>
       <c r="AC50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8819595400000004E-2</v>
       </c>
       <c r="AD50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7972296699999998E-2</v>
       </c>
       <c r="AE50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8143059999999999E-2</v>
       </c>
       <c r="AF50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.23911067E-2</v>
       </c>
       <c r="AG50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3525277000000001E-2</v>
       </c>
       <c r="AH50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1835674200000006E-2</v>
       </c>
       <c r="AI50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0785477199999991E-2</v>
       </c>
       <c r="AJ50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3843768700000003E-2</v>
       </c>
       <c r="AK50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.843282499999999E-2</v>
       </c>
       <c r="AL50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1184270000000004E-2</v>
       </c>
       <c r="AM50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6767405000000002E-2</v>
       </c>
       <c r="AN50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.211986999999999E-2</v>
       </c>
       <c r="AO50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6953310000000005E-2</v>
       </c>
       <c r="AP50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6437610000000006E-2</v>
       </c>
       <c r="AQ50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0961824999999995E-2</v>
       </c>
       <c r="AR50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2351995E-2</v>
       </c>
       <c r="AS50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2207080000000001E-2</v>
       </c>
       <c r="AT50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1687729999999999E-2</v>
       </c>
       <c r="AU50" s="5">
-        <v>2.79306E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.5171875000000009E-2</v>
       </c>
       <c r="AV50" s="5">
-        <v>2.2665100000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.2205295000000004E-2</v>
       </c>
       <c r="AW50" s="5">
-        <v>1.35125E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.7371679999999985E-2</v>
       </c>
     </row>
     <row r="51" spans="1:49" x14ac:dyDescent="0.25">
@@ -65050,189 +65059,192 @@
         <v>6.2629217672727278E-2</v>
       </c>
       <c r="C51" s="5">
+        <f t="shared" si="8"/>
+        <v>6.14871232E-2</v>
+      </c>
+      <c r="D51" s="5">
         <f t="shared" si="6"/>
-        <v>6.14871232E-2</v>
-      </c>
-      <c r="D51" s="5">
-        <f t="shared" si="5"/>
         <v>6.3155492800000018E-2</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4823865599999989E-2</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9187091200000023E-2</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.3550316800000001E-2</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5617145599999991E-2</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.7683977599999968E-2</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.6717417600000004E-2</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.6665598399999979E-2</v>
       </c>
       <c r="L51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.6235675200000019E-2</v>
       </c>
       <c r="M51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5194027200000013E-2</v>
       </c>
       <c r="N51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.3318414399999999E-2</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9934097600000004E-2</v>
       </c>
       <c r="P51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5202604800000003E-2</v>
       </c>
       <c r="Q51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.6953883200000017E-2</v>
       </c>
       <c r="R51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1712523200000008E-2</v>
       </c>
       <c r="S51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8055584000000025E-2</v>
       </c>
       <c r="T51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.00951424E-2</v>
       </c>
       <c r="U51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.196175199999999E-2</v>
       </c>
       <c r="V51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.783893119999998E-2</v>
       </c>
       <c r="W51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9692899200000005E-2</v>
       </c>
       <c r="X51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6636892799999977E-2</v>
       </c>
       <c r="Y51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5203427199999988E-2</v>
       </c>
       <c r="Z51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.7782004799999988E-2</v>
       </c>
       <c r="AA51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4067089600000012E-2</v>
       </c>
       <c r="AB51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1458316800000001E-2</v>
       </c>
       <c r="AC51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5359619200000006E-2</v>
       </c>
       <c r="AD51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4562161599999997E-2</v>
       </c>
       <c r="AE51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.472288E-2</v>
       </c>
       <c r="AF51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8721041600000001E-2</v>
       </c>
       <c r="AG51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9788496000000002E-2</v>
       </c>
       <c r="AH51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8198281600000011E-2</v>
       </c>
       <c r="AI51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6621625599999989E-2</v>
       </c>
       <c r="AJ51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9500017600000003E-2</v>
       </c>
       <c r="AK51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4995599999999983E-2</v>
       </c>
       <c r="AL51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6996960000000006E-2</v>
       </c>
       <c r="AM51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.1663439999999995E-2</v>
       </c>
       <c r="AN51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8465759999999983E-2</v>
       </c>
       <c r="AO51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3014880000000007E-2</v>
       </c>
       <c r="AP51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1941280000000008E-2</v>
       </c>
       <c r="AQ51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6787599999999994E-2</v>
       </c>
       <c r="AR51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.750776E-2</v>
       </c>
       <c r="AS51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8547840000000002E-2</v>
       </c>
       <c r="AT51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8059039999999997E-2</v>
       </c>
       <c r="AU51" s="5">
-        <v>3.4183699999999997E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.0750000000000012E-2</v>
       </c>
       <c r="AV51" s="5">
-        <v>2.32599E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.8546160000000005E-2</v>
       </c>
       <c r="AW51" s="5">
-        <v>2.8063100000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.3408639999999979E-2</v>
       </c>
     </row>
     <row r="52" spans="1:49" x14ac:dyDescent="0.25">
@@ -65244,192 +65256,192 @@
         <v>6.8089891568181821E-2</v>
       </c>
       <c r="C52" s="5">
+        <f t="shared" si="8"/>
+        <v>6.7019177999999999E-2</v>
+      </c>
+      <c r="D52" s="5">
         <f t="shared" si="6"/>
-        <v>6.7019177999999999E-2</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" si="5"/>
         <v>6.8583274500000027E-2</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0147373999999985E-2</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.4237898000000024E-2</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8328422000000009E-2</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0266073999999993E-2</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.2203728999999962E-2</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.1297579000000009E-2</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.1248998499999975E-2</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.084594550000003E-2</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9869400500000021E-2</v>
       </c>
       <c r="N52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.7486013500000001E-2</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.431321650000001E-2</v>
       </c>
       <c r="P52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9877442000000007E-2</v>
       </c>
       <c r="Q52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.1519265500000021E-2</v>
       </c>
       <c r="R52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7230490500000017E-2</v>
       </c>
       <c r="S52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.2552110000000026E-2</v>
       </c>
       <c r="T52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.4464195999999991E-2</v>
       </c>
       <c r="U52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.6839142499999985E-2</v>
       </c>
       <c r="V52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.297399799999997E-2</v>
       </c>
       <c r="W52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.4712093000000007E-2</v>
       </c>
       <c r="X52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2472086999999975E-2</v>
       </c>
       <c r="Y52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1128212999999987E-2</v>
       </c>
       <c r="Z52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3545629499999978E-2</v>
       </c>
       <c r="AA52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0687896500000017E-2</v>
       </c>
       <c r="AB52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.7617172000000001E-2</v>
       </c>
       <c r="AC52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1899643000000009E-2</v>
       </c>
       <c r="AD52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1152026499999996E-2</v>
       </c>
       <c r="AE52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.13027E-2</v>
       </c>
       <c r="AF52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5050976500000001E-2</v>
       </c>
       <c r="AG52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6051715000000002E-2</v>
       </c>
       <c r="AH52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.4560889000000015E-2</v>
       </c>
       <c r="AI52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2457773999999987E-2</v>
       </c>
       <c r="AJ52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5156266500000004E-2</v>
       </c>
       <c r="AK52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1558374999999976E-2</v>
       </c>
       <c r="AL52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2809650000000009E-2</v>
       </c>
       <c r="AM52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.6559474999999988E-2</v>
       </c>
       <c r="AN52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.4811649999999976E-2</v>
       </c>
       <c r="AO52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.907645000000001E-2</v>
       </c>
       <c r="AP52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7444950000000004E-2</v>
       </c>
       <c r="AQ52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2613374999999999E-2</v>
       </c>
       <c r="AR52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2663525000000007E-2</v>
       </c>
       <c r="AS52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.4888600000000003E-2</v>
       </c>
       <c r="AT52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.4430349999999995E-2</v>
       </c>
       <c r="AU52" s="5">
-        <f t="shared" ref="AU52:AW53" si="7">2*AU51-AU50</f>
-        <v>4.0436799999999995E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.6328125000000016E-2</v>
       </c>
       <c r="AV52" s="5">
         <f t="shared" si="7"/>
-        <v>2.38547E-2</v>
+        <v>5.4887025000000006E-2</v>
       </c>
       <c r="AW52" s="5">
         <f t="shared" si="7"/>
-        <v>4.2613700000000004E-2</v>
+        <v>5.9445599999999973E-2</v>
       </c>
     </row>
     <row r="53" spans="1:49" x14ac:dyDescent="0.25">
@@ -65441,192 +65453,192 @@
         <v>7.3550565463636378E-2</v>
       </c>
       <c r="C53" s="5">
+        <f t="shared" si="8"/>
+        <v>7.2551232800000004E-2</v>
+      </c>
+      <c r="D53" s="5">
         <f t="shared" si="6"/>
-        <v>7.2551232800000004E-2</v>
-      </c>
-      <c r="D53" s="5">
-        <f t="shared" si="5"/>
         <v>7.4011056200000036E-2</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5470882399999981E-2</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9288704800000026E-2</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.3106527200000016E-2</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.4915002399999995E-2</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6723480399999955E-2</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.5877740400000013E-2</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.5832398599999971E-2</v>
       </c>
       <c r="L53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.545621580000004E-2</v>
       </c>
       <c r="M53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.4544773800000028E-2</v>
       </c>
       <c r="N53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.1653612600000003E-2</v>
       </c>
       <c r="O53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.8692335400000016E-2</v>
       </c>
       <c r="P53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.4552279200000011E-2</v>
       </c>
       <c r="Q53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6084647800000025E-2</v>
       </c>
       <c r="R53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2748457800000027E-2</v>
       </c>
       <c r="S53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.7048636000000026E-2</v>
       </c>
       <c r="T53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.8833249599999983E-2</v>
       </c>
       <c r="U53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.171653299999998E-2</v>
       </c>
       <c r="V53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8109064799999961E-2</v>
       </c>
       <c r="W53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9731286800000009E-2</v>
       </c>
       <c r="X53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8307281199999972E-2</v>
       </c>
       <c r="Y53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7052998799999985E-2</v>
       </c>
       <c r="Z53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9309254199999976E-2</v>
       </c>
       <c r="AA53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.7308703400000022E-2</v>
       </c>
       <c r="AB53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3776027200000002E-2</v>
       </c>
       <c r="AC53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.8439666800000012E-2</v>
       </c>
       <c r="AD53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.7741891399999995E-2</v>
       </c>
       <c r="AE53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.788252E-2</v>
       </c>
       <c r="AF53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1380911400000002E-2</v>
       </c>
       <c r="AG53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2314934000000002E-2</v>
       </c>
       <c r="AH53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.092349640000002E-2</v>
       </c>
       <c r="AI53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8293922399999984E-2</v>
       </c>
       <c r="AJ53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0812515399999998E-2</v>
       </c>
       <c r="AK53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.8121149999999969E-2</v>
       </c>
       <c r="AL53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8622340000000004E-2</v>
       </c>
       <c r="AM53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.1455509999999981E-2</v>
       </c>
       <c r="AN53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1157539999999969E-2</v>
       </c>
       <c r="AO53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5138020000000019E-2</v>
       </c>
       <c r="AP53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2948619999999992E-2</v>
       </c>
       <c r="AQ53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8439150000000004E-2</v>
       </c>
       <c r="AR53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.7819290000000013E-2</v>
       </c>
       <c r="AS53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1229360000000004E-2</v>
       </c>
       <c r="AT53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.0801659999999993E-2</v>
       </c>
       <c r="AU53" s="5">
         <f t="shared" si="7"/>
-        <v>4.6689899999999993E-2</v>
+        <v>7.1906250000000019E-2</v>
       </c>
       <c r="AV53" s="5">
         <f t="shared" si="7"/>
-        <v>2.4449499999999999E-2</v>
+        <v>6.1227890000000007E-2</v>
       </c>
       <c r="AW53" s="5">
         <f t="shared" si="7"/>
-        <v>5.7164300000000008E-2</v>
+        <v>6.5482559999999967E-2</v>
       </c>
     </row>
     <row r="54" spans="1:49" x14ac:dyDescent="0.25">
@@ -65638,192 +65650,192 @@
         <v>7.9011239359090879E-2</v>
       </c>
       <c r="C54" s="5">
+        <f t="shared" si="8"/>
+        <v>7.8083287600000009E-2</v>
+      </c>
+      <c r="D54" s="5">
         <f t="shared" si="6"/>
-        <v>7.8083287600000009E-2</v>
-      </c>
-      <c r="D54" s="5">
-        <f t="shared" si="5"/>
         <v>7.9438837900000045E-2</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0794390799999977E-2</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.4339511600000028E-2</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.7884632400000023E-2</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.9563930799999997E-2</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.1243231799999949E-2</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0457901800000018E-2</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0415798699999966E-2</v>
       </c>
       <c r="L54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0066486100000051E-2</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.9220147100000036E-2</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5821211700000006E-2</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3071454300000023E-2</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.9227116400000014E-2</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0650030100000029E-2</v>
       </c>
       <c r="R54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8266425100000037E-2</v>
       </c>
       <c r="S54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.1545162000000027E-2</v>
       </c>
       <c r="T54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3202303199999975E-2</v>
       </c>
       <c r="U54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6593923499999975E-2</v>
       </c>
       <c r="V54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.3244131599999951E-2</v>
       </c>
       <c r="W54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.4750480600000011E-2</v>
       </c>
       <c r="X54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.4142475399999963E-2</v>
       </c>
       <c r="Y54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2977784599999984E-2</v>
       </c>
       <c r="Z54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5072878899999973E-2</v>
       </c>
       <c r="AA54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.392951030000002E-2</v>
       </c>
       <c r="AB54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9934882400000009E-2</v>
       </c>
       <c r="AC54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4979690600000015E-2</v>
       </c>
       <c r="AD54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4331756299999987E-2</v>
       </c>
       <c r="AE54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4462340000000007E-2</v>
       </c>
       <c r="AF54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7710846300000002E-2</v>
       </c>
       <c r="AG54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8578153000000003E-2</v>
       </c>
       <c r="AH54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7286103800000024E-2</v>
       </c>
       <c r="AI54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.4130070799999975E-2</v>
       </c>
       <c r="AJ54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.6468764299999992E-2</v>
       </c>
       <c r="AK54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4683924999999962E-2</v>
       </c>
       <c r="AL54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.4435029999999999E-2</v>
       </c>
       <c r="AM54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6351544999999974E-2</v>
       </c>
       <c r="AN54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7503429999999962E-2</v>
       </c>
       <c r="AO54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.1199590000000035E-2</v>
       </c>
       <c r="AP54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.845228999999998E-2</v>
       </c>
       <c r="AQ54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.4264925000000009E-2</v>
       </c>
       <c r="AR54" s="5">
-        <f t="shared" ref="AR54:AT54" si="8">2*AR53-AR52</f>
+        <f t="shared" ref="AR54:AT54" si="9">2*AR53-AR52</f>
         <v>8.297505500000002E-2</v>
       </c>
       <c r="AS54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.7570120000000011E-2</v>
       </c>
       <c r="AT54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.7172969999999999E-2</v>
       </c>
       <c r="AU54" s="5">
-        <f t="shared" ref="AU54:AW62" si="9">2*AU53-AU52</f>
-        <v>5.294299999999999E-2</v>
+        <f t="shared" ref="AU54:AW62" si="10">2*AU53-AU52</f>
+        <v>7.7484375000000022E-2</v>
       </c>
       <c r="AV54" s="5">
-        <f t="shared" si="9"/>
-        <v>2.5044299999999999E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.7568755000000008E-2</v>
       </c>
       <c r="AW54" s="5">
-        <f t="shared" si="9"/>
-        <v>7.1714900000000012E-2</v>
+        <f t="shared" si="10"/>
+        <v>7.1519519999999961E-2</v>
       </c>
     </row>
     <row r="55" spans="1:49" x14ac:dyDescent="0.25">
@@ -65835,192 +65847,192 @@
         <v>8.4471913254545478E-2</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.3615342400000014E-2</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.4866619600000054E-2</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.6117899199999973E-2</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.9390318400000029E-2</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.2662737600000031E-2</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.4212859199999999E-2</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5762983199999943E-2</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5038063200000023E-2</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.4999198799999962E-2</v>
       </c>
       <c r="L55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.4676756400000062E-2</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.3895520400000043E-2</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.9988810800000008E-2</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.7450573200000029E-2</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.3901953600000018E-2</v>
       </c>
       <c r="Q55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5215412400000032E-2</v>
       </c>
       <c r="R55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.3784392400000046E-2</v>
       </c>
       <c r="S55" s="5">
-        <f t="shared" ref="D55:AT63" si="10">2*S54-S53</f>
+        <f t="shared" ref="D55:AT63" si="11">2*S54-S53</f>
         <v>9.6041688000000028E-2</v>
       </c>
       <c r="T55" s="5">
+        <f t="shared" si="11"/>
+        <v>9.7571356799999967E-2</v>
+      </c>
+      <c r="U55" s="5">
+        <f t="shared" si="11"/>
+        <v>9.147131399999997E-2</v>
+      </c>
+      <c r="V55" s="5">
+        <f t="shared" si="11"/>
+        <v>8.8379198399999942E-2</v>
+      </c>
+      <c r="W55" s="5">
+        <f t="shared" si="11"/>
+        <v>8.9769674400000013E-2</v>
+      </c>
+      <c r="X55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.9977669599999954E-2</v>
+      </c>
+      <c r="Y55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.8902570399999983E-2</v>
+      </c>
+      <c r="Z55" s="5">
+        <f t="shared" si="11"/>
+        <v>8.083650359999997E-2</v>
+      </c>
+      <c r="AA55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.0550317200000018E-2</v>
+      </c>
+      <c r="AB55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.6093737600000017E-2</v>
+      </c>
+      <c r="AC55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.1519714400000017E-2</v>
+      </c>
+      <c r="AD55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.0921621199999979E-2</v>
+      </c>
+      <c r="AE55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.1042160000000021E-2</v>
+      </c>
+      <c r="AF55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.4040781200000003E-2</v>
+      </c>
+      <c r="AG55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.4841372000000003E-2</v>
+      </c>
+      <c r="AH55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.3648711200000022E-2</v>
+      </c>
+      <c r="AI55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.9966219199999966E-2</v>
+      </c>
+      <c r="AJ55" s="5">
+        <f t="shared" si="11"/>
+        <v>8.2125013199999986E-2</v>
+      </c>
+      <c r="AK55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.1246699999999955E-2</v>
+      </c>
+      <c r="AL55" s="5">
+        <f t="shared" si="11"/>
+        <v>8.0247719999999995E-2</v>
+      </c>
+      <c r="AM55" s="5">
+        <f t="shared" si="11"/>
+        <v>9.1247579999999967E-2</v>
+      </c>
+      <c r="AN55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.3849319999999954E-2</v>
+      </c>
+      <c r="AO55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.7261160000000051E-2</v>
+      </c>
+      <c r="AP55" s="5">
+        <f t="shared" si="11"/>
+        <v>8.3955959999999968E-2</v>
+      </c>
+      <c r="AQ55" s="5">
+        <f t="shared" si="11"/>
+        <v>8.0090700000000015E-2</v>
+      </c>
+      <c r="AR55" s="5">
+        <f t="shared" si="11"/>
+        <v>8.8130820000000026E-2</v>
+      </c>
+      <c r="AS55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.3910880000000012E-2</v>
+      </c>
+      <c r="AT55" s="5">
+        <f t="shared" si="11"/>
+        <v>7.3544280000000004E-2</v>
+      </c>
+      <c r="AU55" s="5">
         <f t="shared" si="10"/>
-        <v>9.7571356799999967E-2</v>
-      </c>
-      <c r="U55" s="5">
+        <v>8.3062500000000025E-2</v>
+      </c>
+      <c r="AV55" s="5">
         <f t="shared" si="10"/>
-        <v>9.147131399999997E-2</v>
-      </c>
-      <c r="V55" s="5">
+        <v>7.3909620000000009E-2</v>
+      </c>
+      <c r="AW55" s="5">
         <f t="shared" si="10"/>
-        <v>8.8379198399999942E-2</v>
-      </c>
-      <c r="W55" s="5">
-        <f t="shared" si="10"/>
-        <v>8.9769674400000013E-2</v>
-      </c>
-      <c r="X55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.9977669599999954E-2</v>
-      </c>
-      <c r="Y55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.8902570399999983E-2</v>
-      </c>
-      <c r="Z55" s="5">
-        <f t="shared" si="10"/>
-        <v>8.083650359999997E-2</v>
-      </c>
-      <c r="AA55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.0550317200000018E-2</v>
-      </c>
-      <c r="AB55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.6093737600000017E-2</v>
-      </c>
-      <c r="AC55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.1519714400000017E-2</v>
-      </c>
-      <c r="AD55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.0921621199999979E-2</v>
-      </c>
-      <c r="AE55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.1042160000000021E-2</v>
-      </c>
-      <c r="AF55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.4040781200000003E-2</v>
-      </c>
-      <c r="AG55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.4841372000000003E-2</v>
-      </c>
-      <c r="AH55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.3648711200000022E-2</v>
-      </c>
-      <c r="AI55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.9966219199999966E-2</v>
-      </c>
-      <c r="AJ55" s="5">
-        <f t="shared" si="10"/>
-        <v>8.2125013199999986E-2</v>
-      </c>
-      <c r="AK55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.1246699999999955E-2</v>
-      </c>
-      <c r="AL55" s="5">
-        <f t="shared" si="10"/>
-        <v>8.0247719999999995E-2</v>
-      </c>
-      <c r="AM55" s="5">
-        <f t="shared" si="10"/>
-        <v>9.1247579999999967E-2</v>
-      </c>
-      <c r="AN55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.3849319999999954E-2</v>
-      </c>
-      <c r="AO55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.7261160000000051E-2</v>
-      </c>
-      <c r="AP55" s="5">
-        <f t="shared" si="10"/>
-        <v>8.3955959999999968E-2</v>
-      </c>
-      <c r="AQ55" s="5">
-        <f t="shared" si="10"/>
-        <v>8.0090700000000015E-2</v>
-      </c>
-      <c r="AR55" s="5">
-        <f t="shared" si="10"/>
-        <v>8.8130820000000026E-2</v>
-      </c>
-      <c r="AS55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.3910880000000012E-2</v>
-      </c>
-      <c r="AT55" s="5">
-        <f t="shared" si="10"/>
-        <v>7.3544280000000004E-2</v>
-      </c>
-      <c r="AU55" s="5">
-        <f t="shared" si="9"/>
-        <v>5.9196099999999988E-2</v>
-      </c>
-      <c r="AV55" s="5">
-        <f t="shared" si="9"/>
-        <v>2.5639099999999998E-2</v>
-      </c>
-      <c r="AW55" s="5">
-        <f t="shared" si="9"/>
-        <v>8.6265500000000023E-2</v>
+        <v>7.7556479999999955E-2</v>
       </c>
     </row>
     <row r="56" spans="1:49" x14ac:dyDescent="0.25">
@@ -66032,192 +66044,192 @@
         <v>8.9932587149999993E-2</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.914739720000002E-2</v>
       </c>
       <c r="D56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.0294401300000063E-2</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.1441407599999969E-2</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.4441125200000031E-2</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.7440842800000038E-2</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.8861787600000001E-2</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10028273459999994</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9618224600000027E-2</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9582598899999958E-2</v>
+      </c>
+      <c r="L56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9287026700000072E-2</v>
+      </c>
+      <c r="M56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.8570893700000051E-2</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10415640990000001</v>
+      </c>
+      <c r="O56" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10182969210000004</v>
+      </c>
+      <c r="P56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.8576790800000022E-2</v>
+      </c>
+      <c r="Q56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9780794700000036E-2</v>
+      </c>
+      <c r="R56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.9302359700000056E-2</v>
+      </c>
+      <c r="S56" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10053821400000003</v>
+      </c>
+      <c r="T56" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10194041039999996</v>
+      </c>
+      <c r="U56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.6348704499999965E-2</v>
+      </c>
+      <c r="V56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.3514265199999932E-2</v>
+      </c>
+      <c r="W56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.4788868200000015E-2</v>
+      </c>
+      <c r="X56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.5812863799999944E-2</v>
+      </c>
+      <c r="Y56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.4827356199999981E-2</v>
+      </c>
+      <c r="Z56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.6600128299999968E-2</v>
+      </c>
+      <c r="AA56" s="5">
+        <f t="shared" si="11"/>
+        <v>7.7171124100000016E-2</v>
+      </c>
+      <c r="AB56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.2252592800000024E-2</v>
+      </c>
+      <c r="AC56" s="5">
+        <f t="shared" si="11"/>
+        <v>7.805973820000002E-2</v>
+      </c>
+      <c r="AD56" s="5">
+        <f t="shared" si="11"/>
+        <v>7.7511486099999971E-2</v>
+      </c>
+      <c r="AE56" s="5">
+        <f t="shared" si="11"/>
+        <v>7.7621980000000035E-2</v>
+      </c>
+      <c r="AF56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.0370716100000003E-2</v>
+      </c>
+      <c r="AG56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.1104591000000004E-2</v>
+      </c>
+      <c r="AH56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.001131860000002E-2</v>
+      </c>
+      <c r="AI56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.5802367599999957E-2</v>
+      </c>
+      <c r="AJ56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.7781262099999979E-2</v>
+      </c>
+      <c r="AK56" s="5">
+        <f t="shared" si="11"/>
+        <v>7.7809474999999947E-2</v>
+      </c>
+      <c r="AL56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.606040999999999E-2</v>
+      </c>
+      <c r="AM56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.614361499999996E-2</v>
+      </c>
+      <c r="AN56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.0195209999999947E-2</v>
+      </c>
+      <c r="AO56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.3322730000000067E-2</v>
+      </c>
+      <c r="AP56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.9459629999999957E-2</v>
+      </c>
+      <c r="AQ56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.591647500000002E-2</v>
+      </c>
+      <c r="AR56" s="5">
+        <f t="shared" si="11"/>
+        <v>9.3286585000000033E-2</v>
+      </c>
+      <c r="AS56" s="5">
+        <f t="shared" si="11"/>
+        <v>8.0251640000000013E-2</v>
+      </c>
+      <c r="AT56" s="5">
+        <f t="shared" si="11"/>
+        <v>7.9915590000000009E-2</v>
+      </c>
+      <c r="AU56" s="5">
         <f t="shared" si="10"/>
-        <v>9.0294401300000063E-2</v>
-      </c>
-      <c r="E56" s="5">
+        <v>8.8640625000000028E-2</v>
+      </c>
+      <c r="AV56" s="5">
         <f t="shared" si="10"/>
-        <v>9.1441407599999969E-2</v>
-      </c>
-      <c r="F56" s="5">
+        <v>8.025048500000001E-2</v>
+      </c>
+      <c r="AW56" s="5">
         <f t="shared" si="10"/>
-        <v>9.4441125200000031E-2</v>
-      </c>
-      <c r="G56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.7440842800000038E-2</v>
-      </c>
-      <c r="H56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.8861787600000001E-2</v>
-      </c>
-      <c r="I56" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10028273459999994</v>
-      </c>
-      <c r="J56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9618224600000027E-2</v>
-      </c>
-      <c r="K56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9582598899999958E-2</v>
-      </c>
-      <c r="L56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9287026700000072E-2</v>
-      </c>
-      <c r="M56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.8570893700000051E-2</v>
-      </c>
-      <c r="N56" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10415640990000001</v>
-      </c>
-      <c r="O56" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10182969210000004</v>
-      </c>
-      <c r="P56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.8576790800000022E-2</v>
-      </c>
-      <c r="Q56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9780794700000036E-2</v>
-      </c>
-      <c r="R56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.9302359700000056E-2</v>
-      </c>
-      <c r="S56" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10053821400000003</v>
-      </c>
-      <c r="T56" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10194041039999996</v>
-      </c>
-      <c r="U56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.6348704499999965E-2</v>
-      </c>
-      <c r="V56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.3514265199999932E-2</v>
-      </c>
-      <c r="W56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.4788868200000015E-2</v>
-      </c>
-      <c r="X56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.5812863799999944E-2</v>
-      </c>
-      <c r="Y56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.4827356199999981E-2</v>
-      </c>
-      <c r="Z56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.6600128299999968E-2</v>
-      </c>
-      <c r="AA56" s="5">
-        <f t="shared" si="10"/>
-        <v>7.7171124100000016E-2</v>
-      </c>
-      <c r="AB56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.2252592800000024E-2</v>
-      </c>
-      <c r="AC56" s="5">
-        <f t="shared" si="10"/>
-        <v>7.805973820000002E-2</v>
-      </c>
-      <c r="AD56" s="5">
-        <f t="shared" si="10"/>
-        <v>7.7511486099999971E-2</v>
-      </c>
-      <c r="AE56" s="5">
-        <f t="shared" si="10"/>
-        <v>7.7621980000000035E-2</v>
-      </c>
-      <c r="AF56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.0370716100000003E-2</v>
-      </c>
-      <c r="AG56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.1104591000000004E-2</v>
-      </c>
-      <c r="AH56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.001131860000002E-2</v>
-      </c>
-      <c r="AI56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.5802367599999957E-2</v>
-      </c>
-      <c r="AJ56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.7781262099999979E-2</v>
-      </c>
-      <c r="AK56" s="5">
-        <f t="shared" si="10"/>
-        <v>7.7809474999999947E-2</v>
-      </c>
-      <c r="AL56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.606040999999999E-2</v>
-      </c>
-      <c r="AM56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.614361499999996E-2</v>
-      </c>
-      <c r="AN56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.0195209999999947E-2</v>
-      </c>
-      <c r="AO56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.3322730000000067E-2</v>
-      </c>
-      <c r="AP56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.9459629999999957E-2</v>
-      </c>
-      <c r="AQ56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.591647500000002E-2</v>
-      </c>
-      <c r="AR56" s="5">
-        <f t="shared" si="10"/>
-        <v>9.3286585000000033E-2</v>
-      </c>
-      <c r="AS56" s="5">
-        <f t="shared" si="10"/>
-        <v>8.0251640000000013E-2</v>
-      </c>
-      <c r="AT56" s="5">
-        <f t="shared" si="10"/>
-        <v>7.9915590000000009E-2</v>
-      </c>
-      <c r="AU56" s="5">
-        <f t="shared" si="9"/>
-        <v>6.5449199999999985E-2</v>
-      </c>
-      <c r="AV56" s="5">
-        <f t="shared" si="9"/>
-        <v>2.6233899999999997E-2</v>
-      </c>
-      <c r="AW56" s="5">
-        <f t="shared" si="9"/>
-        <v>0.10081610000000003</v>
+        <v>8.3593439999999949E-2</v>
       </c>
     </row>
     <row r="57" spans="1:49" x14ac:dyDescent="0.25">
@@ -66229,192 +66241,192 @@
         <v>9.539326104545455E-2</v>
       </c>
       <c r="C57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.4679452000000025E-2</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5722183000000072E-2</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.6764915999999965E-2</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.9491932000000033E-2</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10221894800000005</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.103510716</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10480248599999993</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10419838600000003</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10416599899999995</v>
       </c>
       <c r="L57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10389729700000008</v>
       </c>
       <c r="M57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10324626700000006</v>
       </c>
       <c r="N57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10832400900000001</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10620881100000004</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10325162800000003</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10434617700000004</v>
       </c>
       <c r="R57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.4820327000000065E-2</v>
       </c>
       <c r="S57" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10503474000000003</v>
+      </c>
+      <c r="T57" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10630946399999995</v>
+      </c>
+      <c r="U57" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10122609499999996</v>
+      </c>
+      <c r="V57" s="5">
+        <f t="shared" si="11"/>
+        <v>9.8649331999999923E-2</v>
+      </c>
+      <c r="W57" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9808062000000017E-2</v>
+      </c>
+      <c r="X57" s="5">
+        <f t="shared" si="11"/>
+        <v>9.1648057999999935E-2</v>
+      </c>
+      <c r="Y57" s="5">
+        <f t="shared" si="11"/>
+        <v>9.075214199999998E-2</v>
+      </c>
+      <c r="Z57" s="5">
+        <f t="shared" si="11"/>
+        <v>9.2363752999999965E-2</v>
+      </c>
+      <c r="AA57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.3791931000000014E-2</v>
+      </c>
+      <c r="AB57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.8411448000000031E-2</v>
+      </c>
+      <c r="AC57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.4599762000000023E-2</v>
+      </c>
+      <c r="AD57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.4101350999999963E-2</v>
+      </c>
+      <c r="AE57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.4201800000000049E-2</v>
+      </c>
+      <c r="AF57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.6700651000000004E-2</v>
+      </c>
+      <c r="AG57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.7367810000000004E-2</v>
+      </c>
+      <c r="AH57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.6373926000000018E-2</v>
+      </c>
+      <c r="AI57" s="5">
+        <f t="shared" si="11"/>
+        <v>9.1638515999999948E-2</v>
+      </c>
+      <c r="AJ57" s="5">
+        <f t="shared" si="11"/>
+        <v>9.3437510999999973E-2</v>
+      </c>
+      <c r="AK57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.437224999999994E-2</v>
+      </c>
+      <c r="AL57" s="5">
+        <f t="shared" si="11"/>
+        <v>9.1873099999999985E-2</v>
+      </c>
+      <c r="AM57" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10103964999999995</v>
+      </c>
+      <c r="AN57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.654109999999994E-2</v>
+      </c>
+      <c r="AO57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.9384300000000083E-2</v>
+      </c>
+      <c r="AP57" s="5">
+        <f t="shared" si="11"/>
+        <v>9.4963299999999945E-2</v>
+      </c>
+      <c r="AQ57" s="5">
+        <f t="shared" si="11"/>
+        <v>9.1742250000000025E-2</v>
+      </c>
+      <c r="AR57" s="5">
+        <f t="shared" si="11"/>
+        <v>9.844235000000004E-2</v>
+      </c>
+      <c r="AS57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.6592400000000014E-2</v>
+      </c>
+      <c r="AT57" s="5">
+        <f t="shared" si="11"/>
+        <v>8.6286900000000014E-2</v>
+      </c>
+      <c r="AU57" s="5">
         <f t="shared" si="10"/>
-        <v>0.10503474000000003</v>
-      </c>
-      <c r="T57" s="5">
+        <v>9.4218750000000032E-2</v>
+      </c>
+      <c r="AV57" s="5">
         <f t="shared" si="10"/>
-        <v>0.10630946399999995</v>
-      </c>
-      <c r="U57" s="5">
+        <v>8.6591350000000011E-2</v>
+      </c>
+      <c r="AW57" s="5">
         <f t="shared" si="10"/>
-        <v>0.10122609499999996</v>
-      </c>
-      <c r="V57" s="5">
-        <f t="shared" si="10"/>
-        <v>9.8649331999999923E-2</v>
-      </c>
-      <c r="W57" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9808062000000017E-2</v>
-      </c>
-      <c r="X57" s="5">
-        <f t="shared" si="10"/>
-        <v>9.1648057999999935E-2</v>
-      </c>
-      <c r="Y57" s="5">
-        <f t="shared" si="10"/>
-        <v>9.075214199999998E-2</v>
-      </c>
-      <c r="Z57" s="5">
-        <f t="shared" si="10"/>
-        <v>9.2363752999999965E-2</v>
-      </c>
-      <c r="AA57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.3791931000000014E-2</v>
-      </c>
-      <c r="AB57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.8411448000000031E-2</v>
-      </c>
-      <c r="AC57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.4599762000000023E-2</v>
-      </c>
-      <c r="AD57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.4101350999999963E-2</v>
-      </c>
-      <c r="AE57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.4201800000000049E-2</v>
-      </c>
-      <c r="AF57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.6700651000000004E-2</v>
-      </c>
-      <c r="AG57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.7367810000000004E-2</v>
-      </c>
-      <c r="AH57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.6373926000000018E-2</v>
-      </c>
-      <c r="AI57" s="5">
-        <f t="shared" si="10"/>
-        <v>9.1638515999999948E-2</v>
-      </c>
-      <c r="AJ57" s="5">
-        <f t="shared" si="10"/>
-        <v>9.3437510999999973E-2</v>
-      </c>
-      <c r="AK57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.437224999999994E-2</v>
-      </c>
-      <c r="AL57" s="5">
-        <f t="shared" si="10"/>
-        <v>9.1873099999999985E-2</v>
-      </c>
-      <c r="AM57" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10103964999999995</v>
-      </c>
-      <c r="AN57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.654109999999994E-2</v>
-      </c>
-      <c r="AO57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.9384300000000083E-2</v>
-      </c>
-      <c r="AP57" s="5">
-        <f t="shared" si="10"/>
-        <v>9.4963299999999945E-2</v>
-      </c>
-      <c r="AQ57" s="5">
-        <f t="shared" si="10"/>
-        <v>9.1742250000000025E-2</v>
-      </c>
-      <c r="AR57" s="5">
-        <f t="shared" si="10"/>
-        <v>9.844235000000004E-2</v>
-      </c>
-      <c r="AS57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.6592400000000014E-2</v>
-      </c>
-      <c r="AT57" s="5">
-        <f t="shared" si="10"/>
-        <v>8.6286900000000014E-2</v>
-      </c>
-      <c r="AU57" s="5">
-        <f t="shared" si="9"/>
-        <v>7.1702299999999983E-2</v>
-      </c>
-      <c r="AV57" s="5">
-        <f t="shared" si="9"/>
-        <v>2.6828699999999997E-2</v>
-      </c>
-      <c r="AW57" s="5">
-        <f t="shared" si="9"/>
-        <v>0.11536670000000004</v>
+        <v>8.9630399999999943E-2</v>
       </c>
     </row>
     <row r="58" spans="1:49" x14ac:dyDescent="0.25">
@@ -66426,192 +66438,192 @@
         <v>0.10085393494090909</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10021150680000003</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10114996470000008</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10208842439999996</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10454273880000003</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10699705320000005</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1081596444</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10932223739999992</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10877854740000004</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10874939909999995</v>
       </c>
       <c r="L58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10850756730000009</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10792164030000007</v>
       </c>
       <c r="N58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11249160810000002</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11058792990000005</v>
       </c>
       <c r="P58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10792646520000003</v>
       </c>
       <c r="Q58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10891155930000004</v>
       </c>
       <c r="R58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10033829430000007</v>
       </c>
       <c r="S58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10953126600000003</v>
+      </c>
+      <c r="T58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11067851759999994</v>
+      </c>
+      <c r="U58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10610348549999996</v>
+      </c>
+      <c r="V58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10378439879999991</v>
+      </c>
+      <c r="W58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10482725580000002</v>
+      </c>
+      <c r="X58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.7483252199999926E-2</v>
+      </c>
+      <c r="Y58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.6676927799999979E-2</v>
+      </c>
+      <c r="Z58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.8127377699999963E-2</v>
+      </c>
+      <c r="AA58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.0412737900000012E-2</v>
+      </c>
+      <c r="AB58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.4570303200000039E-2</v>
+      </c>
+      <c r="AC58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.1139785800000025E-2</v>
+      </c>
+      <c r="AD58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.0691215899999955E-2</v>
+      </c>
+      <c r="AE58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.0781620000000063E-2</v>
+      </c>
+      <c r="AF58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.3030585900000004E-2</v>
+      </c>
+      <c r="AG58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.3631029000000005E-2</v>
+      </c>
+      <c r="AH58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.2736533400000015E-2</v>
+      </c>
+      <c r="AI58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.7474664399999938E-2</v>
+      </c>
+      <c r="AJ58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9093759899999967E-2</v>
+      </c>
+      <c r="AK58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.0935024999999933E-2</v>
+      </c>
+      <c r="AL58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.7685789999999981E-2</v>
+      </c>
+      <c r="AM58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10593568499999995</v>
+      </c>
+      <c r="AN58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.2886989999999933E-2</v>
+      </c>
+      <c r="AO58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.5445870000000099E-2</v>
+      </c>
+      <c r="AP58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10046696999999993</v>
+      </c>
+      <c r="AQ58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.756802500000003E-2</v>
+      </c>
+      <c r="AR58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10359811500000005</v>
+      </c>
+      <c r="AS58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.2933160000000015E-2</v>
+      </c>
+      <c r="AT58" s="5">
+        <f t="shared" si="11"/>
+        <v>9.2658210000000019E-2</v>
+      </c>
+      <c r="AU58" s="5">
         <f t="shared" si="10"/>
-        <v>0.10953126600000003</v>
-      </c>
-      <c r="T58" s="5">
+        <v>9.9796875000000035E-2</v>
+      </c>
+      <c r="AV58" s="5">
         <f t="shared" si="10"/>
-        <v>0.11067851759999994</v>
-      </c>
-      <c r="U58" s="5">
+        <v>9.2932215000000012E-2</v>
+      </c>
+      <c r="AW58" s="5">
         <f t="shared" si="10"/>
-        <v>0.10610348549999996</v>
-      </c>
-      <c r="V58" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10378439879999991</v>
-      </c>
-      <c r="W58" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10482725580000002</v>
-      </c>
-      <c r="X58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.7483252199999926E-2</v>
-      </c>
-      <c r="Y58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.6676927799999979E-2</v>
-      </c>
-      <c r="Z58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.8127377699999963E-2</v>
-      </c>
-      <c r="AA58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.0412737900000012E-2</v>
-      </c>
-      <c r="AB58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.4570303200000039E-2</v>
-      </c>
-      <c r="AC58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.1139785800000025E-2</v>
-      </c>
-      <c r="AD58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.0691215899999955E-2</v>
-      </c>
-      <c r="AE58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.0781620000000063E-2</v>
-      </c>
-      <c r="AF58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.3030585900000004E-2</v>
-      </c>
-      <c r="AG58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.3631029000000005E-2</v>
-      </c>
-      <c r="AH58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.2736533400000015E-2</v>
-      </c>
-      <c r="AI58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.7474664399999938E-2</v>
-      </c>
-      <c r="AJ58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9093759899999967E-2</v>
-      </c>
-      <c r="AK58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.0935024999999933E-2</v>
-      </c>
-      <c r="AL58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.7685789999999981E-2</v>
-      </c>
-      <c r="AM58" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10593568499999995</v>
-      </c>
-      <c r="AN58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.2886989999999933E-2</v>
-      </c>
-      <c r="AO58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.5445870000000099E-2</v>
-      </c>
-      <c r="AP58" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10046696999999993</v>
-      </c>
-      <c r="AQ58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.756802500000003E-2</v>
-      </c>
-      <c r="AR58" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10359811500000005</v>
-      </c>
-      <c r="AS58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.2933160000000015E-2</v>
-      </c>
-      <c r="AT58" s="5">
-        <f t="shared" si="10"/>
-        <v>9.2658210000000019E-2</v>
-      </c>
-      <c r="AU58" s="5">
-        <f t="shared" si="9"/>
-        <v>7.795539999999998E-2</v>
-      </c>
-      <c r="AV58" s="5">
-        <f t="shared" si="9"/>
-        <v>2.7423499999999996E-2</v>
-      </c>
-      <c r="AW58" s="5">
-        <f t="shared" si="9"/>
-        <v>0.12991730000000007</v>
+        <v>9.5667359999999937E-2</v>
       </c>
     </row>
     <row r="59" spans="1:49" x14ac:dyDescent="0.25">
@@ -66623,192 +66635,192 @@
         <v>0.10631460883636362</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10574356160000004</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10657774640000009</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10741193279999996</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10959354560000004</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11177515840000006</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11280857280000001</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11384198879999992</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11335870880000004</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11333279919999995</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1131178376000001</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11259701360000007</v>
       </c>
       <c r="N59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11665920720000002</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11496704880000005</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11260130240000003</v>
       </c>
       <c r="Q59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11347694160000005</v>
       </c>
       <c r="R59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10585626160000008</v>
       </c>
       <c r="S59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11402779200000003</v>
+      </c>
+      <c r="T59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11504757119999993</v>
+      </c>
+      <c r="U59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11098087599999995</v>
+      </c>
+      <c r="V59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.1089194655999999</v>
+      </c>
+      <c r="W59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10984644960000002</v>
+      </c>
+      <c r="X59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10331844639999992</v>
+      </c>
+      <c r="Y59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10260171359999998</v>
+      </c>
+      <c r="Z59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10389100239999996</v>
+      </c>
+      <c r="AA59" s="5">
+        <f t="shared" si="11"/>
+        <v>9.703354480000001E-2</v>
+      </c>
+      <c r="AB59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10072915840000005</v>
+      </c>
+      <c r="AC59" s="5">
+        <f t="shared" si="11"/>
+        <v>9.7679809600000028E-2</v>
+      </c>
+      <c r="AD59" s="5">
+        <f t="shared" si="11"/>
+        <v>9.7281080799999947E-2</v>
+      </c>
+      <c r="AE59" s="5">
+        <f t="shared" si="11"/>
+        <v>9.7361440000000077E-2</v>
+      </c>
+      <c r="AF59" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9360520800000005E-2</v>
+      </c>
+      <c r="AG59" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9894248000000005E-2</v>
+      </c>
+      <c r="AH59" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9099140800000013E-2</v>
+      </c>
+      <c r="AI59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10331081279999993</v>
+      </c>
+      <c r="AJ59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10475000879999996</v>
+      </c>
+      <c r="AK59" s="5">
+        <f t="shared" si="11"/>
+        <v>9.7497799999999926E-2</v>
+      </c>
+      <c r="AL59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10349847999999998</v>
+      </c>
+      <c r="AM59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11083171999999994</v>
+      </c>
+      <c r="AN59" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9232879999999926E-2</v>
+      </c>
+      <c r="AO59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10150744000000012</v>
+      </c>
+      <c r="AP59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10597063999999992</v>
+      </c>
+      <c r="AQ59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10339380000000004</v>
+      </c>
+      <c r="AR59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10875388000000005</v>
+      </c>
+      <c r="AS59" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9273920000000015E-2</v>
+      </c>
+      <c r="AT59" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9029520000000024E-2</v>
+      </c>
+      <c r="AU59" s="5">
         <f t="shared" si="10"/>
-        <v>0.11402779200000003</v>
-      </c>
-      <c r="T59" s="5">
+        <v>0.10537500000000004</v>
+      </c>
+      <c r="AV59" s="5">
         <f t="shared" si="10"/>
-        <v>0.11504757119999993</v>
-      </c>
-      <c r="U59" s="5">
+        <v>9.9273080000000014E-2</v>
+      </c>
+      <c r="AW59" s="5">
         <f t="shared" si="10"/>
-        <v>0.11098087599999995</v>
-      </c>
-      <c r="V59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.1089194655999999</v>
-      </c>
-      <c r="W59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10984644960000002</v>
-      </c>
-      <c r="X59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10331844639999992</v>
-      </c>
-      <c r="Y59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10260171359999998</v>
-      </c>
-      <c r="Z59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10389100239999996</v>
-      </c>
-      <c r="AA59" s="5">
-        <f t="shared" si="10"/>
-        <v>9.703354480000001E-2</v>
-      </c>
-      <c r="AB59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10072915840000005</v>
-      </c>
-      <c r="AC59" s="5">
-        <f t="shared" si="10"/>
-        <v>9.7679809600000028E-2</v>
-      </c>
-      <c r="AD59" s="5">
-        <f t="shared" si="10"/>
-        <v>9.7281080799999947E-2</v>
-      </c>
-      <c r="AE59" s="5">
-        <f t="shared" si="10"/>
-        <v>9.7361440000000077E-2</v>
-      </c>
-      <c r="AF59" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9360520800000005E-2</v>
-      </c>
-      <c r="AG59" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9894248000000005E-2</v>
-      </c>
-      <c r="AH59" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9099140800000013E-2</v>
-      </c>
-      <c r="AI59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10331081279999993</v>
-      </c>
-      <c r="AJ59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10475000879999996</v>
-      </c>
-      <c r="AK59" s="5">
-        <f t="shared" si="10"/>
-        <v>9.7497799999999926E-2</v>
-      </c>
-      <c r="AL59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10349847999999998</v>
-      </c>
-      <c r="AM59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11083171999999994</v>
-      </c>
-      <c r="AN59" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9232879999999926E-2</v>
-      </c>
-      <c r="AO59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10150744000000012</v>
-      </c>
-      <c r="AP59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10597063999999992</v>
-      </c>
-      <c r="AQ59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10339380000000004</v>
-      </c>
-      <c r="AR59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10875388000000005</v>
-      </c>
-      <c r="AS59" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9273920000000015E-2</v>
-      </c>
-      <c r="AT59" s="5">
-        <f t="shared" si="10"/>
-        <v>9.9029520000000024E-2</v>
-      </c>
-      <c r="AU59" s="5">
-        <f t="shared" si="9"/>
-        <v>8.4208499999999978E-2</v>
-      </c>
-      <c r="AV59" s="5">
-        <f t="shared" si="9"/>
-        <v>2.8018299999999996E-2</v>
-      </c>
-      <c r="AW59" s="5">
-        <f t="shared" si="9"/>
-        <v>0.14446790000000009</v>
+        <v>0.10170431999999993</v>
       </c>
     </row>
     <row r="60" spans="1:49" x14ac:dyDescent="0.25">
@@ -66820,192 +66832,192 @@
         <v>0.11177528273181818</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11127561640000004</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1120055281000001</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11273544119999995</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11464435240000004</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11655326360000007</v>
       </c>
       <c r="H60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11745750120000001</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11836174019999991</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11793887020000005</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11791619929999994</v>
       </c>
       <c r="L60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11772810790000011</v>
       </c>
       <c r="M60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11727238690000008</v>
       </c>
       <c r="N60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12082680630000002</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11934616770000006</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11727613960000004</v>
       </c>
       <c r="Q60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11804232390000005</v>
       </c>
       <c r="R60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11137422890000009</v>
       </c>
       <c r="S60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11852431800000003</v>
+      </c>
+      <c r="T60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11941662479999993</v>
+      </c>
+      <c r="U60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11585826649999995</v>
+      </c>
+      <c r="V60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11405453239999989</v>
+      </c>
+      <c r="W60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11486564340000002</v>
+      </c>
+      <c r="X60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10915364059999991</v>
+      </c>
+      <c r="Y60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10852649939999998</v>
+      </c>
+      <c r="Z60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10965462709999996</v>
+      </c>
+      <c r="AA60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10365435170000001</v>
+      </c>
+      <c r="AB60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10688801360000005</v>
+      </c>
+      <c r="AC60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10421983340000003</v>
+      </c>
+      <c r="AD60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10387094569999994</v>
+      </c>
+      <c r="AE60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10394126000000009</v>
+      </c>
+      <c r="AF60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10569045570000001</v>
+      </c>
+      <c r="AG60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10615746700000001</v>
+      </c>
+      <c r="AH60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10546174820000001</v>
+      </c>
+      <c r="AI60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10914696119999992</v>
+      </c>
+      <c r="AJ60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11040625769999995</v>
+      </c>
+      <c r="AK60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10406057499999992</v>
+      </c>
+      <c r="AL60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10931116999999997</v>
+      </c>
+      <c r="AM60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11572775499999993</v>
+      </c>
+      <c r="AN60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10557876999999992</v>
+      </c>
+      <c r="AO60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10756901000000013</v>
+      </c>
+      <c r="AP60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11147430999999991</v>
+      </c>
+      <c r="AQ60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10921957500000004</v>
+      </c>
+      <c r="AR60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11390964500000006</v>
+      </c>
+      <c r="AS60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10561468000000002</v>
+      </c>
+      <c r="AT60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10540083000000003</v>
+      </c>
+      <c r="AU60" s="5">
         <f t="shared" si="10"/>
-        <v>0.11852431800000003</v>
-      </c>
-      <c r="T60" s="5">
+        <v>0.11095312500000004</v>
+      </c>
+      <c r="AV60" s="5">
         <f t="shared" si="10"/>
-        <v>0.11941662479999993</v>
-      </c>
-      <c r="U60" s="5">
+        <v>0.10561394500000001</v>
+      </c>
+      <c r="AW60" s="5">
         <f t="shared" si="10"/>
-        <v>0.11585826649999995</v>
-      </c>
-      <c r="V60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11405453239999989</v>
-      </c>
-      <c r="W60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11486564340000002</v>
-      </c>
-      <c r="X60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10915364059999991</v>
-      </c>
-      <c r="Y60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10852649939999998</v>
-      </c>
-      <c r="Z60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10965462709999996</v>
-      </c>
-      <c r="AA60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10365435170000001</v>
-      </c>
-      <c r="AB60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10688801360000005</v>
-      </c>
-      <c r="AC60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10421983340000003</v>
-      </c>
-      <c r="AD60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10387094569999994</v>
-      </c>
-      <c r="AE60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10394126000000009</v>
-      </c>
-      <c r="AF60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10569045570000001</v>
-      </c>
-      <c r="AG60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10615746700000001</v>
-      </c>
-      <c r="AH60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10546174820000001</v>
-      </c>
-      <c r="AI60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10914696119999992</v>
-      </c>
-      <c r="AJ60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11040625769999995</v>
-      </c>
-      <c r="AK60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10406057499999992</v>
-      </c>
-      <c r="AL60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10931116999999997</v>
-      </c>
-      <c r="AM60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11572775499999993</v>
-      </c>
-      <c r="AN60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10557876999999992</v>
-      </c>
-      <c r="AO60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10756901000000013</v>
-      </c>
-      <c r="AP60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11147430999999991</v>
-      </c>
-      <c r="AQ60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10921957500000004</v>
-      </c>
-      <c r="AR60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11390964500000006</v>
-      </c>
-      <c r="AS60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10561468000000002</v>
-      </c>
-      <c r="AT60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10540083000000003</v>
-      </c>
-      <c r="AU60" s="5">
-        <f t="shared" si="9"/>
-        <v>9.0461599999999975E-2</v>
-      </c>
-      <c r="AV60" s="5">
-        <f t="shared" si="9"/>
-        <v>2.8613099999999995E-2</v>
-      </c>
-      <c r="AW60" s="5">
-        <f t="shared" si="9"/>
-        <v>0.15901850000000012</v>
+        <v>0.10774127999999993</v>
       </c>
     </row>
     <row r="61" spans="1:49" x14ac:dyDescent="0.25">
@@ -67017,192 +67029,192 @@
         <v>0.11723595662727272</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11680767120000005</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11743330980000011</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11805894959999995</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11969515920000004</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12133136880000008</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12210642960000001</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12288149159999991</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12251903160000005</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12249959939999994</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12233837820000013</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12194776020000009</v>
       </c>
       <c r="N61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12499440540000002</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12372528660000007</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12195097680000004</v>
       </c>
       <c r="Q61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12260770620000006</v>
       </c>
       <c r="R61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1168921962000001</v>
       </c>
       <c r="S61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12302084400000003</v>
+      </c>
+      <c r="T61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12378567839999992</v>
+      </c>
+      <c r="U61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12073565699999994</v>
+      </c>
+      <c r="V61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11918959919999988</v>
+      </c>
+      <c r="W61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11988483720000002</v>
+      </c>
+      <c r="X61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.1149888347999999</v>
+      </c>
+      <c r="Y61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11445128519999997</v>
+      </c>
+      <c r="Z61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11541825179999995</v>
+      </c>
+      <c r="AA61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11027515860000001</v>
+      </c>
+      <c r="AB61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11304686880000006</v>
+      </c>
+      <c r="AC61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11075985720000003</v>
+      </c>
+      <c r="AD61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11046081059999993</v>
+      </c>
+      <c r="AE61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.1105210800000001</v>
+      </c>
+      <c r="AF61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11202039060000001</v>
+      </c>
+      <c r="AG61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11242068600000001</v>
+      </c>
+      <c r="AH61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11182435560000001</v>
+      </c>
+      <c r="AI61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11498310959999991</v>
+      </c>
+      <c r="AJ61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11606250659999995</v>
+      </c>
+      <c r="AK61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11062334999999991</v>
+      </c>
+      <c r="AL61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11512385999999997</v>
+      </c>
+      <c r="AM61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12062378999999993</v>
+      </c>
+      <c r="AN61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11192465999999991</v>
+      </c>
+      <c r="AO61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11363058000000015</v>
+      </c>
+      <c r="AP61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.1169779799999999</v>
+      </c>
+      <c r="AQ61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11504535000000005</v>
+      </c>
+      <c r="AR61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11906541000000007</v>
+      </c>
+      <c r="AS61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11195544000000002</v>
+      </c>
+      <c r="AT61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11177214000000003</v>
+      </c>
+      <c r="AU61" s="5">
         <f t="shared" si="10"/>
-        <v>0.12302084400000003</v>
-      </c>
-      <c r="T61" s="5">
+        <v>0.11653125000000004</v>
+      </c>
+      <c r="AV61" s="5">
         <f t="shared" si="10"/>
-        <v>0.12378567839999992</v>
-      </c>
-      <c r="U61" s="5">
+        <v>0.11195481000000002</v>
+      </c>
+      <c r="AW61" s="5">
         <f t="shared" si="10"/>
-        <v>0.12073565699999994</v>
-      </c>
-      <c r="V61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11918959919999988</v>
-      </c>
-      <c r="W61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11988483720000002</v>
-      </c>
-      <c r="X61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.1149888347999999</v>
-      </c>
-      <c r="Y61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11445128519999997</v>
-      </c>
-      <c r="Z61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11541825179999995</v>
-      </c>
-      <c r="AA61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11027515860000001</v>
-      </c>
-      <c r="AB61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11304686880000006</v>
-      </c>
-      <c r="AC61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11075985720000003</v>
-      </c>
-      <c r="AD61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11046081059999993</v>
-      </c>
-      <c r="AE61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.1105210800000001</v>
-      </c>
-      <c r="AF61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11202039060000001</v>
-      </c>
-      <c r="AG61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11242068600000001</v>
-      </c>
-      <c r="AH61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11182435560000001</v>
-      </c>
-      <c r="AI61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11498310959999991</v>
-      </c>
-      <c r="AJ61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11606250659999995</v>
-      </c>
-      <c r="AK61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11062334999999991</v>
-      </c>
-      <c r="AL61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11512385999999997</v>
-      </c>
-      <c r="AM61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12062378999999993</v>
-      </c>
-      <c r="AN61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11192465999999991</v>
-      </c>
-      <c r="AO61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11363058000000015</v>
-      </c>
-      <c r="AP61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.1169779799999999</v>
-      </c>
-      <c r="AQ61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11504535000000005</v>
-      </c>
-      <c r="AR61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11906541000000007</v>
-      </c>
-      <c r="AS61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11195544000000002</v>
-      </c>
-      <c r="AT61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11177214000000003</v>
-      </c>
-      <c r="AU61" s="5">
-        <f t="shared" si="9"/>
-        <v>9.6714699999999973E-2</v>
-      </c>
-      <c r="AV61" s="5">
-        <f t="shared" si="9"/>
-        <v>2.9207899999999995E-2</v>
-      </c>
-      <c r="AW61" s="5">
-        <f t="shared" si="9"/>
-        <v>0.17356910000000014</v>
+        <v>0.11377823999999992</v>
       </c>
     </row>
     <row r="62" spans="1:49" x14ac:dyDescent="0.25">
@@ -67214,192 +67226,192 @@
         <v>0.12269663052272727</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12233972600000005</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12286109150000012</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12338245799999994</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12474596600000004</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12610947400000008</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12675535800000001</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12740124299999989</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12709919300000005</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12708299949999993</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12694864850000015</v>
       </c>
       <c r="M62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1266231335000001</v>
       </c>
       <c r="N62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12916200450000004</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12810440550000007</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12662581400000006</v>
       </c>
       <c r="Q62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12717308850000006</v>
       </c>
       <c r="R62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12241016350000011</v>
       </c>
       <c r="S62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12751737000000002</v>
+      </c>
+      <c r="T62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12815473199999991</v>
+      </c>
+      <c r="U62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12561304749999994</v>
+      </c>
+      <c r="V62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12432466599999988</v>
+      </c>
+      <c r="W62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12490403100000003</v>
+      </c>
+      <c r="X62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12082402899999989</v>
+      </c>
+      <c r="Y62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12037607099999997</v>
+      </c>
+      <c r="Z62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12118187649999995</v>
+      </c>
+      <c r="AA62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.1168959655</v>
+      </c>
+      <c r="AB62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11920572400000007</v>
+      </c>
+      <c r="AC62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11729988100000004</v>
+      </c>
+      <c r="AD62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11705067549999992</v>
+      </c>
+      <c r="AE62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11710090000000012</v>
+      </c>
+      <c r="AF62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11835032550000001</v>
+      </c>
+      <c r="AG62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11868390500000001</v>
+      </c>
+      <c r="AH62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11818696300000001</v>
+      </c>
+      <c r="AI62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.1208192579999999</v>
+      </c>
+      <c r="AJ62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12171875549999994</v>
+      </c>
+      <c r="AK62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.1171861249999999</v>
+      </c>
+      <c r="AL62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12093654999999996</v>
+      </c>
+      <c r="AM62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12551982499999992</v>
+      </c>
+      <c r="AN62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.1182705499999999</v>
+      </c>
+      <c r="AO62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11969215000000016</v>
+      </c>
+      <c r="AP62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12248164999999989</v>
+      </c>
+      <c r="AQ62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12087112500000005</v>
+      </c>
+      <c r="AR62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12422117500000007</v>
+      </c>
+      <c r="AS62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11829620000000002</v>
+      </c>
+      <c r="AT62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11814345000000004</v>
+      </c>
+      <c r="AU62" s="5">
         <f t="shared" si="10"/>
-        <v>0.12751737000000002</v>
-      </c>
-      <c r="T62" s="5">
+        <v>0.12210937500000005</v>
+      </c>
+      <c r="AV62" s="5">
         <f t="shared" si="10"/>
-        <v>0.12815473199999991</v>
-      </c>
-      <c r="U62" s="5">
+        <v>0.11829567500000002</v>
+      </c>
+      <c r="AW62" s="5">
         <f t="shared" si="10"/>
-        <v>0.12561304749999994</v>
-      </c>
-      <c r="V62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12432466599999988</v>
-      </c>
-      <c r="W62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12490403100000003</v>
-      </c>
-      <c r="X62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12082402899999989</v>
-      </c>
-      <c r="Y62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12037607099999997</v>
-      </c>
-      <c r="Z62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12118187649999995</v>
-      </c>
-      <c r="AA62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.1168959655</v>
-      </c>
-      <c r="AB62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11920572400000007</v>
-      </c>
-      <c r="AC62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11729988100000004</v>
-      </c>
-      <c r="AD62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11705067549999992</v>
-      </c>
-      <c r="AE62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11710090000000012</v>
-      </c>
-      <c r="AF62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11835032550000001</v>
-      </c>
-      <c r="AG62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11868390500000001</v>
-      </c>
-      <c r="AH62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11818696300000001</v>
-      </c>
-      <c r="AI62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.1208192579999999</v>
-      </c>
-      <c r="AJ62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12171875549999994</v>
-      </c>
-      <c r="AK62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.1171861249999999</v>
-      </c>
-      <c r="AL62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12093654999999996</v>
-      </c>
-      <c r="AM62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12551982499999992</v>
-      </c>
-      <c r="AN62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.1182705499999999</v>
-      </c>
-      <c r="AO62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11969215000000016</v>
-      </c>
-      <c r="AP62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12248164999999989</v>
-      </c>
-      <c r="AQ62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12087112500000005</v>
-      </c>
-      <c r="AR62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12422117500000007</v>
-      </c>
-      <c r="AS62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11829620000000002</v>
-      </c>
-      <c r="AT62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.11814345000000004</v>
-      </c>
-      <c r="AU62" s="5">
-        <f t="shared" si="9"/>
-        <v>0.10296779999999997</v>
-      </c>
-      <c r="AV62" s="5">
-        <f t="shared" si="9"/>
-        <v>2.9802699999999994E-2</v>
-      </c>
-      <c r="AW62" s="5">
-        <f t="shared" si="9"/>
-        <v>0.18811970000000017</v>
+        <v>0.11981519999999991</v>
       </c>
     </row>
     <row r="63" spans="1:49" x14ac:dyDescent="0.25">
@@ -67411,192 +67423,192 @@
         <v>0.12815730441818182</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12787178080000006</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12828887320000013</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12870596639999993</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12979677280000004</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1308875792000001</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13140428640000001</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13192099439999988</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13167935440000006</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13166639959999993</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13155891880000017</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1312985068000001</v>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13332960360000007</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13248352440000008</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13130065120000006</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13173847080000006</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12792813080000012</v>
       </c>
       <c r="S63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13201389600000002</v>
       </c>
       <c r="T63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13252378559999989</v>
       </c>
       <c r="U63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13049043799999993</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12945973279999987</v>
       </c>
       <c r="W63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12992322480000001</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12665922319999989</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12630085679999997</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12694550119999995</v>
       </c>
       <c r="AA63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1235167724</v>
       </c>
       <c r="AB63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12536457920000008</v>
       </c>
       <c r="AC63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12383990480000004</v>
       </c>
       <c r="AD63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12364054039999992</v>
       </c>
       <c r="AE63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12368072000000013</v>
       </c>
       <c r="AF63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12468026040000001</v>
       </c>
       <c r="AG63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12494712400000001</v>
       </c>
       <c r="AH63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1245495704</v>
       </c>
       <c r="AI63" s="5">
-        <f t="shared" ref="AB63:AT66" si="11">2*AI62-AI61</f>
+        <f t="shared" ref="AB63:AT66" si="12">2*AI62-AI61</f>
         <v>0.12665540639999989</v>
       </c>
       <c r="AJ63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12737500439999994</v>
       </c>
       <c r="AK63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1237488999999999</v>
       </c>
       <c r="AL63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12674923999999996</v>
       </c>
       <c r="AM63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13041585999999991</v>
       </c>
       <c r="AN63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1246164399999999</v>
       </c>
       <c r="AO63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12575372000000018</v>
       </c>
       <c r="AP63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12798531999999987</v>
       </c>
       <c r="AQ63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12669690000000006</v>
       </c>
       <c r="AR63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12937694000000008</v>
       </c>
       <c r="AS63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12463696000000002</v>
       </c>
       <c r="AT63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12451476000000004</v>
       </c>
       <c r="AU63" s="5">
-        <f t="shared" ref="AU63:AW63" si="12">2*AU62-AU61</f>
-        <v>0.10922089999999997</v>
+        <f t="shared" ref="AU63:AW63" si="13">2*AU62-AU61</f>
+        <v>0.12768750000000006</v>
       </c>
       <c r="AV63" s="5">
-        <f t="shared" si="12"/>
-        <v>3.0397499999999994E-2</v>
+        <f t="shared" si="13"/>
+        <v>0.12463654000000002</v>
       </c>
       <c r="AW63" s="5">
-        <f t="shared" si="12"/>
-        <v>0.20267030000000019</v>
+        <f t="shared" si="13"/>
+        <v>0.12585215999999991</v>
       </c>
     </row>
     <row r="64" spans="1:49" x14ac:dyDescent="0.25">
@@ -67608,192 +67620,192 @@
         <v>0.13361797831363634</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13340383560000008</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13371665490000012</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13402947479999991</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13484757960000004</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13566568440000012</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13605321480000002</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13644074579999987</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13625951580000006</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13624979969999992</v>
       </c>
       <c r="L64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1361691891000002</v>
       </c>
       <c r="M64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13597388010000011</v>
       </c>
       <c r="N64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1374972027000001</v>
       </c>
       <c r="O64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13686264330000009</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13597548840000007</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13630385310000007</v>
       </c>
       <c r="R64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13344609810000013</v>
       </c>
       <c r="S64" s="5">
-        <f t="shared" ref="S64:AA66" si="13">2*S63-S62</f>
+        <f t="shared" ref="S64:AA66" si="14">2*S63-S62</f>
         <v>0.13651042200000002</v>
       </c>
       <c r="T64" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13689283919999987</v>
       </c>
       <c r="U64" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13536782849999993</v>
       </c>
       <c r="V64" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13459479959999987</v>
       </c>
       <c r="W64" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1349424186</v>
       </c>
       <c r="X64" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1324944173999999</v>
       </c>
       <c r="Y64" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13222564259999997</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13270912589999995</v>
       </c>
       <c r="AA64" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1301375793</v>
       </c>
       <c r="AB64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13152343440000008</v>
       </c>
       <c r="AC64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13037992860000003</v>
       </c>
       <c r="AD64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13023040529999991</v>
       </c>
       <c r="AE64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13026054000000015</v>
       </c>
       <c r="AF64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13101019530000002</v>
       </c>
       <c r="AG64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13121034300000001</v>
       </c>
       <c r="AH64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1309121778</v>
       </c>
       <c r="AI64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13249155479999988</v>
       </c>
       <c r="AJ64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13303125329999993</v>
       </c>
       <c r="AK64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1303116749999999</v>
       </c>
       <c r="AL64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13256192999999994</v>
       </c>
       <c r="AM64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1353118949999999</v>
       </c>
       <c r="AN64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1309623299999999</v>
       </c>
       <c r="AO64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1318152900000002</v>
       </c>
       <c r="AP64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13348898999999986</v>
       </c>
       <c r="AQ64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13252267500000006</v>
       </c>
       <c r="AR64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13453270500000009</v>
       </c>
       <c r="AS64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13097772000000002</v>
       </c>
       <c r="AT64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13088607000000005</v>
       </c>
       <c r="AU64" s="5">
-        <f t="shared" ref="AU64:AW64" si="14">2*AU63-AU62</f>
-        <v>0.11547399999999997</v>
+        <f t="shared" ref="AU64:AW64" si="15">2*AU63-AU62</f>
+        <v>0.13326562500000008</v>
       </c>
       <c r="AV64" s="5">
-        <f t="shared" si="14"/>
-        <v>3.0992299999999993E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.13097740500000002</v>
       </c>
       <c r="AW64" s="5">
-        <f t="shared" si="14"/>
-        <v>0.21722090000000022</v>
+        <f t="shared" si="15"/>
+        <v>0.13188911999999992</v>
       </c>
     </row>
     <row r="65" spans="1:49" x14ac:dyDescent="0.25">
@@ -67805,192 +67817,192 @@
         <v>0.13907865220909091</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13893589040000009</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13914443660000012</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13935298319999989</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13989838640000005</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14044378960000015</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14070214320000002</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14096049719999987</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14083967720000007</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14083319979999992</v>
       </c>
       <c r="L65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14077945940000022</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14064925340000012</v>
       </c>
       <c r="N65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14166480180000013</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14124176220000009</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14065032560000007</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14086923540000007</v>
       </c>
       <c r="R65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13896406540000014</v>
       </c>
       <c r="S65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14100694800000002</v>
       </c>
       <c r="T65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14126189279999984</v>
       </c>
       <c r="U65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14024521899999992</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13972986639999987</v>
       </c>
       <c r="W65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13996161239999999</v>
       </c>
       <c r="X65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1383296115999999</v>
       </c>
       <c r="Y65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13815042839999997</v>
       </c>
       <c r="Z65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13847275059999994</v>
       </c>
       <c r="AA65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1367583862</v>
       </c>
       <c r="AB65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13768228960000009</v>
       </c>
       <c r="AC65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13691995240000002</v>
       </c>
       <c r="AD65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1368202701999999</v>
       </c>
       <c r="AE65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13684036000000016</v>
       </c>
       <c r="AF65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13734013020000002</v>
       </c>
       <c r="AG65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13747356199999999</v>
       </c>
       <c r="AH65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1372747852</v>
       </c>
       <c r="AI65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13832770319999987</v>
       </c>
       <c r="AJ65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13868750219999992</v>
       </c>
       <c r="AK65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13687444999999993</v>
       </c>
       <c r="AL65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13837461999999992</v>
       </c>
       <c r="AM65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1402079299999999</v>
       </c>
       <c r="AN65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13730821999999993</v>
       </c>
       <c r="AO65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13787686000000021</v>
       </c>
       <c r="AP65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13899265999999985</v>
       </c>
       <c r="AQ65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13834845000000007</v>
       </c>
       <c r="AR65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13968847000000009</v>
       </c>
       <c r="AS65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13731848000000002</v>
       </c>
       <c r="AT65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13725738000000004</v>
       </c>
       <c r="AU65" s="5">
-        <f t="shared" ref="AU65:AW65" si="15">2*AU64-AU63</f>
-        <v>0.12172709999999996</v>
+        <f t="shared" ref="AU65:AW65" si="16">2*AU64-AU63</f>
+        <v>0.1388437500000001</v>
       </c>
       <c r="AV65" s="5">
-        <f t="shared" si="15"/>
-        <v>3.1587099999999993E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.13731827000000002</v>
       </c>
       <c r="AW65" s="5">
-        <f t="shared" si="15"/>
-        <v>0.23177150000000024</v>
+        <f t="shared" si="16"/>
+        <v>0.13792607999999992</v>
       </c>
     </row>
     <row r="66" spans="1:49" x14ac:dyDescent="0.25">
@@ -68002,192 +68014,192 @@
         <v>0.14453932610454545</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" ref="C66:R66" si="16">2*C65-C64</f>
+        <f t="shared" ref="C66:R66" si="17">2*C65-C64</f>
         <v>0.14446794520000011</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14457221830000011</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14467649159999987</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14494919320000005</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14522189480000017</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14535107160000002</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14548024859999986</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14541983860000007</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14541659989999992</v>
       </c>
       <c r="L66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14538972970000025</v>
       </c>
       <c r="M66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14532462670000013</v>
       </c>
       <c r="N66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14583240090000016</v>
       </c>
       <c r="O66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1456208811000001</v>
       </c>
       <c r="P66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14532516280000007</v>
       </c>
       <c r="Q66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14543461770000007</v>
       </c>
       <c r="R66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14448203270000015</v>
       </c>
       <c r="S66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14550347400000002</v>
       </c>
       <c r="T66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14563094639999982</v>
       </c>
       <c r="U66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14512260949999992</v>
       </c>
       <c r="V66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14486493319999988</v>
       </c>
       <c r="W66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14498080619999998</v>
       </c>
       <c r="X66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14416480579999991</v>
       </c>
       <c r="Y66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14407521419999997</v>
       </c>
       <c r="Z66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14423637529999994</v>
       </c>
       <c r="AA66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1433791931</v>
       </c>
       <c r="AB66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1438411448000001</v>
       </c>
       <c r="AC66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14345997620000001</v>
       </c>
       <c r="AD66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14341013509999989</v>
       </c>
       <c r="AE66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14342018000000017</v>
       </c>
       <c r="AF66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14367006510000002</v>
       </c>
       <c r="AG66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14373678099999998</v>
       </c>
       <c r="AH66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1436373926</v>
       </c>
       <c r="AI66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14416385159999986</v>
       </c>
       <c r="AJ66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14434375109999992</v>
       </c>
       <c r="AK66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14343722499999995</v>
       </c>
       <c r="AL66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1441873099999999</v>
       </c>
       <c r="AM66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14510396499999989</v>
       </c>
       <c r="AN66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14365410999999995</v>
       </c>
       <c r="AO66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14393843000000023</v>
       </c>
       <c r="AP66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14449632999999984</v>
       </c>
       <c r="AQ66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14417422500000007</v>
       </c>
       <c r="AR66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1448442350000001</v>
       </c>
       <c r="AS66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14365924000000002</v>
       </c>
       <c r="AT66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14362869000000003</v>
       </c>
       <c r="AU66" s="5">
-        <f t="shared" ref="AU66:AW66" si="17">2*AU65-AU64</f>
-        <v>0.12798019999999996</v>
+        <f t="shared" ref="AU66:AW66" si="18">2*AU65-AU64</f>
+        <v>0.14442187500000012</v>
       </c>
       <c r="AV66" s="5">
-        <f t="shared" si="17"/>
-        <v>3.2181899999999992E-2</v>
+        <f t="shared" si="18"/>
+        <v>0.14365913500000002</v>
       </c>
       <c r="AW66" s="5">
-        <f t="shared" si="17"/>
-        <v>0.24632210000000027</v>
+        <f t="shared" si="18"/>
+        <v>0.14396303999999993</v>
       </c>
     </row>
     <row r="67" spans="1:49" x14ac:dyDescent="0.25">

--- a/input/reg_unemployment.xlsx
+++ b/input/reg_unemployment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5515FD97-3676-40EA-815C-A376FD0E3D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D16B38-8D53-4C80-8922-FA1A16685131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC9AB010-6F1C-42A2-A1E7-CC06071EB15C}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="72">
   <si>
     <t>Description:</t>
   </si>
@@ -259,15 +259,20 @@
   <si>
     <t>U1d</t>
   </si>
+  <si>
+    <t>Authors:</t>
+  </si>
+  <si>
+    <t>Justin van de Ven</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -390,8 +395,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,11 +733,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DD3FED-033E-405B-A2A7-67A35968B641}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -749,99 +752,107 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'Process U1a'!A1</f>
-        <v>Probit regression estimates of unemployment for male graduates (aged 18 to 64)</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B12" t="str">
-        <f>'Process U1b'!A1</f>
-        <v>Probit regression estimates of unemployment for male non-graduates (aged 18 to 64)</v>
+        <f>'Process U1a'!A1</f>
+        <v>Probit regression estimates of unemployment for male graduates (aged 18 to 64)</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" t="str">
-        <f>'Process U1c'!A1</f>
-        <v>Probit regression estimates of unemployment for female graduates (aged 18 to 64)</v>
+        <f>'Process U1b'!A1</f>
+        <v>Probit regression estimates of unemployment for male non-graduates (aged 18 to 64)</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'Process U1c'!A1</f>
+        <v>Probit regression estimates of unemployment for female graduates (aged 18 to 64)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B15" t="str">
         <f>'Process U1d'!A1</f>
         <v>Probit regression estimates of unemployment for female non-graduates (aged 18 to 64)</v>
       </c>
@@ -41242,7 +41253,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B31A884-F39B-4D2D-93E0-D88DBF495E2F}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:T19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -42433,7 +42446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA253C-38A9-483B-BC7F-FF4D6A7E64FE}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -42504,61 +42519,61 @@
         <v>44</v>
       </c>
       <c r="B2" s="19">
-        <v>1.9235824112467026</v>
+        <v>1.9220710453212315</v>
       </c>
       <c r="C2" s="20">
-        <v>0.13164960849697055</v>
+        <v>0.13159750287183256</v>
       </c>
       <c r="D2" s="20">
-        <v>-1.1582557591174561E-3</v>
+        <v>-1.1573257136362218E-3</v>
       </c>
       <c r="E2" s="20">
-        <v>-2.6089186986054305E-3</v>
+        <v>-2.6125035542927991E-3</v>
       </c>
       <c r="F2" s="20">
-        <v>-3.12556122998707E-3</v>
+        <v>-3.1223597139663959E-3</v>
       </c>
       <c r="G2" s="20">
-        <v>-4.870790046100291E-3</v>
+        <v>-4.8670319272144753E-3</v>
       </c>
       <c r="H2" s="20">
-        <v>-3.8265747940580673E-3</v>
+        <v>-3.8235111434090727E-3</v>
       </c>
       <c r="I2" s="20">
-        <v>1.0397266985276541E-4</v>
+        <v>1.0377464458890726E-4</v>
       </c>
       <c r="J2" s="20">
-        <v>1.6639852875100563E-4</v>
+        <v>1.665324943068467E-4</v>
       </c>
       <c r="K2" s="20">
-        <v>-1.9978782097558487E-4</v>
+        <v>-1.9921404470557924E-4</v>
       </c>
       <c r="L2" s="20">
-        <v>-7.0170260055276183E-5</v>
+        <v>-6.9683201460485301E-5</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.2903432472409016E-3</v>
+        <v>-1.290066974244492E-3</v>
       </c>
       <c r="N2" s="20">
-        <v>-3.5441663490248581E-4</v>
+        <v>-3.5430554461664721E-4</v>
       </c>
       <c r="O2" s="20">
-        <v>-1.1697691025862611E-3</v>
+        <v>-1.1872962955658168E-3</v>
       </c>
       <c r="P2" s="20">
-        <v>-5.2029183941425304E-4</v>
+        <v>-5.1973894002800352E-4</v>
       </c>
       <c r="Q2" s="20">
-        <v>-1.6933657801890239E-3</v>
+        <v>-1.6923476049812659E-3</v>
       </c>
       <c r="R2" s="20">
-        <v>-2.191815805953708E-3</v>
+        <v>-2.1906733107659067E-3</v>
       </c>
       <c r="S2" s="20">
-        <v>-3.7816447888392628E-4</v>
+        <v>-3.7704080345981727E-4</v>
       </c>
       <c r="T2" s="20">
-        <v>-3.5465873160499565E-3</v>
+        <v>-3.5443995150077267E-3</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -42566,61 +42581,61 @@
         <v>45</v>
       </c>
       <c r="B3" s="19">
-        <v>7.355773558990733E-2</v>
+        <v>7.3598916060736888E-2</v>
       </c>
       <c r="C3" s="20">
-        <v>-1.1582557591174561E-3</v>
+        <v>-1.1573257136362218E-3</v>
       </c>
       <c r="D3" s="20">
-        <v>1.0227171990017471E-2</v>
+        <v>1.0227563003910664E-2</v>
       </c>
       <c r="E3" s="20">
-        <v>8.1384026739307284E-3</v>
+        <v>8.1387339178829229E-3</v>
       </c>
       <c r="F3" s="20">
-        <v>8.1717630678881849E-3</v>
+        <v>8.1720249905394508E-3</v>
       </c>
       <c r="G3" s="20">
-        <v>8.1658160258230687E-3</v>
+        <v>8.1660578922838727E-3</v>
       </c>
       <c r="H3" s="20">
-        <v>6.0462192824742929E-4</v>
+        <v>6.0459427806756373E-4</v>
       </c>
       <c r="I3" s="20">
-        <v>4.3791404754405655E-4</v>
+        <v>4.3792793201604579E-4</v>
       </c>
       <c r="J3" s="20">
-        <v>1.8437622437029755E-4</v>
+        <v>1.8438873677672352E-4</v>
       </c>
       <c r="K3" s="20">
-        <v>-2.2048308940863549E-5</v>
+        <v>-2.2072218257403403E-5</v>
       </c>
       <c r="L3" s="20">
-        <v>3.940283335750216E-5</v>
+        <v>3.9417943313640666E-5</v>
       </c>
       <c r="M3" s="20">
-        <v>-7.8483327646055321E-5</v>
+        <v>-7.8487732981204292E-5</v>
       </c>
       <c r="N3" s="20">
-        <v>2.2685329402957451E-4</v>
+        <v>2.2685512410314506E-4</v>
       </c>
       <c r="O3" s="20">
-        <v>3.8296709634867785E-4</v>
+        <v>3.8331600871620514E-4</v>
       </c>
       <c r="P3" s="20">
-        <v>2.5574777643489746E-5</v>
+        <v>2.5576816169781309E-5</v>
       </c>
       <c r="Q3" s="20">
-        <v>-1.5798305145034441E-4</v>
+        <v>-1.5800929285120571E-4</v>
       </c>
       <c r="R3" s="20">
-        <v>2.1970730032264412E-4</v>
+        <v>2.197016104550694E-4</v>
       </c>
       <c r="S3" s="20">
-        <v>2.4487862666448335E-4</v>
+        <v>2.4487357811342481E-4</v>
       </c>
       <c r="T3" s="20">
-        <v>-8.4105809172982365E-3</v>
+        <v>-8.4109512923886201E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -42628,61 +42643,61 @@
         <v>46</v>
       </c>
       <c r="B4" s="19">
-        <v>1.9025599873710847E-2</v>
+        <v>1.8977610924120047E-2</v>
       </c>
       <c r="C4" s="20">
-        <v>-2.6089186986054305E-3</v>
+        <v>-2.6125035542927991E-3</v>
       </c>
       <c r="D4" s="20">
-        <v>8.1384026739307284E-3</v>
+        <v>8.1387339178829229E-3</v>
       </c>
       <c r="E4" s="20">
-        <v>9.3458968938446435E-3</v>
+        <v>9.3463273064301484E-3</v>
       </c>
       <c r="F4" s="20">
-        <v>8.3171678578984609E-3</v>
+        <v>8.3175756757349062E-3</v>
       </c>
       <c r="G4" s="20">
-        <v>8.3069143953207799E-3</v>
+        <v>8.3073535645129086E-3</v>
       </c>
       <c r="H4" s="20">
-        <v>8.3849134289111092E-4</v>
+        <v>8.3865611926629401E-4</v>
       </c>
       <c r="I4" s="20">
-        <v>2.8163099038411082E-4</v>
+        <v>2.8165498279771376E-4</v>
       </c>
       <c r="J4" s="20">
-        <v>3.1795083562988127E-4</v>
+        <v>3.1799378859836188E-4</v>
       </c>
       <c r="K4" s="20">
-        <v>-1.7534913737888609E-4</v>
+        <v>-1.7535194264604599E-4</v>
       </c>
       <c r="L4" s="20">
-        <v>-2.1841658766213806E-4</v>
+        <v>-2.1838889104133265E-4</v>
       </c>
       <c r="M4" s="20">
-        <v>-1.8159327571725834E-5</v>
+        <v>-1.8108282287690155E-5</v>
       </c>
       <c r="N4" s="20">
-        <v>2.4651163346641521E-4</v>
+        <v>2.4654137429825241E-4</v>
       </c>
       <c r="O4" s="20">
-        <v>1.0745529129583533E-4</v>
+        <v>1.0694004093510755E-4</v>
       </c>
       <c r="P4" s="20">
-        <v>1.1149341520587082E-4</v>
+        <v>1.1154890176434066E-4</v>
       </c>
       <c r="Q4" s="20">
-        <v>-1.1892351700215197E-4</v>
+        <v>-1.1886256783133378E-4</v>
       </c>
       <c r="R4" s="20">
-        <v>2.2765870050292817E-4</v>
+        <v>2.2772469223383135E-4</v>
       </c>
       <c r="S4" s="20">
-        <v>-6.7852279202079615E-5</v>
+        <v>-6.7817601126386913E-5</v>
       </c>
       <c r="T4" s="20">
-        <v>-8.4684816969343695E-3</v>
+        <v>-8.4687050220290556E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -42690,61 +42705,61 @@
         <v>47</v>
       </c>
       <c r="B5" s="19">
-        <v>-0.12419400599339425</v>
+        <v>-0.12412062488765985</v>
       </c>
       <c r="C5" s="20">
-        <v>-3.12556122998707E-3</v>
+        <v>-3.1223597139663959E-3</v>
       </c>
       <c r="D5" s="20">
-        <v>8.1717630678881849E-3</v>
+        <v>8.1720249905394508E-3</v>
       </c>
       <c r="E5" s="20">
-        <v>8.3171678578984609E-3</v>
+        <v>8.3175756757349062E-3</v>
       </c>
       <c r="F5" s="20">
-        <v>9.5079303872029567E-3</v>
+        <v>9.508137508838695E-3</v>
       </c>
       <c r="G5" s="20">
-        <v>8.3436026871164561E-3</v>
+        <v>8.3437381472327033E-3</v>
       </c>
       <c r="H5" s="20">
-        <v>9.5159004330263902E-4</v>
+        <v>9.5148704107947488E-4</v>
       </c>
       <c r="I5" s="20">
-        <v>4.0618360843295751E-4</v>
+        <v>4.062299758659316E-4</v>
       </c>
       <c r="J5" s="20">
-        <v>3.6383073279629342E-4</v>
+        <v>3.6388333974977623E-4</v>
       </c>
       <c r="K5" s="20">
-        <v>7.4843855638935032E-5</v>
+        <v>7.481702705253179E-5</v>
       </c>
       <c r="L5" s="20">
-        <v>-1.1598433532281766E-4</v>
+        <v>-1.159668233449145E-4</v>
       </c>
       <c r="M5" s="20">
-        <v>-7.3256051649666374E-5</v>
+        <v>-7.3233849233944473E-5</v>
       </c>
       <c r="N5" s="20">
-        <v>4.4217788450083844E-4</v>
+        <v>4.4218741007597678E-4</v>
       </c>
       <c r="O5" s="20">
-        <v>3.0861355703413378E-4</v>
+        <v>3.0939199847998295E-4</v>
       </c>
       <c r="P5" s="20">
-        <v>-5.2973386176557958E-5</v>
+        <v>-5.2982471664492214E-5</v>
       </c>
       <c r="Q5" s="20">
-        <v>2.8157247452577101E-5</v>
+        <v>2.8136122969472065E-5</v>
       </c>
       <c r="R5" s="20">
-        <v>4.8651952315162481E-4</v>
+        <v>4.8648616801470128E-4</v>
       </c>
       <c r="S5" s="20">
-        <v>3.3715046554781876E-4</v>
+        <v>3.3713380947748611E-4</v>
       </c>
       <c r="T5" s="20">
-        <v>-8.6347042633578251E-3</v>
+        <v>-8.6352108125011956E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -42752,61 +42767,61 @@
         <v>48</v>
       </c>
       <c r="B6" s="19">
-        <v>-0.11367450120066039</v>
+        <v>-0.11360011656508247</v>
       </c>
       <c r="C6" s="20">
-        <v>-4.870790046100291E-3</v>
+        <v>-4.8670319272144753E-3</v>
       </c>
       <c r="D6" s="20">
-        <v>8.1658160258230687E-3</v>
+        <v>8.1660578922838727E-3</v>
       </c>
       <c r="E6" s="20">
-        <v>8.3069143953207799E-3</v>
+        <v>8.3073535645129086E-3</v>
       </c>
       <c r="F6" s="20">
-        <v>8.3436026871164561E-3</v>
+        <v>8.3437381472327033E-3</v>
       </c>
       <c r="G6" s="20">
-        <v>1.1362603745440169E-2</v>
+        <v>1.1362775590685407E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>9.1304532297729034E-4</v>
+        <v>9.1290418242741733E-4</v>
       </c>
       <c r="I6" s="20">
-        <v>1.5343895122844702E-4</v>
+        <v>1.5344953158681965E-4</v>
       </c>
       <c r="J6" s="20">
-        <v>6.5306009371602318E-5</v>
+        <v>6.5304869858326262E-5</v>
       </c>
       <c r="K6" s="20">
-        <v>3.7854018230714574E-4</v>
+        <v>3.7853292479287075E-4</v>
       </c>
       <c r="L6" s="20">
-        <v>-2.9595292204345346E-4</v>
+        <v>-2.9596360963702771E-4</v>
       </c>
       <c r="M6" s="20">
-        <v>-8.6361995717727531E-5</v>
+        <v>-8.637086896359043E-5</v>
       </c>
       <c r="N6" s="20">
-        <v>2.5083179441504847E-4</v>
+        <v>2.5083532584677928E-4</v>
       </c>
       <c r="O6" s="20">
-        <v>6.9031460105671441E-5</v>
+        <v>6.9928039626149284E-5</v>
       </c>
       <c r="P6" s="20">
-        <v>-9.8378945540074066E-5</v>
+        <v>-9.84176791640277E-5</v>
       </c>
       <c r="Q6" s="20">
-        <v>2.1248595657067846E-4</v>
+        <v>2.1241337452356217E-4</v>
       </c>
       <c r="R6" s="20">
-        <v>7.3740808061177089E-5</v>
+        <v>7.369902574592491E-5</v>
       </c>
       <c r="S6" s="20">
-        <v>-2.8997909521541855E-5</v>
+        <v>-2.9063740028339568E-5</v>
       </c>
       <c r="T6" s="20">
-        <v>-8.3720375728399965E-3</v>
+        <v>-8.3725315998750289E-3</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -42814,61 +42829,61 @@
         <v>49</v>
       </c>
       <c r="B7" s="19">
-        <v>1.8327616720004747</v>
+        <v>1.832838053376479</v>
       </c>
       <c r="C7" s="20">
-        <v>-3.8265747940580673E-3</v>
+        <v>-3.8235111434090727E-3</v>
       </c>
       <c r="D7" s="20">
-        <v>6.0462192824742929E-4</v>
+        <v>6.0459427806756373E-4</v>
       </c>
       <c r="E7" s="20">
-        <v>8.3849134289111092E-4</v>
+        <v>8.3865611926629401E-4</v>
       </c>
       <c r="F7" s="20">
-        <v>9.5159004330263902E-4</v>
+        <v>9.5148704107947488E-4</v>
       </c>
       <c r="G7" s="20">
-        <v>9.1304532297729034E-4</v>
+        <v>9.1290418242741733E-4</v>
       </c>
       <c r="H7" s="20">
-        <v>1.7677621078975043E-3</v>
+        <v>1.767626737937204E-3</v>
       </c>
       <c r="I7" s="20">
-        <v>-1.2392102105836212E-4</v>
+        <v>-1.2390131587911311E-4</v>
       </c>
       <c r="J7" s="20">
-        <v>-3.305859816966689E-5</v>
+        <v>-3.3067220100881294E-5</v>
       </c>
       <c r="K7" s="20">
-        <v>-1.645660760953653E-4</v>
+        <v>-1.6458710967725404E-4</v>
       </c>
       <c r="L7" s="20">
-        <v>-4.4425965007080113E-5</v>
+        <v>-4.4427512659562629E-5</v>
       </c>
       <c r="M7" s="20">
-        <v>-6.5040745701739602E-6</v>
+        <v>-6.5061437073188127E-6</v>
       </c>
       <c r="N7" s="20">
-        <v>6.9663988457571707E-5</v>
+        <v>6.9669025349298845E-5</v>
       </c>
       <c r="O7" s="20">
-        <v>7.3056147605039627E-6</v>
+        <v>7.9792854282564147E-6</v>
       </c>
       <c r="P7" s="20">
-        <v>-5.7397170634900679E-7</v>
+        <v>-5.6903462139059409E-7</v>
       </c>
       <c r="Q7" s="20">
-        <v>7.7790732599112747E-5</v>
+        <v>7.776768955897973E-5</v>
       </c>
       <c r="R7" s="20">
-        <v>4.713203803876682E-5</v>
+        <v>4.7103259587190664E-5</v>
       </c>
       <c r="S7" s="20">
-        <v>-1.8190181461376765E-4</v>
+        <v>-1.8191277384509868E-4</v>
       </c>
       <c r="T7" s="20">
-        <v>-1.1876905357364551E-3</v>
+        <v>-1.1878865375397826E-3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -42876,61 +42891,61 @@
         <v>50</v>
       </c>
       <c r="B8" s="19">
-        <v>5.5348419190178938E-2</v>
+        <v>5.5349903818609388E-2</v>
       </c>
       <c r="C8" s="20">
-        <v>1.0397266985276541E-4</v>
+        <v>1.0377464458890726E-4</v>
       </c>
       <c r="D8" s="20">
-        <v>4.3791404754405655E-4</v>
+        <v>4.3792793201604579E-4</v>
       </c>
       <c r="E8" s="20">
-        <v>2.8163099038411082E-4</v>
+        <v>2.8165498279771376E-4</v>
       </c>
       <c r="F8" s="20">
-        <v>4.0618360843295751E-4</v>
+        <v>4.062299758659316E-4</v>
       </c>
       <c r="G8" s="20">
-        <v>1.5343895122844702E-4</v>
+        <v>1.5344953158681965E-4</v>
       </c>
       <c r="H8" s="20">
-        <v>-1.2392102105836212E-4</v>
+        <v>-1.2390131587911311E-4</v>
       </c>
       <c r="I8" s="20">
-        <v>9.7823925494506282E-3</v>
+        <v>9.7826449138919379E-3</v>
       </c>
       <c r="J8" s="20">
-        <v>4.3521674349907662E-3</v>
+        <v>4.352290962356167E-3</v>
       </c>
       <c r="K8" s="20">
-        <v>4.3851794067772685E-3</v>
+        <v>4.3852985923812197E-3</v>
       </c>
       <c r="L8" s="20">
-        <v>4.3256120617134516E-3</v>
+        <v>4.3257334777427074E-3</v>
       </c>
       <c r="M8" s="20">
-        <v>4.3337847233124718E-3</v>
+        <v>4.3339079746531773E-3</v>
       </c>
       <c r="N8" s="20">
-        <v>4.3466175558300648E-3</v>
+        <v>4.3467361795321022E-3</v>
       </c>
       <c r="O8" s="20">
-        <v>4.3370463358913093E-3</v>
+        <v>4.3371955708834216E-3</v>
       </c>
       <c r="P8" s="20">
-        <v>4.3081648601289184E-3</v>
+        <v>4.308282566623336E-3</v>
       </c>
       <c r="Q8" s="20">
-        <v>4.362191227975599E-3</v>
+        <v>4.3623118069830618E-3</v>
       </c>
       <c r="R8" s="20">
-        <v>4.3510220266979724E-3</v>
+        <v>4.3511421388830289E-3</v>
       </c>
       <c r="S8" s="20">
-        <v>4.3821219666946749E-3</v>
+        <v>4.3822436266455593E-3</v>
       </c>
       <c r="T8" s="20">
-        <v>-4.6250674972723189E-3</v>
+        <v>-4.625211430212983E-3</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -42938,61 +42953,61 @@
         <v>51</v>
       </c>
       <c r="B9" s="19">
-        <v>9.3207205763098239E-3</v>
+        <v>9.3226009408149454E-3</v>
       </c>
       <c r="C9" s="20">
-        <v>1.6639852875100563E-4</v>
+        <v>1.665324943068467E-4</v>
       </c>
       <c r="D9" s="20">
-        <v>1.8437622437029755E-4</v>
+        <v>1.8438873677672352E-4</v>
       </c>
       <c r="E9" s="20">
-        <v>3.1795083562988127E-4</v>
+        <v>3.1799378859836188E-4</v>
       </c>
       <c r="F9" s="20">
-        <v>3.6383073279629342E-4</v>
+        <v>3.6388333974977623E-4</v>
       </c>
       <c r="G9" s="20">
-        <v>6.5306009371602318E-5</v>
+        <v>6.5304869858326262E-5</v>
       </c>
       <c r="H9" s="20">
-        <v>-3.305859816966689E-5</v>
+        <v>-3.3067220100881294E-5</v>
       </c>
       <c r="I9" s="20">
-        <v>4.3521674349907662E-3</v>
+        <v>4.352290962356167E-3</v>
       </c>
       <c r="J9" s="20">
-        <v>7.5487050100418087E-3</v>
+        <v>7.5489464346732383E-3</v>
       </c>
       <c r="K9" s="20">
-        <v>4.3699435190823989E-3</v>
+        <v>4.3700633180795518E-3</v>
       </c>
       <c r="L9" s="20">
-        <v>4.3134765338819709E-3</v>
+        <v>4.3135964688021389E-3</v>
       </c>
       <c r="M9" s="20">
-        <v>4.346375414142704E-3</v>
+        <v>4.3464996611394689E-3</v>
       </c>
       <c r="N9" s="20">
-        <v>4.3549364750419903E-3</v>
+        <v>4.355057032532866E-3</v>
       </c>
       <c r="O9" s="20">
-        <v>4.3225396704909824E-3</v>
+        <v>4.3226374150688203E-3</v>
       </c>
       <c r="P9" s="20">
-        <v>4.3135348322981704E-3</v>
+        <v>4.3136519294164725E-3</v>
       </c>
       <c r="Q9" s="20">
-        <v>4.3662870295382225E-3</v>
+        <v>4.3664071055151974E-3</v>
       </c>
       <c r="R9" s="20">
-        <v>4.3555631680733849E-3</v>
+        <v>4.3556820902779956E-3</v>
       </c>
       <c r="S9" s="20">
-        <v>4.3489749608238391E-3</v>
+        <v>4.3490931501792528E-3</v>
       </c>
       <c r="T9" s="20">
-        <v>-4.6078303373132999E-3</v>
+        <v>-4.6079895815085634E-3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -43000,61 +43015,61 @@
         <v>52</v>
       </c>
       <c r="B10" s="19">
-        <v>-8.0414818954768333E-2</v>
+        <v>-8.0419910063983621E-2</v>
       </c>
       <c r="C10" s="20">
-        <v>-1.9978782097558487E-4</v>
+        <v>-1.9921404470557924E-4</v>
       </c>
       <c r="D10" s="20">
-        <v>-2.2048308940863549E-5</v>
+        <v>-2.2072218257403403E-5</v>
       </c>
       <c r="E10" s="20">
-        <v>-1.7534913737888609E-4</v>
+        <v>-1.7535194264604599E-4</v>
       </c>
       <c r="F10" s="20">
-        <v>7.4843855638935032E-5</v>
+        <v>7.481702705253179E-5</v>
       </c>
       <c r="G10" s="20">
-        <v>3.7854018230714574E-4</v>
+        <v>3.7853292479287075E-4</v>
       </c>
       <c r="H10" s="20">
-        <v>-1.645660760953653E-4</v>
+        <v>-1.6458710967725404E-4</v>
       </c>
       <c r="I10" s="20">
-        <v>4.3851794067772685E-3</v>
+        <v>4.3852985923812197E-3</v>
       </c>
       <c r="J10" s="20">
-        <v>4.3699435190823989E-3</v>
+        <v>4.3700633180795518E-3</v>
       </c>
       <c r="K10" s="20">
-        <v>9.4577510540173396E-3</v>
+        <v>9.4580189261466927E-3</v>
       </c>
       <c r="L10" s="20">
-        <v>4.3838370747150352E-3</v>
+        <v>4.3839554761591782E-3</v>
       </c>
       <c r="M10" s="20">
-        <v>4.3848456876494279E-3</v>
+        <v>4.3849630379593565E-3</v>
       </c>
       <c r="N10" s="20">
-        <v>4.3789957907766699E-3</v>
+        <v>4.3791168965373476E-3</v>
       </c>
       <c r="O10" s="20">
-        <v>4.3663434290504063E-3</v>
+        <v>4.3665493138491862E-3</v>
       </c>
       <c r="P10" s="20">
-        <v>4.3964588481496415E-3</v>
+        <v>4.3965667497680968E-3</v>
       </c>
       <c r="Q10" s="20">
-        <v>4.4167273149337567E-3</v>
+        <v>4.4168419152414984E-3</v>
       </c>
       <c r="R10" s="20">
-        <v>4.3826328525663006E-3</v>
+        <v>4.3827486719697096E-3</v>
       </c>
       <c r="S10" s="20">
-        <v>4.3971402603396499E-3</v>
+        <v>4.3972517411326002E-3</v>
       </c>
       <c r="T10" s="20">
-        <v>-4.3136647488493367E-3</v>
+        <v>-4.3138027375580488E-3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -43062,61 +43077,61 @@
         <v>53</v>
       </c>
       <c r="B11" s="19">
-        <v>-1.9816204919425581E-2</v>
+        <v>-1.9808186534610195E-2</v>
       </c>
       <c r="C11" s="20">
-        <v>-7.0170260055276183E-5</v>
+        <v>-6.9683201460485301E-5</v>
       </c>
       <c r="D11" s="20">
-        <v>3.940283335750216E-5</v>
+        <v>3.9417943313640666E-5</v>
       </c>
       <c r="E11" s="20">
-        <v>-2.1841658766213806E-4</v>
+        <v>-2.1838889104133265E-4</v>
       </c>
       <c r="F11" s="20">
-        <v>-1.1598433532281766E-4</v>
+        <v>-1.159668233449145E-4</v>
       </c>
       <c r="G11" s="20">
-        <v>-2.9595292204345346E-4</v>
+        <v>-2.9596360963702771E-4</v>
       </c>
       <c r="H11" s="20">
-        <v>-4.4425965007080113E-5</v>
+        <v>-4.4427512659562629E-5</v>
       </c>
       <c r="I11" s="20">
-        <v>4.3256120617134516E-3</v>
+        <v>4.3257334777427074E-3</v>
       </c>
       <c r="J11" s="20">
-        <v>4.3134765338819709E-3</v>
+        <v>4.3135964688021389E-3</v>
       </c>
       <c r="K11" s="20">
-        <v>4.3838370747150352E-3</v>
+        <v>4.3839554761591782E-3</v>
       </c>
       <c r="L11" s="20">
-        <v>7.5579848878678402E-3</v>
+        <v>7.5581698117297234E-3</v>
       </c>
       <c r="M11" s="20">
-        <v>4.3050994458354403E-3</v>
+        <v>4.3052189096289576E-3</v>
       </c>
       <c r="N11" s="20">
-        <v>4.3287347677474211E-3</v>
+        <v>4.3288546110660017E-3</v>
       </c>
       <c r="O11" s="20">
-        <v>4.2976359636499525E-3</v>
+        <v>4.2978469314133242E-3</v>
       </c>
       <c r="P11" s="20">
-        <v>4.2919280031415655E-3</v>
+        <v>4.292042818237792E-3</v>
       </c>
       <c r="Q11" s="20">
-        <v>4.3555375156836863E-3</v>
+        <v>4.3556502619454315E-3</v>
       </c>
       <c r="R11" s="20">
-        <v>4.3205067272067965E-3</v>
+        <v>4.3206194684853039E-3</v>
       </c>
       <c r="S11" s="20">
-        <v>4.340846065775973E-3</v>
+        <v>4.3409598465493464E-3</v>
       </c>
       <c r="T11" s="20">
-        <v>-4.1572275848735362E-3</v>
+        <v>-4.157398398245484E-3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -43124,61 +43139,61 @@
         <v>54</v>
       </c>
       <c r="B12" s="19">
-        <v>-8.2805698051038573E-2</v>
+        <v>-8.27981408125429E-2</v>
       </c>
       <c r="C12" s="20">
-        <v>-1.2903432472409016E-3</v>
+        <v>-1.290066974244492E-3</v>
       </c>
       <c r="D12" s="20">
-        <v>-7.8483327646055321E-5</v>
+        <v>-7.8487732981204292E-5</v>
       </c>
       <c r="E12" s="20">
-        <v>-1.8159327571725834E-5</v>
+        <v>-1.8108282287690155E-5</v>
       </c>
       <c r="F12" s="20">
-        <v>-7.3256051649666374E-5</v>
+        <v>-7.3233849233944473E-5</v>
       </c>
       <c r="G12" s="20">
-        <v>-8.6361995717727531E-5</v>
+        <v>-8.637086896359043E-5</v>
       </c>
       <c r="H12" s="20">
-        <v>-6.5040745701739602E-6</v>
+        <v>-6.5061437073188127E-6</v>
       </c>
       <c r="I12" s="20">
-        <v>4.3337847233124718E-3</v>
+        <v>4.3339079746531773E-3</v>
       </c>
       <c r="J12" s="20">
-        <v>4.346375414142704E-3</v>
+        <v>4.3464996611394689E-3</v>
       </c>
       <c r="K12" s="20">
-        <v>4.3848456876494279E-3</v>
+        <v>4.3849630379593565E-3</v>
       </c>
       <c r="L12" s="20">
-        <v>4.3050994458354403E-3</v>
+        <v>4.3052189096289576E-3</v>
       </c>
       <c r="M12" s="20">
-        <v>8.5003479900097184E-3</v>
+        <v>8.5005446148504853E-3</v>
       </c>
       <c r="N12" s="20">
-        <v>4.3472504468765926E-3</v>
+        <v>4.3473697061691078E-3</v>
       </c>
       <c r="O12" s="20">
-        <v>4.3306917135428457E-3</v>
+        <v>4.330920936979836E-3</v>
       </c>
       <c r="P12" s="20">
-        <v>4.3183386707574666E-3</v>
+        <v>4.3184561693625665E-3</v>
       </c>
       <c r="Q12" s="20">
-        <v>4.374277218700858E-3</v>
+        <v>4.3743940417708856E-3</v>
       </c>
       <c r="R12" s="20">
-        <v>4.3490258697556272E-3</v>
+        <v>4.3491382884308554E-3</v>
       </c>
       <c r="S12" s="20">
-        <v>4.3604749565773265E-3</v>
+        <v>4.3605921089636991E-3</v>
       </c>
       <c r="T12" s="20">
-        <v>-4.2004671663786941E-3</v>
+        <v>-4.2006316563503454E-3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -43186,61 +43201,61 @@
         <v>55</v>
       </c>
       <c r="B13" s="19">
-        <v>-8.6398025874655268E-2</v>
+        <v>-8.6401271925290818E-2</v>
       </c>
       <c r="C13" s="20">
-        <v>-3.5441663490248581E-4</v>
+        <v>-3.5430554461664721E-4</v>
       </c>
       <c r="D13" s="20">
-        <v>2.2685329402957451E-4</v>
+        <v>2.2685512410314506E-4</v>
       </c>
       <c r="E13" s="20">
-        <v>2.4651163346641521E-4</v>
+        <v>2.4654137429825241E-4</v>
       </c>
       <c r="F13" s="20">
-        <v>4.4217788450083844E-4</v>
+        <v>4.4218741007597678E-4</v>
       </c>
       <c r="G13" s="20">
-        <v>2.5083179441504847E-4</v>
+        <v>2.5083532584677928E-4</v>
       </c>
       <c r="H13" s="20">
-        <v>6.9663988457571707E-5</v>
+        <v>6.9669025349298845E-5</v>
       </c>
       <c r="I13" s="20">
-        <v>4.3466175558300648E-3</v>
+        <v>4.3467361795321022E-3</v>
       </c>
       <c r="J13" s="20">
-        <v>4.3549364750419903E-3</v>
+        <v>4.355057032532866E-3</v>
       </c>
       <c r="K13" s="20">
-        <v>4.3789957907766699E-3</v>
+        <v>4.3791168965373476E-3</v>
       </c>
       <c r="L13" s="20">
-        <v>4.3287347677474211E-3</v>
+        <v>4.3288546110660017E-3</v>
       </c>
       <c r="M13" s="20">
-        <v>4.3472504468765926E-3</v>
+        <v>4.3473697061691078E-3</v>
       </c>
       <c r="N13" s="20">
-        <v>7.9503870422144955E-3</v>
+        <v>7.9505671739764708E-3</v>
       </c>
       <c r="O13" s="20">
-        <v>4.3330625907885131E-3</v>
+        <v>4.333226905521249E-3</v>
       </c>
       <c r="P13" s="20">
-        <v>4.3271604742162791E-3</v>
+        <v>4.3272741292523093E-3</v>
       </c>
       <c r="Q13" s="20">
-        <v>4.3858517095428928E-3</v>
+        <v>4.3859693131173237E-3</v>
       </c>
       <c r="R13" s="20">
-        <v>4.3364460817080942E-3</v>
+        <v>4.3365632492892298E-3</v>
       </c>
       <c r="S13" s="20">
-        <v>4.3604265288170047E-3</v>
+        <v>4.3605450867173039E-3</v>
       </c>
       <c r="T13" s="20">
-        <v>-4.6376804291816155E-3</v>
+        <v>-4.6378269229101184E-3</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -43248,61 +43263,61 @@
         <v>56</v>
       </c>
       <c r="B14" s="19">
-        <v>-0.19459833130371856</v>
+        <v>-0.19490393303561573</v>
       </c>
       <c r="C14" s="20">
-        <v>-1.1697691025862611E-3</v>
+        <v>-1.1872962955658168E-3</v>
       </c>
       <c r="D14" s="20">
-        <v>3.8296709634867785E-4</v>
+        <v>3.8331600871620514E-4</v>
       </c>
       <c r="E14" s="20">
-        <v>1.0745529129583533E-4</v>
+        <v>1.0694004093510755E-4</v>
       </c>
       <c r="F14" s="20">
-        <v>3.0861355703413378E-4</v>
+        <v>3.0939199847998295E-4</v>
       </c>
       <c r="G14" s="20">
-        <v>6.9031460105671441E-5</v>
+        <v>6.9928039626149284E-5</v>
       </c>
       <c r="H14" s="20">
-        <v>7.3056147605039627E-6</v>
+        <v>7.9792854282564147E-6</v>
       </c>
       <c r="I14" s="20">
-        <v>4.3370463358913093E-3</v>
+        <v>4.3371955708834216E-3</v>
       </c>
       <c r="J14" s="20">
-        <v>4.3225396704909824E-3</v>
+        <v>4.3226374150688203E-3</v>
       </c>
       <c r="K14" s="20">
-        <v>4.3663434290504063E-3</v>
+        <v>4.3665493138491862E-3</v>
       </c>
       <c r="L14" s="20">
-        <v>4.2976359636499525E-3</v>
+        <v>4.2978469314133242E-3</v>
       </c>
       <c r="M14" s="20">
-        <v>4.3306917135428457E-3</v>
+        <v>4.330920936979836E-3</v>
       </c>
       <c r="N14" s="20">
-        <v>4.3330625907885131E-3</v>
+        <v>4.333226905521249E-3</v>
       </c>
       <c r="O14" s="20">
-        <v>7.3635813080067157E-3</v>
+        <v>7.3629577093491886E-3</v>
       </c>
       <c r="P14" s="20">
-        <v>4.3057493214699221E-3</v>
+        <v>4.3059783512398898E-3</v>
       </c>
       <c r="Q14" s="20">
-        <v>4.3813042385509211E-3</v>
+        <v>4.3816890991081421E-3</v>
       </c>
       <c r="R14" s="20">
-        <v>4.3486938533975833E-3</v>
+        <v>4.3490624906512287E-3</v>
       </c>
       <c r="S14" s="20">
-        <v>4.3441925961610686E-3</v>
+        <v>4.3445645183823947E-3</v>
       </c>
       <c r="T14" s="20">
-        <v>-4.4644406380150159E-3</v>
+        <v>-4.4640337855897348E-3</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -43310,61 +43325,61 @@
         <v>57</v>
       </c>
       <c r="B15" s="19">
-        <v>-0.23722221787929865</v>
+        <v>-0.23719661875889966</v>
       </c>
       <c r="C15" s="20">
-        <v>-5.2029183941425304E-4</v>
+        <v>-5.1973894002800352E-4</v>
       </c>
       <c r="D15" s="20">
-        <v>2.5574777643489746E-5</v>
+        <v>2.5576816169781309E-5</v>
       </c>
       <c r="E15" s="20">
-        <v>1.1149341520587082E-4</v>
+        <v>1.1154890176434066E-4</v>
       </c>
       <c r="F15" s="20">
-        <v>-5.2973386176557958E-5</v>
+        <v>-5.2982471664492214E-5</v>
       </c>
       <c r="G15" s="20">
-        <v>-9.8378945540074066E-5</v>
+        <v>-9.84176791640277E-5</v>
       </c>
       <c r="H15" s="20">
-        <v>-5.7397170634900679E-7</v>
+        <v>-5.6903462139059409E-7</v>
       </c>
       <c r="I15" s="20">
-        <v>4.3081648601289184E-3</v>
+        <v>4.308282566623336E-3</v>
       </c>
       <c r="J15" s="20">
-        <v>4.3135348322981704E-3</v>
+        <v>4.3136519294164725E-3</v>
       </c>
       <c r="K15" s="20">
-        <v>4.3964588481496415E-3</v>
+        <v>4.3965667497680968E-3</v>
       </c>
       <c r="L15" s="20">
-        <v>4.2919280031415655E-3</v>
+        <v>4.292042818237792E-3</v>
       </c>
       <c r="M15" s="20">
-        <v>4.3183386707574666E-3</v>
+        <v>4.3184561693625665E-3</v>
       </c>
       <c r="N15" s="20">
-        <v>4.3271604742162791E-3</v>
+        <v>4.3272741292523093E-3</v>
       </c>
       <c r="O15" s="20">
-        <v>4.3057493214699221E-3</v>
+        <v>4.3059783512398898E-3</v>
       </c>
       <c r="P15" s="20">
-        <v>8.7377362315812484E-3</v>
+        <v>8.737991608551994E-3</v>
       </c>
       <c r="Q15" s="20">
-        <v>4.3736609414442365E-3</v>
+        <v>4.3737648701671654E-3</v>
       </c>
       <c r="R15" s="20">
-        <v>4.3185150502809315E-3</v>
+        <v>4.3186157184252217E-3</v>
       </c>
       <c r="S15" s="20">
-        <v>4.3205908719125942E-3</v>
+        <v>4.3207003353092754E-3</v>
       </c>
       <c r="T15" s="20">
-        <v>-4.3046056420368755E-3</v>
+        <v>-4.3047756070677696E-3</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -43372,61 +43387,61 @@
         <v>58</v>
       </c>
       <c r="B16" s="19">
-        <v>1.5967115015608178E-3</v>
+        <v>1.6127753782126325E-3</v>
       </c>
       <c r="C16" s="20">
-        <v>-1.6933657801890239E-3</v>
+        <v>-1.6923476049812659E-3</v>
       </c>
       <c r="D16" s="20">
-        <v>-1.5798305145034441E-4</v>
+        <v>-1.5800929285120571E-4</v>
       </c>
       <c r="E16" s="20">
-        <v>-1.1892351700215197E-4</v>
+        <v>-1.1886256783133378E-4</v>
       </c>
       <c r="F16" s="20">
-        <v>2.8157247452577101E-5</v>
+        <v>2.8136122969472065E-5</v>
       </c>
       <c r="G16" s="20">
-        <v>2.1248595657067846E-4</v>
+        <v>2.1241337452356217E-4</v>
       </c>
       <c r="H16" s="20">
-        <v>7.7790732599112747E-5</v>
+        <v>7.776768955897973E-5</v>
       </c>
       <c r="I16" s="20">
-        <v>4.362191227975599E-3</v>
+        <v>4.3623118069830618E-3</v>
       </c>
       <c r="J16" s="20">
-        <v>4.3662870295382225E-3</v>
+        <v>4.3664071055151974E-3</v>
       </c>
       <c r="K16" s="20">
-        <v>4.4167273149337567E-3</v>
+        <v>4.4168419152414984E-3</v>
       </c>
       <c r="L16" s="20">
-        <v>4.3555375156836863E-3</v>
+        <v>4.3556502619454315E-3</v>
       </c>
       <c r="M16" s="20">
-        <v>4.374277218700858E-3</v>
+        <v>4.3743940417708856E-3</v>
       </c>
       <c r="N16" s="20">
-        <v>4.3858517095428928E-3</v>
+        <v>4.3859693131173237E-3</v>
       </c>
       <c r="O16" s="20">
-        <v>4.3813042385509211E-3</v>
+        <v>4.3816890991081421E-3</v>
       </c>
       <c r="P16" s="20">
-        <v>4.3736609414442365E-3</v>
+        <v>4.3737648701671654E-3</v>
       </c>
       <c r="Q16" s="20">
-        <v>1.1482548923084932E-2</v>
+        <v>1.1482601351153717E-2</v>
       </c>
       <c r="R16" s="20">
-        <v>4.3900298925271027E-3</v>
+        <v>4.3901309532054979E-3</v>
       </c>
       <c r="S16" s="20">
-        <v>4.392130576983691E-3</v>
+        <v>4.3922315076999809E-3</v>
       </c>
       <c r="T16" s="20">
-        <v>-4.2683996736904662E-3</v>
+        <v>-4.2685847954493936E-3</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -43434,61 +43449,61 @@
         <v>59</v>
       </c>
       <c r="B17" s="19">
-        <v>-8.8848051333576109E-2</v>
+        <v>-8.8836692077451318E-2</v>
       </c>
       <c r="C17" s="20">
-        <v>-2.191815805953708E-3</v>
+        <v>-2.1906733107659067E-3</v>
       </c>
       <c r="D17" s="20">
-        <v>2.1970730032264412E-4</v>
+        <v>2.197016104550694E-4</v>
       </c>
       <c r="E17" s="20">
-        <v>2.2765870050292817E-4</v>
+        <v>2.2772469223383135E-4</v>
       </c>
       <c r="F17" s="20">
-        <v>4.8651952315162481E-4</v>
+        <v>4.8648616801470128E-4</v>
       </c>
       <c r="G17" s="20">
-        <v>7.3740808061177089E-5</v>
+        <v>7.369902574592491E-5</v>
       </c>
       <c r="H17" s="20">
-        <v>4.713203803876682E-5</v>
+        <v>4.7103259587190664E-5</v>
       </c>
       <c r="I17" s="20">
-        <v>4.3510220266979724E-3</v>
+        <v>4.3511421388830289E-3</v>
       </c>
       <c r="J17" s="20">
-        <v>4.3555631680733849E-3</v>
+        <v>4.3556820902779956E-3</v>
       </c>
       <c r="K17" s="20">
-        <v>4.3826328525663006E-3</v>
+        <v>4.3827486719697096E-3</v>
       </c>
       <c r="L17" s="20">
-        <v>4.3205067272067965E-3</v>
+        <v>4.3206194684853039E-3</v>
       </c>
       <c r="M17" s="20">
-        <v>4.3490258697556272E-3</v>
+        <v>4.3491382884308554E-3</v>
       </c>
       <c r="N17" s="20">
-        <v>4.3364460817080942E-3</v>
+        <v>4.3365632492892298E-3</v>
       </c>
       <c r="O17" s="20">
-        <v>4.3486938533975833E-3</v>
+        <v>4.3490624906512287E-3</v>
       </c>
       <c r="P17" s="20">
-        <v>4.3185150502809315E-3</v>
+        <v>4.3186157184252217E-3</v>
       </c>
       <c r="Q17" s="20">
-        <v>4.3900298925271027E-3</v>
+        <v>4.3901309532054979E-3</v>
       </c>
       <c r="R17" s="20">
-        <v>9.1830143679100321E-3</v>
+        <v>9.183188434498283E-3</v>
       </c>
       <c r="S17" s="20">
-        <v>4.3869575844707881E-3</v>
+        <v>4.3870585811723638E-3</v>
       </c>
       <c r="T17" s="20">
-        <v>-4.4971069151343189E-3</v>
+        <v>-4.4973015013057404E-3</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -43496,61 +43511,61 @@
         <v>60</v>
       </c>
       <c r="B18" s="19">
-        <v>-8.4312395150604846E-2</v>
+        <v>-8.4288550485971225E-2</v>
       </c>
       <c r="C18" s="20">
-        <v>-3.7816447888392628E-4</v>
+        <v>-3.7704080345981727E-4</v>
       </c>
       <c r="D18" s="20">
-        <v>2.4487862666448335E-4</v>
+        <v>2.4487357811342481E-4</v>
       </c>
       <c r="E18" s="20">
-        <v>-6.7852279202079615E-5</v>
+        <v>-6.7817601126386913E-5</v>
       </c>
       <c r="F18" s="20">
-        <v>3.3715046554781876E-4</v>
+        <v>3.3713380947748611E-4</v>
       </c>
       <c r="G18" s="20">
-        <v>-2.8997909521541855E-5</v>
+        <v>-2.9063740028339568E-5</v>
       </c>
       <c r="H18" s="20">
-        <v>-1.8190181461376765E-4</v>
+        <v>-1.8191277384509868E-4</v>
       </c>
       <c r="I18" s="20">
-        <v>4.3821219666946749E-3</v>
+        <v>4.3822436266455593E-3</v>
       </c>
       <c r="J18" s="20">
-        <v>4.3489749608238391E-3</v>
+        <v>4.3490931501792528E-3</v>
       </c>
       <c r="K18" s="20">
-        <v>4.3971402603396499E-3</v>
+        <v>4.3972517411326002E-3</v>
       </c>
       <c r="L18" s="20">
-        <v>4.340846065775973E-3</v>
+        <v>4.3409598465493464E-3</v>
       </c>
       <c r="M18" s="20">
-        <v>4.3604749565773265E-3</v>
+        <v>4.3605921089636991E-3</v>
       </c>
       <c r="N18" s="20">
-        <v>4.3604265288170047E-3</v>
+        <v>4.3605450867173039E-3</v>
       </c>
       <c r="O18" s="20">
-        <v>4.3441925961610686E-3</v>
+        <v>4.3445645183823947E-3</v>
       </c>
       <c r="P18" s="20">
-        <v>4.3205908719125942E-3</v>
+        <v>4.3207003353092754E-3</v>
       </c>
       <c r="Q18" s="20">
-        <v>4.392130576983691E-3</v>
+        <v>4.3922315076999809E-3</v>
       </c>
       <c r="R18" s="20">
-        <v>4.3869575844707881E-3</v>
+        <v>4.3870585811723638E-3</v>
       </c>
       <c r="S18" s="20">
-        <v>1.5307713333097992E-2</v>
+        <v>1.5308003381672481E-2</v>
       </c>
       <c r="T18" s="20">
-        <v>-4.389854016514279E-3</v>
+        <v>-4.3900487142188183E-3</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -43558,61 +43573,61 @@
         <v>39</v>
       </c>
       <c r="B19" s="19">
-        <v>-1.973446688571324</v>
+        <v>-1.9734041268446605</v>
       </c>
       <c r="C19" s="20">
-        <v>-3.5465873160499565E-3</v>
+        <v>-3.5443995150077267E-3</v>
       </c>
       <c r="D19" s="20">
-        <v>-8.4105809172982365E-3</v>
+        <v>-8.4109512923886201E-3</v>
       </c>
       <c r="E19" s="20">
-        <v>-8.4684816969343695E-3</v>
+        <v>-8.4687050220290556E-3</v>
       </c>
       <c r="F19" s="20">
-        <v>-8.6347042633578251E-3</v>
+        <v>-8.6352108125011956E-3</v>
       </c>
       <c r="G19" s="20">
-        <v>-8.3720375728399965E-3</v>
+        <v>-8.3725315998750289E-3</v>
       </c>
       <c r="H19" s="20">
-        <v>-1.1876905357364551E-3</v>
+        <v>-1.1878865375397826E-3</v>
       </c>
       <c r="I19" s="20">
-        <v>-4.6250674972723189E-3</v>
+        <v>-4.625211430212983E-3</v>
       </c>
       <c r="J19" s="20">
-        <v>-4.6078303373132999E-3</v>
+        <v>-4.6079895815085634E-3</v>
       </c>
       <c r="K19" s="20">
-        <v>-4.3136647488493367E-3</v>
+        <v>-4.3138027375580488E-3</v>
       </c>
       <c r="L19" s="20">
-        <v>-4.1572275848735362E-3</v>
+        <v>-4.157398398245484E-3</v>
       </c>
       <c r="M19" s="20">
-        <v>-4.2004671663786941E-3</v>
+        <v>-4.2006316563503454E-3</v>
       </c>
       <c r="N19" s="20">
-        <v>-4.6376804291816155E-3</v>
+        <v>-4.6378269229101184E-3</v>
       </c>
       <c r="O19" s="20">
-        <v>-4.4644406380150159E-3</v>
+        <v>-4.4640337855897348E-3</v>
       </c>
       <c r="P19" s="20">
-        <v>-4.3046056420368755E-3</v>
+        <v>-4.3047756070677696E-3</v>
       </c>
       <c r="Q19" s="20">
-        <v>-4.2683996736904662E-3</v>
+        <v>-4.2685847954493936E-3</v>
       </c>
       <c r="R19" s="20">
-        <v>-4.4971069151343189E-3</v>
+        <v>-4.4973015013057404E-3</v>
       </c>
       <c r="S19" s="20">
-        <v>-4.389854016514279E-3</v>
+        <v>-4.3900487142188183E-3</v>
       </c>
       <c r="T19" s="20">
-        <v>1.3167573247138815E-2</v>
+        <v>1.3168024404177057E-2</v>
       </c>
     </row>
   </sheetData>
@@ -43624,7 +43639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE83AD0B-62F5-4A81-BCDC-3EC820E3DC16}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:K24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -44815,7 +44832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298225BB-FD6B-487D-8E0A-5B17245B7D37}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:T19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -46007,7 +46026,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A21"/>
+      <selection activeCell="G3" sqref="G3:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46337,7 +46356,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A21"/>
+      <selection activeCell="G3" sqref="G3:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46368,10 +46387,10 @@
         <v>31</v>
       </c>
       <c r="B3" s="12">
-        <v>1.9235819999999999</v>
+        <v>1.9220710000000001</v>
       </c>
       <c r="C3" s="12">
-        <v>0.36283549999999998</v>
+        <v>0.36276370000000002</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -46394,10 +46413,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12">
-        <v>7.3557700000000004E-2</v>
+        <v>7.3598899999999995E-2</v>
       </c>
       <c r="C5" s="12">
-        <v>0.1011295</v>
+        <v>0.1011314</v>
       </c>
       <c r="D5" s="10">
         <v>0.46700000000000003</v>
@@ -46410,10 +46429,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12">
-        <v>1.90256E-2</v>
+        <v>1.8977600000000001E-2</v>
       </c>
       <c r="C6" s="12">
-        <v>9.6674200000000002E-2</v>
+        <v>9.6676399999999996E-2</v>
       </c>
       <c r="D6" s="10">
         <v>0.84399999999999997</v>
@@ -46426,10 +46445,10 @@
         <v>19</v>
       </c>
       <c r="B7" s="12">
-        <v>-0.124194</v>
+        <v>-0.1241206</v>
       </c>
       <c r="C7" s="12">
-        <v>9.7508600000000001E-2</v>
+        <v>9.7509700000000005E-2</v>
       </c>
       <c r="D7" s="10">
         <v>0.20300000000000001</v>
@@ -46442,13 +46461,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="12">
-        <v>-0.1136745</v>
+        <v>-0.1136001</v>
       </c>
       <c r="C8" s="12">
-        <v>0.1065955</v>
+        <v>0.1065963</v>
       </c>
       <c r="D8" s="10">
-        <v>0.28599999999999998</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -46458,10 +46477,10 @@
         <v>35</v>
       </c>
       <c r="B9" s="12">
-        <v>1.832762</v>
+        <v>1.832838</v>
       </c>
       <c r="C9" s="12">
-        <v>4.20448E-2</v>
+        <v>4.2043200000000003E-2</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -46484,10 +46503,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="12">
-        <v>5.5348399999999999E-2</v>
+        <v>5.53499E-2</v>
       </c>
       <c r="C11" s="12">
-        <v>9.8905999999999994E-2</v>
+        <v>9.8907300000000004E-2</v>
       </c>
       <c r="D11" s="10">
         <v>0.57599999999999996</v>
@@ -46500,10 +46519,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="12">
-        <v>9.3206999999999995E-3</v>
+        <v>9.3226000000000003E-3</v>
       </c>
       <c r="C12" s="12">
-        <v>8.6883299999999997E-2</v>
+        <v>8.6884699999999995E-2</v>
       </c>
       <c r="D12" s="10">
         <v>0.91500000000000004</v>
@@ -46516,10 +46535,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="12">
-        <v>-8.0414799999999995E-2</v>
+        <v>-8.0419900000000002E-2</v>
       </c>
       <c r="C13" s="12">
-        <v>9.7251000000000004E-2</v>
+        <v>9.72523E-2</v>
       </c>
       <c r="D13" s="10">
         <v>0.40799999999999997</v>
@@ -46532,10 +46551,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="12">
-        <v>-1.9816199999999999E-2</v>
+        <v>-1.9808200000000002E-2</v>
       </c>
       <c r="C14" s="12">
-        <v>8.6936700000000006E-2</v>
+        <v>8.6937700000000007E-2</v>
       </c>
       <c r="D14" s="10">
         <v>0.82</v>
@@ -46548,10 +46567,10 @@
         <v>24</v>
       </c>
       <c r="B15" s="12">
-        <v>-8.2805699999999996E-2</v>
+        <v>-8.2798099999999999E-2</v>
       </c>
       <c r="C15" s="12">
-        <v>9.2197299999999996E-2</v>
+        <v>9.21984E-2</v>
       </c>
       <c r="D15" s="10">
         <v>0.36899999999999999</v>
@@ -46564,10 +46583,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="12">
-        <v>-8.6398000000000003E-2</v>
+        <v>-8.64013E-2</v>
       </c>
       <c r="C16" s="12">
-        <v>8.9164900000000005E-2</v>
+        <v>8.9165999999999995E-2</v>
       </c>
       <c r="D16" s="10">
         <v>0.33300000000000002</v>
@@ -46575,99 +46594,95 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="12">
-        <v>-0.1945983</v>
+        <v>-0.19490389999999999</v>
       </c>
       <c r="C17" s="12">
-        <v>8.5811299999999993E-2</v>
+        <v>8.5807700000000001E-2</v>
       </c>
       <c r="D17" s="10">
         <v>2.3E-2</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="12">
-        <v>-0.23722219999999999</v>
+        <v>-0.23719660000000001</v>
       </c>
       <c r="C18" s="12">
-        <v>9.3475900000000001E-2</v>
+        <v>9.3477199999999996E-2</v>
       </c>
       <c r="D18" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="12">
-        <v>1.5966999999999999E-3</v>
+        <v>1.6128E-3</v>
       </c>
       <c r="C19" s="12">
-        <v>0.10715669999999999</v>
+        <v>0.1071569</v>
       </c>
       <c r="D19" s="10">
         <v>0.98799999999999999</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="12">
-        <v>-8.8848099999999999E-2</v>
+        <v>-8.8836700000000005E-2</v>
       </c>
       <c r="C20" s="12">
-        <v>9.5827999999999997E-2</v>
+        <v>9.5828999999999998E-2</v>
       </c>
       <c r="D20" s="10">
         <v>0.35399999999999998</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="12">
-        <v>-8.4312399999999996E-2</v>
+        <v>-8.4288600000000005E-2</v>
       </c>
       <c r="C21" s="12">
-        <v>0.1237243</v>
+        <v>0.1237255</v>
       </c>
       <c r="D21" s="10">
         <v>0.496</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="14">
-        <v>-1.973447</v>
+        <v>-1.9734039999999999</v>
       </c>
       <c r="C22" s="14">
-        <v>0.11475</v>
+        <v>0.11475200000000001</v>
       </c>
       <c r="D22" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -46675,7 +46690,7 @@
         <v>105239</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -46683,7 +46698,7 @@
         <v>8.14E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
@@ -46693,7 +46708,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47068,7 +47083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC354731-ABAD-4A25-A806-32C67693DC3F}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/input/reg_unemployment.xlsx
+++ b/input/reg_unemployment.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D16B38-8D53-4C80-8922-FA1A16685131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8884BE5E-0401-4EA6-87DE-E077A3A2C37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC9AB010-6F1C-42A2-A1E7-CC06071EB15C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{CC9AB010-6F1C-42A2-A1E7-CC06071EB15C}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,10 @@
     <sheet name="UK_RatesFemaleGraduates" sheetId="6" r:id="rId12"/>
     <sheet name="UK_RatesFemaleNonGraduates" sheetId="7" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -371,7 +360,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -381,7 +370,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -395,8 +383,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DD3FED-033E-405B-A2A7-67A35968B641}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -864,13 +851,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EC0B5F-04C9-4F5F-A901-B8AAE6DEDE0A}">
-  <dimension ref="A1:BH66"/>
+  <dimension ref="A1:AX66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AX66" sqref="AX66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -879,7 +866,7 @@
     <col min="5" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1030,18 +1017,8 @@
       <c r="AX1" s="4">
         <v>2024</v>
       </c>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
     </row>
-    <row r="2" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>16</v>
       </c>
@@ -1193,7 +1170,7 @@
         <v>0.32057885000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>17</v>
       </c>
@@ -1345,7 +1322,7 @@
         <v>0.24913356000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>18</v>
       </c>
@@ -1497,7 +1474,7 @@
         <v>0.19593476999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>19</v>
       </c>
@@ -1649,7 +1626,7 @@
         <v>0.17182712999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -1801,7 +1778,7 @@
         <v>0.15967402</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>21</v>
       </c>
@@ -1953,7 +1930,7 @@
         <v>0.13140270999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>22</v>
       </c>
@@ -2105,7 +2082,7 @@
         <v>0.1082795</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>23</v>
       </c>
@@ -2257,7 +2234,7 @@
         <v>8.8274959999999986E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>24</v>
       </c>
@@ -2409,7 +2386,7 @@
         <v>6.5812979999999993E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>25</v>
       </c>
@@ -2561,7 +2538,7 @@
         <v>5.5256269999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>26</v>
       </c>
@@ -2713,7 +2690,7 @@
         <v>3.6772130000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>27</v>
       </c>
@@ -2865,7 +2842,7 @@
         <v>3.6527290000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>28</v>
       </c>
@@ -3017,7 +2994,7 @@
         <v>2.6608559999999996E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>29</v>
       </c>
@@ -3169,7 +3146,7 @@
         <v>2.5161919999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>30</v>
       </c>
@@ -10928,13 +10905,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9172C708-9303-4B74-B36A-400E8C4455B4}">
-  <dimension ref="A1:BH66"/>
+  <dimension ref="A1:AX66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AX66" sqref="AX66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10943,7 +10920,7 @@
     <col min="3" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -11094,18 +11071,8 @@
       <c r="AX1" s="4">
         <v>2024</v>
       </c>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
     </row>
-    <row r="2" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>16</v>
       </c>
@@ -11257,7 +11224,7 @@
         <v>0.32057885000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>17</v>
       </c>
@@ -11409,7 +11376,7 @@
         <v>0.24913356000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>18</v>
       </c>
@@ -11561,7 +11528,7 @@
         <v>0.19593476999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>19</v>
       </c>
@@ -11713,7 +11680,7 @@
         <v>0.17182712999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -11865,7 +11832,7 @@
         <v>0.15967402</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>21</v>
       </c>
@@ -12017,7 +11984,7 @@
         <v>0.13140270999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>22</v>
       </c>
@@ -12169,7 +12136,7 @@
         <v>0.1082795</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>23</v>
       </c>
@@ -12321,7 +12288,7 @@
         <v>9.5490260000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>24</v>
       </c>
@@ -12473,7 +12440,7 @@
         <v>8.6285799999999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>25</v>
       </c>
@@ -12625,7 +12592,7 @@
         <v>7.5845690000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>26</v>
       </c>
@@ -12777,7 +12744,7 @@
         <v>5.0565230000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>27</v>
       </c>
@@ -12929,7 +12896,7 @@
         <v>5.3880789999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>28</v>
       </c>
@@ -13081,7 +13048,7 @@
         <v>4.4968840000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>29</v>
       </c>
@@ -13233,7 +13200,7 @@
         <v>3.7355399999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>30</v>
       </c>
@@ -20992,9 +20959,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36656541-FCAB-471F-B3CC-C2331CBC317D}">
-  <dimension ref="A1:CL66"/>
+  <dimension ref="A1:AX66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -21007,7 +20974,7 @@
     <col min="5" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -21158,24 +21125,8 @@
       <c r="AX1" s="4">
         <v>2024</v>
       </c>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
     </row>
-    <row r="2" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>16</v>
       </c>
@@ -21326,10 +21277,8 @@
       <c r="AX2" s="5">
         <v>0.26019811999999998</v>
       </c>
-      <c r="AY2"/>
-      <c r="AZ2"/>
     </row>
-    <row r="3" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>17</v>
       </c>
@@ -21480,10 +21429,8 @@
       <c r="AX3" s="5">
         <v>0.18180854000000002</v>
       </c>
-      <c r="AY3"/>
-      <c r="AZ3"/>
     </row>
-    <row r="4" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>18</v>
       </c>
@@ -21634,10 +21581,8 @@
       <c r="AX4" s="5">
         <v>0.14871978999999996</v>
       </c>
-      <c r="AY4"/>
-      <c r="AZ4"/>
     </row>
-    <row r="5" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>19</v>
       </c>
@@ -21788,10 +21733,8 @@
       <c r="AX5" s="5">
         <v>0.14520216999999999</v>
       </c>
-      <c r="AY5"/>
-      <c r="AZ5"/>
     </row>
-    <row r="6" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -21942,10 +21885,8 @@
       <c r="AX6" s="5">
         <v>9.8097610000000016E-2</v>
       </c>
-      <c r="AY6"/>
-      <c r="AZ6"/>
     </row>
-    <row r="7" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>21</v>
       </c>
@@ -22096,10 +22037,8 @@
       <c r="AX7" s="5">
         <v>8.9078409999999997E-2</v>
       </c>
-      <c r="AY7"/>
-      <c r="AZ7"/>
     </row>
-    <row r="8" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>22</v>
       </c>
@@ -22250,10 +22189,8 @@
       <c r="AX8" s="5">
         <v>8.8558600000000001E-2</v>
       </c>
-      <c r="AY8"/>
-      <c r="AZ8"/>
     </row>
-    <row r="9" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>23</v>
       </c>
@@ -22404,11 +22341,8 @@
       <c r="AX9" s="5">
         <v>5.0640470000000007E-2</v>
       </c>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="CL9" s="7"/>
     </row>
-    <row r="10" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>24</v>
       </c>
@@ -22559,11 +22493,8 @@
       <c r="AX10" s="5">
         <v>4.37875E-2</v>
       </c>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="CL10" s="7"/>
     </row>
-    <row r="11" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>25</v>
       </c>
@@ -22714,11 +22645,8 @@
       <c r="AX11" s="5">
         <v>3.5014460000000004E-2</v>
       </c>
-      <c r="AY11"/>
-      <c r="AZ11"/>
-      <c r="CL11" s="7"/>
     </row>
-    <row r="12" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>26</v>
       </c>
@@ -22869,11 +22797,8 @@
       <c r="AX12" s="5">
         <v>2.1639590000000004E-2</v>
       </c>
-      <c r="AY12"/>
-      <c r="AZ12"/>
-      <c r="CL12" s="7"/>
     </row>
-    <row r="13" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>27</v>
       </c>
@@ -23024,11 +22949,8 @@
       <c r="AX13" s="5">
         <v>2.6975739999999998E-2</v>
       </c>
-      <c r="AY13"/>
-      <c r="AZ13"/>
-      <c r="CL13" s="7"/>
     </row>
-    <row r="14" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>28</v>
       </c>
@@ -23179,11 +23101,8 @@
       <c r="AX14" s="5">
         <v>3.2589880000000002E-2</v>
       </c>
-      <c r="AY14"/>
-      <c r="AZ14"/>
-      <c r="CL14" s="7"/>
     </row>
-    <row r="15" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>29</v>
       </c>
@@ -23334,11 +23253,8 @@
       <c r="AX15" s="5">
         <v>1.9616940000000003E-2</v>
       </c>
-      <c r="AY15"/>
-      <c r="AZ15"/>
-      <c r="CL15" s="7"/>
     </row>
-    <row r="16" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>30</v>
       </c>
@@ -23489,11 +23405,8 @@
       <c r="AX16" s="5">
         <v>2.8011589999999996E-2</v>
       </c>
-      <c r="AY16"/>
-      <c r="AZ16"/>
-      <c r="CL16" s="7"/>
     </row>
-    <row r="17" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>31</v>
       </c>
@@ -23644,11 +23557,8 @@
       <c r="AX17" s="5">
         <v>2.2562310000000002E-2</v>
       </c>
-      <c r="AY17"/>
-      <c r="AZ17"/>
-      <c r="CL17" s="7"/>
     </row>
-    <row r="18" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>32</v>
       </c>
@@ -23799,11 +23709,8 @@
       <c r="AX18" s="5">
         <v>2.8440979999999998E-2</v>
       </c>
-      <c r="AY18"/>
-      <c r="AZ18"/>
-      <c r="CL18" s="7"/>
     </row>
-    <row r="19" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>33</v>
       </c>
@@ -23954,11 +23861,8 @@
       <c r="AX19" s="5">
         <v>2.2318650000000002E-2</v>
       </c>
-      <c r="AY19"/>
-      <c r="AZ19"/>
-      <c r="CL19" s="7"/>
     </row>
-    <row r="20" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>34</v>
       </c>
@@ -24109,11 +24013,8 @@
       <c r="AX20" s="5">
         <v>2.2305889999999998E-2</v>
       </c>
-      <c r="AY20"/>
-      <c r="AZ20"/>
-      <c r="CL20" s="7"/>
     </row>
-    <row r="21" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>35</v>
       </c>
@@ -24264,11 +24165,8 @@
       <c r="AX21" s="5">
         <v>2.1616710000000001E-2</v>
       </c>
-      <c r="AY21"/>
-      <c r="AZ21"/>
-      <c r="CL21" s="7"/>
     </row>
-    <row r="22" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>36</v>
       </c>
@@ -24419,11 +24317,8 @@
       <c r="AX22" s="5">
         <v>1.7932989999999999E-2</v>
       </c>
-      <c r="AY22"/>
-      <c r="AZ22"/>
-      <c r="CL22" s="7"/>
     </row>
-    <row r="23" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>37</v>
       </c>
@@ -24574,11 +24469,8 @@
       <c r="AX23" s="5">
         <v>1.9648470000000001E-2</v>
       </c>
-      <c r="AY23"/>
-      <c r="AZ23"/>
-      <c r="CL23" s="7"/>
     </row>
-    <row r="24" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>38</v>
       </c>
@@ -24729,11 +24621,8 @@
       <c r="AX24" s="5">
         <v>2.0679350000000006E-2</v>
       </c>
-      <c r="AY24"/>
-      <c r="AZ24"/>
-      <c r="CL24" s="7"/>
     </row>
-    <row r="25" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>39</v>
       </c>
@@ -24884,11 +24773,8 @@
       <c r="AX25" s="5">
         <v>2.6637729999999998E-2</v>
       </c>
-      <c r="AY25"/>
-      <c r="AZ25"/>
-      <c r="CL25" s="7"/>
     </row>
-    <row r="26" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>40</v>
       </c>
@@ -25039,11 +24925,8 @@
       <c r="AX26" s="5">
         <v>1.9886649999999999E-2</v>
       </c>
-      <c r="AY26"/>
-      <c r="AZ26"/>
-      <c r="CL26" s="7"/>
     </row>
-    <row r="27" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>41</v>
       </c>
@@ -25194,11 +25077,8 @@
       <c r="AX27" s="5">
         <v>1.955728E-2</v>
       </c>
-      <c r="AY27"/>
-      <c r="AZ27"/>
-      <c r="CL27" s="7"/>
     </row>
-    <row r="28" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>42</v>
       </c>
@@ -25349,11 +25229,8 @@
       <c r="AX28" s="5">
         <v>2.2265529999999999E-2</v>
       </c>
-      <c r="AY28"/>
-      <c r="AZ28"/>
-      <c r="CL28" s="7"/>
     </row>
-    <row r="29" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43</v>
       </c>
@@ -25504,11 +25381,8 @@
       <c r="AX29" s="5">
         <v>2.2124769999999998E-2</v>
       </c>
-      <c r="AY29"/>
-      <c r="AZ29"/>
-      <c r="CL29" s="7"/>
     </row>
-    <row r="30" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44</v>
       </c>
@@ -25659,11 +25533,8 @@
       <c r="AX30" s="5">
         <v>2.075113E-2</v>
       </c>
-      <c r="AY30"/>
-      <c r="AZ30"/>
-      <c r="CL30" s="7"/>
     </row>
-    <row r="31" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45</v>
       </c>
@@ -25814,11 +25685,8 @@
       <c r="AX31" s="5">
         <v>1.851042E-2</v>
       </c>
-      <c r="AY31"/>
-      <c r="AZ31"/>
-      <c r="CL31" s="7"/>
     </row>
-    <row r="32" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>46</v>
       </c>
@@ -25969,11 +25837,8 @@
       <c r="AX32" s="5">
         <v>2.3261609999999999E-2</v>
       </c>
-      <c r="AY32"/>
-      <c r="AZ32"/>
-      <c r="CL32" s="7"/>
     </row>
-    <row r="33" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>47</v>
       </c>
@@ -26124,11 +25989,8 @@
       <c r="AX33" s="5">
         <v>3.0736720000000006E-2</v>
       </c>
-      <c r="AY33"/>
-      <c r="AZ33"/>
-      <c r="CL33" s="7"/>
     </row>
-    <row r="34" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>48</v>
       </c>
@@ -26279,11 +26141,8 @@
       <c r="AX34" s="5">
         <v>1.7331159999999998E-2</v>
       </c>
-      <c r="AY34"/>
-      <c r="AZ34"/>
-      <c r="CL34" s="7"/>
     </row>
-    <row r="35" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>49</v>
       </c>
@@ -26434,11 +26293,8 @@
       <c r="AX35" s="5">
         <v>2.0583360000000002E-2</v>
       </c>
-      <c r="AY35"/>
-      <c r="AZ35"/>
-      <c r="CL35" s="7"/>
     </row>
-    <row r="36" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>50</v>
       </c>
@@ -26589,11 +26445,8 @@
       <c r="AX36" s="5">
         <v>1.68921E-2</v>
       </c>
-      <c r="AY36"/>
-      <c r="AZ36"/>
-      <c r="CL36" s="7"/>
     </row>
-    <row r="37" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>51</v>
       </c>
@@ -26744,11 +26597,8 @@
       <c r="AX37" s="5">
         <v>1.2943199999999998E-2</v>
       </c>
-      <c r="AY37"/>
-      <c r="AZ37"/>
-      <c r="CL37" s="7"/>
     </row>
-    <row r="38" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>52</v>
       </c>
@@ -26899,11 +26749,8 @@
       <c r="AX38" s="5">
         <v>1.6397169999999999E-2</v>
       </c>
-      <c r="AY38"/>
-      <c r="AZ38"/>
-      <c r="CL38" s="7"/>
     </row>
-    <row r="39" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>53</v>
       </c>
@@ -27054,11 +26901,8 @@
       <c r="AX39" s="5">
         <v>2.2326510000000001E-2</v>
       </c>
-      <c r="AY39"/>
-      <c r="AZ39"/>
-      <c r="CL39" s="7"/>
     </row>
-    <row r="40" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>54</v>
       </c>
@@ -27209,11 +27053,8 @@
       <c r="AX40" s="5">
         <v>1.9069510000000001E-2</v>
       </c>
-      <c r="AY40"/>
-      <c r="AZ40"/>
-      <c r="CL40" s="7"/>
     </row>
-    <row r="41" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>55</v>
       </c>
@@ -27364,11 +27205,8 @@
       <c r="AX41" s="5">
         <v>2.4882430000000001E-2</v>
       </c>
-      <c r="AY41"/>
-      <c r="AZ41"/>
-      <c r="CL41" s="7"/>
     </row>
-    <row r="42" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>56</v>
       </c>
@@ -27519,11 +27357,8 @@
       <c r="AX42" s="5">
         <v>2.275458E-2</v>
       </c>
-      <c r="AY42"/>
-      <c r="AZ42"/>
-      <c r="CL42" s="7"/>
     </row>
-    <row r="43" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>57</v>
       </c>
@@ -27674,11 +27509,8 @@
       <c r="AX43" s="5">
         <v>1.7978999999999998E-2</v>
       </c>
-      <c r="AY43"/>
-      <c r="AZ43"/>
-      <c r="CL43" s="7"/>
     </row>
-    <row r="44" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>58</v>
       </c>
@@ -27829,11 +27661,8 @@
       <c r="AX44" s="5">
         <v>2.0993350000000001E-2</v>
       </c>
-      <c r="AY44"/>
-      <c r="AZ44"/>
-      <c r="CL44" s="7"/>
     </row>
-    <row r="45" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>59</v>
       </c>
@@ -27984,11 +27813,8 @@
       <c r="AX45" s="5">
         <v>1.9619069999999995E-2</v>
       </c>
-      <c r="AY45"/>
-      <c r="AZ45"/>
-      <c r="CL45" s="7"/>
     </row>
-    <row r="46" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>60</v>
       </c>
@@ -28139,11 +27965,8 @@
       <c r="AX46" s="5">
         <v>2.1355597999999996E-2</v>
       </c>
-      <c r="AY46"/>
-      <c r="AZ46"/>
-      <c r="CL46" s="7"/>
     </row>
-    <row r="47" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>61</v>
       </c>
@@ -28294,9 +28117,8 @@
       <c r="AX47" s="5">
         <v>2.77878181E-2</v>
       </c>
-      <c r="CL47" s="7"/>
     </row>
-    <row r="48" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>62</v>
       </c>
@@ -28447,9 +28269,8 @@
       <c r="AX48" s="5">
         <v>3.422003819999999E-2</v>
       </c>
-      <c r="CL48" s="7"/>
     </row>
-    <row r="49" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>63</v>
       </c>
@@ -28600,9 +28421,8 @@
       <c r="AX49" s="5">
         <v>4.0652258300000001E-2</v>
       </c>
-      <c r="CL49" s="7"/>
     </row>
-    <row r="50" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>64</v>
       </c>
@@ -28753,9 +28573,8 @@
       <c r="AX50" s="5">
         <v>4.7084478400000004E-2</v>
       </c>
-      <c r="CL50" s="7"/>
     </row>
-    <row r="51" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>65</v>
       </c>
@@ -28906,9 +28725,8 @@
       <c r="AX51" s="5">
         <v>5.3516698500000001E-2</v>
       </c>
-      <c r="CL51" s="7"/>
     </row>
-    <row r="52" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>66</v>
       </c>
@@ -29059,9 +28877,8 @@
       <c r="AX52" s="5">
         <v>5.9948918599999991E-2</v>
       </c>
-      <c r="CL52" s="7"/>
     </row>
-    <row r="53" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>67</v>
       </c>
@@ -29212,9 +29029,8 @@
       <c r="AX53" s="5">
         <v>6.6381138699999995E-2</v>
       </c>
-      <c r="CL53" s="7"/>
     </row>
-    <row r="54" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>68</v>
       </c>
@@ -29365,9 +29181,8 @@
       <c r="AX54" s="5">
         <v>7.2813358800000005E-2</v>
       </c>
-      <c r="CL54" s="7"/>
     </row>
-    <row r="55" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>69</v>
       </c>
@@ -29518,9 +29333,8 @@
       <c r="AX55" s="5">
         <v>7.9245578900000002E-2</v>
       </c>
-      <c r="CL55" s="7"/>
     </row>
-    <row r="56" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>70</v>
       </c>
@@ -29671,9 +29485,8 @@
       <c r="AX56" s="5">
         <v>8.5677798999999999E-2</v>
       </c>
-      <c r="CL56" s="7"/>
     </row>
-    <row r="57" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>71</v>
       </c>
@@ -29824,9 +29637,8 @@
       <c r="AX57" s="5">
         <v>9.211001910000001E-2</v>
       </c>
-      <c r="CL57" s="7"/>
     </row>
-    <row r="58" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>72</v>
       </c>
@@ -29978,7 +29790,7 @@
         <v>9.8542239199999992E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>73</v>
       </c>
@@ -30130,7 +29942,7 @@
         <v>0.1049744593</v>
       </c>
     </row>
-    <row r="60" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>74</v>
       </c>
@@ -30282,7 +30094,7 @@
         <v>0.11140667940000001</v>
       </c>
     </row>
-    <row r="61" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>75</v>
       </c>
@@ -30434,7 +30246,7 @@
         <v>0.1178388995</v>
       </c>
     </row>
-    <row r="62" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>76</v>
       </c>
@@ -30586,7 +30398,7 @@
         <v>0.12427111960000001</v>
       </c>
     </row>
-    <row r="63" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>77</v>
       </c>
@@ -30738,7 +30550,7 @@
         <v>0.13070333969999998</v>
       </c>
     </row>
-    <row r="64" spans="1:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>78</v>
       </c>
@@ -41254,7 +41066,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T19"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41325,1115 +41137,1115 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>3.3220039193875528</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2">
         <v>1.4438566223433813</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2">
         <v>-9.0661356350120598E-3</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2">
         <v>-1.3503756699687685E-2</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2">
         <v>-8.992034492224233E-3</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2">
         <v>-1.3038646907879273E-2</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2">
         <v>-2.5239467796229334E-2</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2">
         <v>2.0575547632730755E-3</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2">
         <v>-5.3235279583219589E-3</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2">
         <v>1.1772333519326097E-2</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2">
         <v>4.6936935093513498E-4</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2">
         <v>1.2724786288891565E-2</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2">
         <v>8.0740374852929907E-3</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2">
         <v>1.8558736079987766E-2</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2">
         <v>3.8935388858434977E-3</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2">
         <v>-7.2042936694529259E-3</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2">
         <v>-3.4064815368860888E-3</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2">
         <v>4.0102888292629525E-3</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2">
         <v>-3.5416304283025245E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>-0.28014931706682594</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3">
         <v>-9.0661356350120598E-3</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3">
         <v>0.15285370942814358</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3">
         <v>0.14444318206583046</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3">
         <v>0.14421530375264435</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3">
         <v>0.1443023084710103</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3">
         <v>2.4193681452818255E-3</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3">
         <v>7.9359940999656556E-3</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3">
         <v>5.7474163893786786E-3</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3">
         <v>5.2569304015554251E-3</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3">
         <v>5.7683685411371657E-3</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3">
         <v>4.4815886299122282E-3</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3">
         <v>5.4238957955675335E-3</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3">
         <v>4.2541392560057987E-3</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3">
         <v>5.4554498867128258E-3</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3">
         <v>7.5459742987018033E-3</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3">
         <v>6.0743025499170912E-3</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3">
         <v>5.1567554504812138E-3</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3">
         <v>-0.14885284238427224</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>-0.19877766854638357</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4">
         <v>-1.3503756699687685E-2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4">
         <v>0.14444318206583046</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4">
         <v>0.14852120485446979</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4">
         <v>0.14423418990184478</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4">
         <v>0.14404677002820709</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4">
         <v>2.3294796413113562E-3</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4">
         <v>8.5053677364682334E-3</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4">
         <v>5.6397456594008653E-3</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4">
         <v>4.7948087005503792E-3</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4">
         <v>4.9637338862504946E-3</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4">
         <v>4.8448953187313175E-3</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4">
         <v>7.8529923533340734E-3</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4">
         <v>4.9045503319778919E-3</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4">
         <v>5.2848624060568353E-3</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4">
         <v>5.8681454719029316E-3</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4">
         <v>7.6038317711299742E-3</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4">
         <v>5.1809529961373627E-3</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4">
         <v>-0.14903612693976501</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>-0.42384157126915017</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5">
         <v>-8.992034492224233E-3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5">
         <v>0.14421530375264435</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5">
         <v>0.14423418990184478</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5">
         <v>0.14694364688937328</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5">
         <v>0.1438044201315577</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5">
         <v>2.9638053782896556E-3</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5">
         <v>7.8639454080681286E-3</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5">
         <v>6.3657331011579676E-3</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5">
         <v>5.9992522649186088E-3</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5">
         <v>5.6873626406423947E-3</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5">
         <v>5.3031931482577094E-3</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5">
         <v>5.51742650345316E-3</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5">
         <v>4.719968633595301E-3</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5">
         <v>4.7688228677754789E-3</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5">
         <v>6.6832702230434707E-3</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5">
         <v>5.9390812580440711E-3</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5">
         <v>5.0054949518588202E-3</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5">
         <v>-0.1488505184012999</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>-0.38394364531610237</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6">
         <v>-1.3038646907879273E-2</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6">
         <v>0.1443023084710103</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6">
         <v>0.14404677002820709</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6">
         <v>0.1438044201315577</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6">
         <v>0.14902096736319964</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6">
         <v>2.6345157341466554E-3</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6">
         <v>8.4862914576300259E-3</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6">
         <v>5.8027673963113018E-3</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6">
         <v>5.1711240751404139E-3</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6">
         <v>5.8945800301791924E-3</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6">
         <v>5.9980558345003564E-3</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6">
         <v>7.6589970156139414E-3</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6">
         <v>4.1979560895964198E-3</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6">
         <v>5.1930307986041736E-3</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6">
         <v>1.0911976729891769E-2</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6">
         <v>5.3458680542071407E-3</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6">
         <v>4.5319815773411237E-3</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6">
         <v>-0.14876549571684003</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>1.5171954960451808</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7">
         <v>-2.5239467796229334E-2</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7">
         <v>2.4193681452818255E-3</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7">
         <v>2.3294796413113562E-3</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7">
         <v>2.9638053782896556E-3</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7">
         <v>2.6345157341466554E-3</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7">
         <v>7.2524047872111535E-3</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7">
         <v>-1.0486745906347645E-3</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7">
         <v>-4.8093300405042862E-4</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7">
         <v>-1.1293867994508789E-4</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7">
         <v>4.9547733401220562E-4</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7">
         <v>-2.9056738152021542E-4</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7">
         <v>-1.220956898073354E-3</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7">
         <v>-6.5699582642000909E-4</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7">
         <v>-1.1060904860270924E-3</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7">
         <v>-1.0612919538655944E-3</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7">
         <v>-4.6830989024876694E-4</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7">
         <v>-6.579788388510942E-4</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7">
         <v>-2.7898746371138178E-3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>-6.4610856082136625E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8">
         <v>2.0575547632730755E-3</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8">
         <v>7.9359940999656556E-3</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8">
         <v>8.5053677364682334E-3</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8">
         <v>7.8639454080681286E-3</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8">
         <v>8.4862914576300259E-3</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8">
         <v>-1.0486745906347645E-3</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8">
         <v>2.3933988667874408E-2</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8">
         <v>5.4823259884862014E-3</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8">
         <v>5.3890621318247135E-3</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8">
         <v>5.4806855200914394E-3</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8">
         <v>5.2968996101205434E-3</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8">
         <v>5.3074091159183E-3</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8">
         <v>5.3122845618889742E-3</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8">
         <v>5.5690792081135622E-3</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8">
         <v>5.4061332843391447E-3</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8">
         <v>5.3909610778981182E-3</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8">
         <v>5.4648960201561297E-3</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8">
         <v>-1.3372169426667689E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>-0.15974223353976583</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9">
         <v>-5.3235279583219589E-3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9">
         <v>5.7474163893786786E-3</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9">
         <v>5.6397456594008653E-3</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9">
         <v>6.3657331011579676E-3</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9">
         <v>5.8027673963113018E-3</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9">
         <v>-4.8093300405042862E-4</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9">
         <v>5.4823259884862014E-3</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9">
         <v>1.4683130760852956E-2</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9">
         <v>5.139934090531496E-3</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9">
         <v>5.3099352725015248E-3</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9">
         <v>5.1470393850653415E-3</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9">
         <v>5.1922709667144946E-3</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9">
         <v>5.1739960726526913E-3</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9">
         <v>5.4722123056464619E-3</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9">
         <v>5.0743109934870178E-3</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9">
         <v>5.4756893227289076E-3</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9">
         <v>5.4015815721997641E-3</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9">
         <v>-1.0928944726124046E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>-6.3536962200238786E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10">
         <v>1.1772333519326097E-2</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10">
         <v>5.2569304015554251E-3</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10">
         <v>4.7948087005503792E-3</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10">
         <v>5.9992522649186088E-3</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10">
         <v>5.1711240751404139E-3</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10">
         <v>-1.1293867994508789E-4</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10">
         <v>5.3890621318247135E-3</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10">
         <v>5.139934090531496E-3</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10">
         <v>1.9975658000704236E-2</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10">
         <v>5.0831677398186503E-3</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10">
         <v>5.0076039562199619E-3</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10">
         <v>5.2931217578068967E-3</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10">
         <v>4.7659769480584485E-3</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10">
         <v>5.2444236836908147E-3</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10">
         <v>5.176377341716925E-3</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10">
         <v>5.5050878021294554E-3</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10">
         <v>5.2334648083446362E-3</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10">
         <v>-1.083806253243007E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>-0.30775426382312232</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11">
         <v>4.6936935093513498E-4</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11">
         <v>5.7683685411371657E-3</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11">
         <v>4.9637338862504946E-3</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11">
         <v>5.6873626406423947E-3</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11">
         <v>5.8945800301791924E-3</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11">
         <v>4.9547733401220562E-4</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11">
         <v>5.4806855200914394E-3</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11">
         <v>5.3099352725015248E-3</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11">
         <v>5.0831677398186503E-3</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11">
         <v>2.4685376805809549E-2</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11">
         <v>5.3029097794639012E-3</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11">
         <v>5.4660281902196807E-3</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11">
         <v>5.1296652741736918E-3</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11">
         <v>5.4074466838222469E-3</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11">
         <v>5.6522653073077227E-3</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11">
         <v>5.4229828964133895E-3</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11">
         <v>5.2490137112791886E-3</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11">
         <v>-1.0932388016875905E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>-0.15162850249887386</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12">
         <v>1.2724786288891565E-2</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12">
         <v>4.4815886299122282E-3</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12">
         <v>4.8448953187313175E-3</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12">
         <v>5.3031931482577094E-3</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12">
         <v>5.9980558345003564E-3</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12">
         <v>-2.9056738152021542E-4</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12">
         <v>5.2968996101205434E-3</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12">
         <v>5.1470393850653415E-3</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12">
         <v>5.0076039562199619E-3</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12">
         <v>5.3029097794639012E-3</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12">
         <v>1.9723961339898451E-2</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12">
         <v>4.8610980939923993E-3</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12">
         <v>4.9914170360820138E-3</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12">
         <v>5.2200922392355107E-3</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12">
         <v>4.3503727962261266E-3</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12">
         <v>5.3819414018075121E-3</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12">
         <v>5.1571179756804445E-3</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12">
         <v>-1.0672934281322143E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>-3.7317922791812561E-3</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13">
         <v>8.0740374852929907E-3</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13">
         <v>5.4238957955675335E-3</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13">
         <v>7.8529923533340734E-3</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13">
         <v>5.51742650345316E-3</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13">
         <v>7.6589970156139414E-3</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13">
         <v>-1.220956898073354E-3</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13">
         <v>5.3074091159183E-3</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13">
         <v>5.1922709667144946E-3</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13">
         <v>5.2931217578068967E-3</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13">
         <v>5.4660281902196807E-3</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13">
         <v>4.8610980939923993E-3</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13">
         <v>2.2947075721642896E-2</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13">
         <v>5.078185361384639E-3</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13">
         <v>5.4474923314984484E-3</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13">
         <v>4.6610649321372731E-3</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13">
         <v>5.2901745088313346E-3</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13">
         <v>5.1902725612213221E-3</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13">
         <v>-1.1843326275247906E-2</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>-5.4183327711139016E-3</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14">
         <v>1.8558736079987766E-2</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14">
         <v>4.2541392560057987E-3</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14">
         <v>4.9045503319778919E-3</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14">
         <v>4.719968633595301E-3</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14">
         <v>4.1979560895964198E-3</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14">
         <v>-6.5699582642000909E-4</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14">
         <v>5.3122845618889742E-3</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14">
         <v>5.1739960726526913E-3</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14">
         <v>4.7659769480584485E-3</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14">
         <v>5.1296652741736918E-3</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14">
         <v>4.9914170360820138E-3</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14">
         <v>5.078185361384639E-3</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14">
         <v>1.0530299482180937E-2</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14">
         <v>5.3291401990971949E-3</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14">
         <v>4.9307642932322629E-3</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14">
         <v>5.4876210737131717E-3</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14">
         <v>5.2587407429923721E-3</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14">
         <v>-1.0244321912134775E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>-0.49765802607006887</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15">
         <v>3.8935388858434977E-3</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15">
         <v>5.4554498867128258E-3</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15">
         <v>5.2848624060568353E-3</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15">
         <v>4.7688228677754789E-3</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15">
         <v>5.1930307986041736E-3</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15">
         <v>-1.1060904860270924E-3</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15">
         <v>5.5690792081135622E-3</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15">
         <v>5.4722123056464619E-3</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15">
         <v>5.2444236836908147E-3</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15">
         <v>5.4074466838222469E-3</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15">
         <v>5.2200922392355107E-3</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15">
         <v>5.4474923314984484E-3</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15">
         <v>5.3291401990971949E-3</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15">
         <v>1.8745035928407476E-2</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15">
         <v>5.1244182427065453E-3</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15">
         <v>5.5198918248936602E-3</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15">
         <v>5.5538971916658467E-3</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15">
         <v>-1.0319993005708817E-2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>-6.9823297500294743E-2</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16">
         <v>-7.2042936694529259E-3</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16">
         <v>7.5459742987018033E-3</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16">
         <v>5.8681454719029316E-3</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16">
         <v>6.6832702230434707E-3</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16">
         <v>1.0911976729891769E-2</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16">
         <v>-1.0612919538655944E-3</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16">
         <v>5.4061332843391447E-3</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16">
         <v>5.0743109934870178E-3</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16">
         <v>5.176377341716925E-3</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16">
         <v>5.6522653073077227E-3</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16">
         <v>4.3503727962261266E-3</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16">
         <v>4.6610649321372731E-3</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16">
         <v>4.9307642932322629E-3</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16">
         <v>5.1244182427065453E-3</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16">
         <v>7.6549479098272769E-2</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16">
         <v>5.0785533898572727E-3</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16">
         <v>5.1225733508593867E-3</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16">
         <v>-1.1885693202050004E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>-0.20489121093656346</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17">
         <v>-3.4064815368860888E-3</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17">
         <v>6.0743025499170912E-3</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17">
         <v>7.6038317711299742E-3</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17">
         <v>5.9390812580440711E-3</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17">
         <v>5.3458680542071407E-3</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17">
         <v>-4.6830989024876694E-4</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17">
         <v>5.3909610778981182E-3</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17">
         <v>5.4756893227289076E-3</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17">
         <v>5.5050878021294554E-3</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17">
         <v>5.4229828964133895E-3</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17">
         <v>5.3819414018075121E-3</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17">
         <v>5.2901745088313346E-3</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17">
         <v>5.4876210737131717E-3</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17">
         <v>5.5198918248936602E-3</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17">
         <v>5.0785533898572727E-3</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17">
         <v>2.4994812819639788E-2</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17">
         <v>5.5568331529332934E-3</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17">
         <v>-1.1455520606228623E-2</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>-0.51920158172421094</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18">
         <v>4.0102888292629525E-3</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18">
         <v>5.1567554504812138E-3</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18">
         <v>5.1809529961373627E-3</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18">
         <v>5.0054949518588202E-3</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18">
         <v>4.5319815773411237E-3</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18">
         <v>-6.579788388510942E-4</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18">
         <v>5.4648960201561297E-3</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18">
         <v>5.4015815721997641E-3</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18">
         <v>5.2334648083446362E-3</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18">
         <v>5.2490137112791886E-3</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18">
         <v>5.1571179756804445E-3</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18">
         <v>5.1902725612213221E-3</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18">
         <v>5.2587407429923721E-3</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18">
         <v>5.5538971916658467E-3</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18">
         <v>5.1225733508593867E-3</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18">
         <v>5.5568331529332934E-3</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18">
         <v>4.6964986729410893E-2</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18">
         <v>-1.0293612120358798E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>-1.7618049762229764</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19">
         <v>-3.5416304283025245E-2</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19">
         <v>-0.14885284238427224</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19">
         <v>-0.14903612693976501</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19">
         <v>-0.1488505184012999</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19">
         <v>-0.14876549571684003</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19">
         <v>-2.7898746371138178E-3</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19">
         <v>-1.3372169426667689E-2</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19">
         <v>-1.0928944726124046E-2</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19">
         <v>-1.083806253243007E-2</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19">
         <v>-1.0932388016875905E-2</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19">
         <v>-1.0672934281322143E-2</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19">
         <v>-1.1843326275247906E-2</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19">
         <v>-1.0244321912134775E-2</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19">
         <v>-1.0319993005708817E-2</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19">
         <v>-1.1885693202050004E-2</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19">
         <v>-1.1455520606228623E-2</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19">
         <v>-1.0293612120358798E-2</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19">
         <v>0.1593242242140154</v>
       </c>
     </row>
@@ -42447,7 +42259,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42518,1115 +42330,1115 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>1.9220710453212315</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2">
         <v>0.13159750287183256</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2">
         <v>-1.1573257136362218E-3</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2">
         <v>-2.6125035542927991E-3</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2">
         <v>-3.1223597139663959E-3</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2">
         <v>-4.8670319272144753E-3</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2">
         <v>-3.8235111434090727E-3</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2">
         <v>1.0377464458890726E-4</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2">
         <v>1.665324943068467E-4</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2">
         <v>-1.9921404470557924E-4</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2">
         <v>-6.9683201460485301E-5</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2">
         <v>-1.290066974244492E-3</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2">
         <v>-3.5430554461664721E-4</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2">
         <v>-1.1872962955658168E-3</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2">
         <v>-5.1973894002800352E-4</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2">
         <v>-1.6923476049812659E-3</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2">
         <v>-2.1906733107659067E-3</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2">
         <v>-3.7704080345981727E-4</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2">
         <v>-3.5443995150077267E-3</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>7.3598916060736888E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3">
         <v>-1.1573257136362218E-3</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3">
         <v>1.0227563003910664E-2</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3">
         <v>8.1387339178829229E-3</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3">
         <v>8.1720249905394508E-3</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3">
         <v>8.1660578922838727E-3</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3">
         <v>6.0459427806756373E-4</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3">
         <v>4.3792793201604579E-4</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3">
         <v>1.8438873677672352E-4</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3">
         <v>-2.2072218257403403E-5</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3">
         <v>3.9417943313640666E-5</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3">
         <v>-7.8487732981204292E-5</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3">
         <v>2.2685512410314506E-4</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3">
         <v>3.8331600871620514E-4</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3">
         <v>2.5576816169781309E-5</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3">
         <v>-1.5800929285120571E-4</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3">
         <v>2.197016104550694E-4</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3">
         <v>2.4487357811342481E-4</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3">
         <v>-8.4109512923886201E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>1.8977610924120047E-2</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4">
         <v>-2.6125035542927991E-3</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4">
         <v>8.1387339178829229E-3</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4">
         <v>9.3463273064301484E-3</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4">
         <v>8.3175756757349062E-3</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4">
         <v>8.3073535645129086E-3</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4">
         <v>8.3865611926629401E-4</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4">
         <v>2.8165498279771376E-4</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4">
         <v>3.1799378859836188E-4</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4">
         <v>-1.7535194264604599E-4</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4">
         <v>-2.1838889104133265E-4</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4">
         <v>-1.8108282287690155E-5</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4">
         <v>2.4654137429825241E-4</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4">
         <v>1.0694004093510755E-4</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4">
         <v>1.1154890176434066E-4</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4">
         <v>-1.1886256783133378E-4</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4">
         <v>2.2772469223383135E-4</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4">
         <v>-6.7817601126386913E-5</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4">
         <v>-8.4687050220290556E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>-0.12412062488765985</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5">
         <v>-3.1223597139663959E-3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5">
         <v>8.1720249905394508E-3</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5">
         <v>8.3175756757349062E-3</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5">
         <v>9.508137508838695E-3</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5">
         <v>8.3437381472327033E-3</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5">
         <v>9.5148704107947488E-4</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5">
         <v>4.062299758659316E-4</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5">
         <v>3.6388333974977623E-4</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5">
         <v>7.481702705253179E-5</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5">
         <v>-1.159668233449145E-4</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5">
         <v>-7.3233849233944473E-5</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5">
         <v>4.4218741007597678E-4</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5">
         <v>3.0939199847998295E-4</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5">
         <v>-5.2982471664492214E-5</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5">
         <v>2.8136122969472065E-5</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5">
         <v>4.8648616801470128E-4</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5">
         <v>3.3713380947748611E-4</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5">
         <v>-8.6352108125011956E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>-0.11360011656508247</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6">
         <v>-4.8670319272144753E-3</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6">
         <v>8.1660578922838727E-3</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6">
         <v>8.3073535645129086E-3</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6">
         <v>8.3437381472327033E-3</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6">
         <v>1.1362775590685407E-2</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6">
         <v>9.1290418242741733E-4</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6">
         <v>1.5344953158681965E-4</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6">
         <v>6.5304869858326262E-5</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6">
         <v>3.7853292479287075E-4</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6">
         <v>-2.9596360963702771E-4</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6">
         <v>-8.637086896359043E-5</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6">
         <v>2.5083532584677928E-4</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6">
         <v>6.9928039626149284E-5</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6">
         <v>-9.84176791640277E-5</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6">
         <v>2.1241337452356217E-4</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6">
         <v>7.369902574592491E-5</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6">
         <v>-2.9063740028339568E-5</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6">
         <v>-8.3725315998750289E-3</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>1.832838053376479</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7">
         <v>-3.8235111434090727E-3</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7">
         <v>6.0459427806756373E-4</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7">
         <v>8.3865611926629401E-4</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7">
         <v>9.5148704107947488E-4</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7">
         <v>9.1290418242741733E-4</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7">
         <v>1.767626737937204E-3</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7">
         <v>-1.2390131587911311E-4</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7">
         <v>-3.3067220100881294E-5</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7">
         <v>-1.6458710967725404E-4</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7">
         <v>-4.4427512659562629E-5</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7">
         <v>-6.5061437073188127E-6</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7">
         <v>6.9669025349298845E-5</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7">
         <v>7.9792854282564147E-6</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7">
         <v>-5.6903462139059409E-7</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7">
         <v>7.776768955897973E-5</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7">
         <v>4.7103259587190664E-5</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7">
         <v>-1.8191277384509868E-4</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7">
         <v>-1.1878865375397826E-3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>5.5349903818609388E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8">
         <v>1.0377464458890726E-4</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8">
         <v>4.3792793201604579E-4</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8">
         <v>2.8165498279771376E-4</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8">
         <v>4.062299758659316E-4</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8">
         <v>1.5344953158681965E-4</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8">
         <v>-1.2390131587911311E-4</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8">
         <v>9.7826449138919379E-3</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8">
         <v>4.352290962356167E-3</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8">
         <v>4.3852985923812197E-3</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8">
         <v>4.3257334777427074E-3</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8">
         <v>4.3339079746531773E-3</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8">
         <v>4.3467361795321022E-3</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8">
         <v>4.3371955708834216E-3</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8">
         <v>4.308282566623336E-3</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8">
         <v>4.3623118069830618E-3</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8">
         <v>4.3511421388830289E-3</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8">
         <v>4.3822436266455593E-3</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8">
         <v>-4.625211430212983E-3</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>9.3226009408149454E-3</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9">
         <v>1.665324943068467E-4</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9">
         <v>1.8438873677672352E-4</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9">
         <v>3.1799378859836188E-4</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9">
         <v>3.6388333974977623E-4</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9">
         <v>6.5304869858326262E-5</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9">
         <v>-3.3067220100881294E-5</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9">
         <v>4.352290962356167E-3</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9">
         <v>7.5489464346732383E-3</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9">
         <v>4.3700633180795518E-3</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9">
         <v>4.3135964688021389E-3</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9">
         <v>4.3464996611394689E-3</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9">
         <v>4.355057032532866E-3</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9">
         <v>4.3226374150688203E-3</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9">
         <v>4.3136519294164725E-3</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9">
         <v>4.3664071055151974E-3</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9">
         <v>4.3556820902779956E-3</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9">
         <v>4.3490931501792528E-3</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9">
         <v>-4.6079895815085634E-3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>-8.0419910063983621E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10">
         <v>-1.9921404470557924E-4</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10">
         <v>-2.2072218257403403E-5</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10">
         <v>-1.7535194264604599E-4</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10">
         <v>7.481702705253179E-5</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10">
         <v>3.7853292479287075E-4</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10">
         <v>-1.6458710967725404E-4</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10">
         <v>4.3852985923812197E-3</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10">
         <v>4.3700633180795518E-3</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10">
         <v>9.4580189261466927E-3</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10">
         <v>4.3839554761591782E-3</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10">
         <v>4.3849630379593565E-3</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10">
         <v>4.3791168965373476E-3</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10">
         <v>4.3665493138491862E-3</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10">
         <v>4.3965667497680968E-3</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10">
         <v>4.4168419152414984E-3</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10">
         <v>4.3827486719697096E-3</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10">
         <v>4.3972517411326002E-3</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10">
         <v>-4.3138027375580488E-3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>-1.9808186534610195E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11">
         <v>-6.9683201460485301E-5</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11">
         <v>3.9417943313640666E-5</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11">
         <v>-2.1838889104133265E-4</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11">
         <v>-1.159668233449145E-4</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11">
         <v>-2.9596360963702771E-4</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11">
         <v>-4.4427512659562629E-5</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11">
         <v>4.3257334777427074E-3</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11">
         <v>4.3135964688021389E-3</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11">
         <v>4.3839554761591782E-3</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11">
         <v>7.5581698117297234E-3</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11">
         <v>4.3052189096289576E-3</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11">
         <v>4.3288546110660017E-3</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11">
         <v>4.2978469314133242E-3</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11">
         <v>4.292042818237792E-3</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11">
         <v>4.3556502619454315E-3</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11">
         <v>4.3206194684853039E-3</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11">
         <v>4.3409598465493464E-3</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11">
         <v>-4.157398398245484E-3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>-8.27981408125429E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12">
         <v>-1.290066974244492E-3</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12">
         <v>-7.8487732981204292E-5</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12">
         <v>-1.8108282287690155E-5</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12">
         <v>-7.3233849233944473E-5</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12">
         <v>-8.637086896359043E-5</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12">
         <v>-6.5061437073188127E-6</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12">
         <v>4.3339079746531773E-3</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12">
         <v>4.3464996611394689E-3</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12">
         <v>4.3849630379593565E-3</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12">
         <v>4.3052189096289576E-3</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12">
         <v>8.5005446148504853E-3</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12">
         <v>4.3473697061691078E-3</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12">
         <v>4.330920936979836E-3</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12">
         <v>4.3184561693625665E-3</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12">
         <v>4.3743940417708856E-3</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12">
         <v>4.3491382884308554E-3</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12">
         <v>4.3605921089636991E-3</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12">
         <v>-4.2006316563503454E-3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>-8.6401271925290818E-2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13">
         <v>-3.5430554461664721E-4</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13">
         <v>2.2685512410314506E-4</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13">
         <v>2.4654137429825241E-4</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13">
         <v>4.4218741007597678E-4</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13">
         <v>2.5083532584677928E-4</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13">
         <v>6.9669025349298845E-5</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13">
         <v>4.3467361795321022E-3</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13">
         <v>4.355057032532866E-3</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13">
         <v>4.3791168965373476E-3</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13">
         <v>4.3288546110660017E-3</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13">
         <v>4.3473697061691078E-3</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13">
         <v>7.9505671739764708E-3</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13">
         <v>4.333226905521249E-3</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13">
         <v>4.3272741292523093E-3</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13">
         <v>4.3859693131173237E-3</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13">
         <v>4.3365632492892298E-3</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13">
         <v>4.3605450867173039E-3</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13">
         <v>-4.6378269229101184E-3</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>-0.19490393303561573</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14">
         <v>-1.1872962955658168E-3</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14">
         <v>3.8331600871620514E-4</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14">
         <v>1.0694004093510755E-4</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14">
         <v>3.0939199847998295E-4</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14">
         <v>6.9928039626149284E-5</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14">
         <v>7.9792854282564147E-6</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14">
         <v>4.3371955708834216E-3</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14">
         <v>4.3226374150688203E-3</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14">
         <v>4.3665493138491862E-3</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14">
         <v>4.2978469314133242E-3</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14">
         <v>4.330920936979836E-3</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14">
         <v>4.333226905521249E-3</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14">
         <v>7.3629577093491886E-3</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14">
         <v>4.3059783512398898E-3</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14">
         <v>4.3816890991081421E-3</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14">
         <v>4.3490624906512287E-3</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14">
         <v>4.3445645183823947E-3</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14">
         <v>-4.4640337855897348E-3</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>-0.23719661875889966</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15">
         <v>-5.1973894002800352E-4</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15">
         <v>2.5576816169781309E-5</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15">
         <v>1.1154890176434066E-4</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15">
         <v>-5.2982471664492214E-5</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15">
         <v>-9.84176791640277E-5</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15">
         <v>-5.6903462139059409E-7</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15">
         <v>4.308282566623336E-3</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15">
         <v>4.3136519294164725E-3</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15">
         <v>4.3965667497680968E-3</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15">
         <v>4.292042818237792E-3</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15">
         <v>4.3184561693625665E-3</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15">
         <v>4.3272741292523093E-3</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15">
         <v>4.3059783512398898E-3</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15">
         <v>8.737991608551994E-3</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15">
         <v>4.3737648701671654E-3</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15">
         <v>4.3186157184252217E-3</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15">
         <v>4.3207003353092754E-3</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15">
         <v>-4.3047756070677696E-3</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>1.6127753782126325E-3</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16">
         <v>-1.6923476049812659E-3</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16">
         <v>-1.5800929285120571E-4</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16">
         <v>-1.1886256783133378E-4</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16">
         <v>2.8136122969472065E-5</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16">
         <v>2.1241337452356217E-4</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16">
         <v>7.776768955897973E-5</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16">
         <v>4.3623118069830618E-3</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16">
         <v>4.3664071055151974E-3</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16">
         <v>4.4168419152414984E-3</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16">
         <v>4.3556502619454315E-3</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16">
         <v>4.3743940417708856E-3</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16">
         <v>4.3859693131173237E-3</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16">
         <v>4.3816890991081421E-3</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16">
         <v>4.3737648701671654E-3</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16">
         <v>1.1482601351153717E-2</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16">
         <v>4.3901309532054979E-3</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16">
         <v>4.3922315076999809E-3</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16">
         <v>-4.2685847954493936E-3</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>-8.8836692077451318E-2</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17">
         <v>-2.1906733107659067E-3</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17">
         <v>2.197016104550694E-4</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17">
         <v>2.2772469223383135E-4</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17">
         <v>4.8648616801470128E-4</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17">
         <v>7.369902574592491E-5</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17">
         <v>4.7103259587190664E-5</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17">
         <v>4.3511421388830289E-3</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17">
         <v>4.3556820902779956E-3</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17">
         <v>4.3827486719697096E-3</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17">
         <v>4.3206194684853039E-3</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17">
         <v>4.3491382884308554E-3</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17">
         <v>4.3365632492892298E-3</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17">
         <v>4.3490624906512287E-3</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17">
         <v>4.3186157184252217E-3</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17">
         <v>4.3901309532054979E-3</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17">
         <v>9.183188434498283E-3</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17">
         <v>4.3870585811723638E-3</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17">
         <v>-4.4973015013057404E-3</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>-8.4288550485971225E-2</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18">
         <v>-3.7704080345981727E-4</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18">
         <v>2.4487357811342481E-4</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18">
         <v>-6.7817601126386913E-5</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18">
         <v>3.3713380947748611E-4</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18">
         <v>-2.9063740028339568E-5</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18">
         <v>-1.8191277384509868E-4</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18">
         <v>4.3822436266455593E-3</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18">
         <v>4.3490931501792528E-3</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18">
         <v>4.3972517411326002E-3</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18">
         <v>4.3409598465493464E-3</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18">
         <v>4.3605921089636991E-3</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18">
         <v>4.3605450867173039E-3</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18">
         <v>4.3445645183823947E-3</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18">
         <v>4.3207003353092754E-3</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18">
         <v>4.3922315076999809E-3</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18">
         <v>4.3870585811723638E-3</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18">
         <v>1.5308003381672481E-2</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18">
         <v>-4.3900487142188183E-3</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>-1.9734041268446605</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19">
         <v>-3.5443995150077267E-3</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19">
         <v>-8.4109512923886201E-3</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19">
         <v>-8.4687050220290556E-3</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19">
         <v>-8.6352108125011956E-3</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19">
         <v>-8.3725315998750289E-3</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19">
         <v>-1.1878865375397826E-3</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19">
         <v>-4.625211430212983E-3</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19">
         <v>-4.6079895815085634E-3</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19">
         <v>-4.3138027375580488E-3</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19">
         <v>-4.157398398245484E-3</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19">
         <v>-4.2006316563503454E-3</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19">
         <v>-4.6378269229101184E-3</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19">
         <v>-4.4640337855897348E-3</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19">
         <v>-4.3047756070677696E-3</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19">
         <v>-4.2685847954493936E-3</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19">
         <v>-4.4973015013057404E-3</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19">
         <v>-4.3900487142188183E-3</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19">
         <v>1.3168024404177057E-2</v>
       </c>
     </row>
@@ -43640,7 +43452,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:K24"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43711,1115 +43523,1115 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>5.975311123373471</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2">
         <v>2.0923424819690073</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2">
         <v>1.022777309857832E-3</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2">
         <v>6.840939165330566E-3</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2">
         <v>-1.4838490259855338E-3</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2">
         <v>1.5276266810626833E-2</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2">
         <v>1.8366414363756654E-3</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2">
         <v>-5.7842498192407724E-3</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2">
         <v>6.7474863076356952E-3</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2">
         <v>4.4520441274810488E-3</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2">
         <v>1.0110891372324033E-2</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2">
         <v>1.1364305661534862E-2</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2">
         <v>3.926309778248014E-3</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2">
         <v>1.2490586837662531E-2</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2">
         <v>8.7338334235752789E-3</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2">
         <v>2.9919477212580654E-3</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2">
         <v>-1.5808421130776816E-3</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2">
         <v>-2.4173900735838458E-3</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2">
         <v>-7.1613088912057851E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>-0.24413111658645587</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3">
         <v>1.022777309857832E-3</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3">
         <v>2.6423297413859407E-2</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3">
         <v>1.9276241567310295E-2</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3">
         <v>1.92206463767194E-2</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3">
         <v>1.9103140232059931E-2</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3">
         <v>-1.5139271877224201E-4</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3">
         <v>2.71665435960417E-4</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3">
         <v>1.0654924721520105E-3</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3">
         <v>4.5136175143874364E-3</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3">
         <v>-2.7408437913648475E-4</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3">
         <v>-1.7697161643944305E-3</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3">
         <v>-8.2226556801885328E-5</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3">
         <v>-4.5186535151222175E-4</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3">
         <v>1.3534553732372362E-3</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3">
         <v>4.6035904522757042E-4</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3">
         <v>-2.1294925034142514E-4</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3">
         <v>3.2314858388865497E-5</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3">
         <v>-1.9526381793252119E-2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>-0.58418104417849592</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4">
         <v>6.840939165330566E-3</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4">
         <v>1.9276241567310295E-2</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4">
         <v>2.236289837125385E-2</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4">
         <v>1.91697422415723E-2</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4">
         <v>1.9106306319266481E-2</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4">
         <v>-3.0511345041675015E-4</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4">
         <v>-6.3730666859715922E-4</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4">
         <v>-3.9763381303153586E-4</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4">
         <v>-5.2040619794043938E-4</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4">
         <v>-1.0356053654331818E-3</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4">
         <v>-2.6965076997230129E-3</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4">
         <v>-2.0642473156279599E-4</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4">
         <v>-1.2018572328262441E-4</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4">
         <v>-3.3272016568481992E-4</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4">
         <v>-6.4184352434150035E-4</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4">
         <v>-1.2210537957858258E-3</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4">
         <v>-1.5908393670607812E-4</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4">
         <v>-1.88822206336366E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>-0.73888341891446052</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5">
         <v>-1.4838490259855338E-3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5">
         <v>1.92206463767194E-2</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5">
         <v>1.91697422415723E-2</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5">
         <v>2.1159152622394171E-2</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5">
         <v>1.9040945394455961E-2</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5">
         <v>1.2982843479666397E-4</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5">
         <v>1.322298008328178E-4</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5">
         <v>3.1234252318846668E-4</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5">
         <v>-1.3949819051608907E-4</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5">
         <v>-2.788510095537225E-4</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5">
         <v>-1.9644963619978046E-3</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5">
         <v>-7.1837331641036125E-4</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5">
         <v>-5.0530143746182164E-4</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5">
         <v>3.4157412929083225E-5</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5">
         <v>-5.98775727843592E-4</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5">
         <v>-7.8495618194189196E-4</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5">
         <v>4.0262279155413652E-4</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5">
         <v>-1.8927494064318144E-2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>-0.68960625064994885</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6">
         <v>1.5276266810626833E-2</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6">
         <v>1.9103140232059931E-2</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6">
         <v>1.9106306319266481E-2</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6">
         <v>1.9040945394455961E-2</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6">
         <v>2.3340468993002166E-2</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6">
         <v>-8.0571436946366552E-5</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6">
         <v>-2.7506656709175466E-4</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6">
         <v>2.7028848048315721E-5</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6">
         <v>6.9055472271452659E-4</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6">
         <v>-3.3365950642923799E-5</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6">
         <v>-2.8163454360765686E-3</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6">
         <v>-5.718184681217629E-4</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6">
         <v>-2.4312587063404518E-4</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6">
         <v>1.1463819638227526E-4</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6">
         <v>-8.560366066348319E-4</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6">
         <v>-9.022234193598799E-4</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6">
         <v>2.4264425694160274E-4</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6">
         <v>-1.9315815848071835E-2</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>0.99962566534652375</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7">
         <v>1.8366414363756654E-3</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7">
         <v>-1.5139271877224201E-4</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7">
         <v>-3.0511345041675015E-4</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7">
         <v>1.2982843479666397E-4</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7">
         <v>-8.0571436946366552E-5</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7">
         <v>3.6162332979782761E-3</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7">
         <v>1.3076332533260302E-3</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7">
         <v>4.0051086352811064E-4</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7">
         <v>2.8350455536880765E-4</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7">
         <v>1.3922250287932187E-3</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7">
         <v>1.1259120417718522E-3</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7">
         <v>4.3453328523258462E-5</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7">
         <v>2.4062892365231501E-5</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7">
         <v>6.6843304311750649E-4</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7">
         <v>9.8829627894647621E-4</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7">
         <v>6.0088473289323123E-4</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7">
         <v>8.7775183378451037E-4</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7">
         <v>-1.6565968080052413E-3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>1.2578063180959748E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8">
         <v>-5.7842498192407724E-3</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8">
         <v>2.71665435960417E-4</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8">
         <v>-6.3730666859715922E-4</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8">
         <v>1.322298008328178E-4</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8">
         <v>-2.7506656709175466E-4</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8">
         <v>1.3076332533260302E-3</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8">
         <v>1.7207382528460966E-2</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8">
         <v>3.9994581209389455E-3</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8">
         <v>4.1807115995118656E-3</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8">
         <v>3.9528539961476566E-3</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8">
         <v>4.1138576809195736E-3</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8">
         <v>4.1776760795991926E-3</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8">
         <v>3.9613954211575736E-3</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8">
         <v>4.1947574781451931E-3</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8">
         <v>4.1889492805653357E-3</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8">
         <v>4.0730319655656955E-3</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8">
         <v>3.964602793470739E-3</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8">
         <v>-4.1902413783987194E-3</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>-0.2573137466624002</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9">
         <v>6.7474863076356952E-3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9">
         <v>1.0654924721520105E-3</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9">
         <v>-3.9763381303153586E-4</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9">
         <v>3.1234252318846668E-4</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9">
         <v>2.7028848048315721E-5</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9">
         <v>4.0051086352811064E-4</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9">
         <v>3.9994581209389455E-3</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9">
         <v>1.0365707146118704E-2</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9">
         <v>3.413620855125526E-3</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9">
         <v>3.9472820091098889E-3</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9">
         <v>3.7850344946699973E-3</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9">
         <v>4.0574768754011456E-3</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9">
         <v>3.9186382327109281E-3</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9">
         <v>3.8226787990976105E-3</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9">
         <v>3.8466390447375273E-3</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9">
         <v>3.9446776660905392E-3</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9">
         <v>3.9278489478601439E-3</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9">
         <v>-4.444529060319247E-3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>-5.4468930786818137E-2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10">
         <v>4.4520441274810488E-3</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10">
         <v>4.5136175143874364E-3</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10">
         <v>-5.2040619794043938E-4</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10">
         <v>-1.3949819051608907E-4</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10">
         <v>6.9055472271452659E-4</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10">
         <v>2.8350455536880765E-4</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10">
         <v>4.1807115995118656E-3</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10">
         <v>3.413620855125526E-3</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10">
         <v>2.2111995805508496E-2</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10">
         <v>4.209827196947351E-3</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10">
         <v>3.8686790637738173E-3</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10">
         <v>4.0444837511868469E-3</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10">
         <v>3.7511828032667218E-3</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10">
         <v>3.7482219855570148E-3</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10">
         <v>3.9406644703693389E-3</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10">
         <v>3.9715204383845943E-3</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10">
         <v>3.9040216131472315E-3</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10">
         <v>-4.6917220426184961E-3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>-5.10025056596791E-2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11">
         <v>1.0110891372324033E-2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11">
         <v>-2.7408437913648475E-4</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11">
         <v>-1.0356053654331818E-3</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11">
         <v>-2.788510095537225E-4</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11">
         <v>-3.3365950642923799E-5</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11">
         <v>1.3922250287932187E-3</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11">
         <v>3.9528539961476566E-3</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11">
         <v>3.9472820091098889E-3</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11">
         <v>4.209827196947351E-3</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11">
         <v>1.6305221965665948E-2</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11">
         <v>3.9602569136883313E-3</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11">
         <v>4.1805863334817596E-3</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11">
         <v>3.9128974311665107E-3</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11">
         <v>4.1685415628505201E-3</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11">
         <v>3.9778199759883601E-3</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11">
         <v>4.026460533890954E-3</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11">
         <v>3.8436144275162953E-3</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11">
         <v>-4.3920575431861328E-3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>-0.3228758675310372</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12">
         <v>1.1364305661534862E-2</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12">
         <v>-1.7697161643944305E-3</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12">
         <v>-2.6965076997230129E-3</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12">
         <v>-1.9644963619978046E-3</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12">
         <v>-2.8163454360765686E-3</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12">
         <v>1.1259120417718522E-3</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12">
         <v>4.1138576809195736E-3</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12">
         <v>3.7850344946699973E-3</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12">
         <v>3.8686790637738173E-3</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12">
         <v>3.9602569136883313E-3</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12">
         <v>1.5923035641223732E-2</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12">
         <v>4.0226169096104821E-3</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12">
         <v>3.8846225125565713E-3</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12">
         <v>3.9909678454302707E-3</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12">
         <v>4.0304544829334286E-3</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12">
         <v>3.9533809231124895E-3</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12">
         <v>3.986107100980016E-3</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12">
         <v>-2.5272066550653602E-3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>-0.12229887893727533</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13">
         <v>3.926309778248014E-3</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13">
         <v>-8.2226556801885328E-5</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13">
         <v>-2.0642473156279599E-4</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13">
         <v>-7.1837331641036125E-4</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13">
         <v>-5.718184681217629E-4</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13">
         <v>4.3453328523258462E-5</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13">
         <v>4.1776760795991926E-3</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13">
         <v>4.0574768754011456E-3</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13">
         <v>4.0444837511868469E-3</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13">
         <v>4.1805863334817596E-3</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13">
         <v>4.0226169096104821E-3</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13">
         <v>1.4247378537847353E-2</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13">
         <v>3.990286950317317E-3</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13">
         <v>4.0390828108744382E-3</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13">
         <v>4.0977634889371719E-3</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13">
         <v>4.0301099878516716E-3</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13">
         <v>4.182960673765509E-3</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13">
         <v>-3.7694427074636896E-3</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>-0.19570143890896316</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14">
         <v>1.2490586837662531E-2</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14">
         <v>-4.5186535151222175E-4</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14">
         <v>-1.2018572328262441E-4</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14">
         <v>-5.0530143746182164E-4</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14">
         <v>-2.4312587063404518E-4</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14">
         <v>2.4062892365231501E-5</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14">
         <v>3.9613954211575736E-3</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14">
         <v>3.9186382327109281E-3</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14">
         <v>3.7511828032667218E-3</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14">
         <v>3.9128974311665107E-3</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14">
         <v>3.8846225125565713E-3</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14">
         <v>3.990286950317317E-3</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14">
         <v>8.9828214090908968E-3</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14">
         <v>3.9117318745303543E-3</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14">
         <v>3.874908658802776E-3</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14">
         <v>3.9375539139296341E-3</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14">
         <v>3.9972494850517692E-3</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14">
         <v>-4.0636389562362174E-3</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>-0.2932466872478387</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15">
         <v>8.7338334235752789E-3</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15">
         <v>1.3534553732372362E-3</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15">
         <v>-3.3272016568481992E-4</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15">
         <v>3.4157412929083225E-5</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15">
         <v>1.1463819638227526E-4</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15">
         <v>6.6843304311750649E-4</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15">
         <v>4.1947574781451931E-3</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15">
         <v>3.8226787990976105E-3</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15">
         <v>3.7482219855570148E-3</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15">
         <v>4.1685415628505201E-3</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15">
         <v>3.9909678454302707E-3</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15">
         <v>4.0390828108744382E-3</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15">
         <v>3.9117318745303543E-3</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15">
         <v>1.3337296451419917E-2</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15">
         <v>4.0388380188539977E-3</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15">
         <v>4.0352641720749396E-3</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15">
         <v>4.057267316592666E-3</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15">
         <v>-4.6529172380434117E-3</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>-9.80024829195945E-2</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16">
         <v>2.9919477212580654E-3</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16">
         <v>4.6035904522757042E-4</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16">
         <v>-6.4184352434150035E-4</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16">
         <v>-5.98775727843592E-4</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16">
         <v>-8.560366066348319E-4</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16">
         <v>9.8829627894647621E-4</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16">
         <v>4.1889492805653357E-3</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16">
         <v>3.8466390447375273E-3</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16">
         <v>3.9406644703693389E-3</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16">
         <v>3.9778199759883601E-3</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16">
         <v>4.0304544829334286E-3</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16">
         <v>4.0977634889371719E-3</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16">
         <v>3.874908658802776E-3</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16">
         <v>4.0388380188539977E-3</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16">
         <v>2.2729514871744631E-2</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16">
         <v>4.142092734866481E-3</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16">
         <v>4.0556244107194696E-3</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16">
         <v>-3.9940166814911053E-3</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>-0.23585854208658888</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17">
         <v>-1.5808421130776816E-3</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17">
         <v>-2.1294925034142514E-4</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17">
         <v>-1.2210537957858258E-3</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17">
         <v>-7.8495618194189196E-4</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17">
         <v>-9.022234193598799E-4</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17">
         <v>6.0088473289323123E-4</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17">
         <v>4.0730319655656955E-3</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17">
         <v>3.9446776660905392E-3</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17">
         <v>3.9715204383845943E-3</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17">
         <v>4.026460533890954E-3</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17">
         <v>3.9533809231124895E-3</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17">
         <v>4.0301099878516716E-3</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17">
         <v>3.9375539139296341E-3</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17">
         <v>4.0352641720749396E-3</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17">
         <v>4.142092734866481E-3</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17">
         <v>1.4539954615378119E-2</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17">
         <v>3.926220147444771E-3</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17">
         <v>-3.3260633146255346E-3</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>-2.148395583679014E-2</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18">
         <v>-2.4173900735838458E-3</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18">
         <v>3.2314858388865497E-5</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18">
         <v>-1.5908393670607812E-4</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18">
         <v>4.0262279155413652E-4</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18">
         <v>2.4264425694160274E-4</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18">
         <v>8.7775183378451037E-4</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18">
         <v>3.964602793470739E-3</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18">
         <v>3.9278489478601439E-3</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18">
         <v>3.9040216131472315E-3</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18">
         <v>3.8436144275162953E-3</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18">
         <v>3.986107100980016E-3</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18">
         <v>4.182960673765509E-3</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18">
         <v>3.9972494850517692E-3</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18">
         <v>4.057267316592666E-3</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18">
         <v>4.0556244107194696E-3</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18">
         <v>3.926220147444771E-3</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18">
         <v>2.9782077292722944E-2</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18">
         <v>-4.3689659654760479E-3</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>-1.6794537820929836</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19">
         <v>-7.1613088912057851E-2</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19">
         <v>-1.9526381793252119E-2</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19">
         <v>-1.88822206336366E-2</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19">
         <v>-1.8927494064318144E-2</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19">
         <v>-1.9315815848071835E-2</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19">
         <v>-1.6565968080052413E-3</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19">
         <v>-4.1902413783987194E-3</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19">
         <v>-4.444529060319247E-3</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19">
         <v>-4.6917220426184961E-3</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19">
         <v>-4.3920575431861328E-3</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19">
         <v>-2.5272066550653602E-3</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19">
         <v>-3.7694427074636896E-3</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19">
         <v>-4.0636389562362174E-3</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19">
         <v>-4.6529172380434117E-3</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19">
         <v>-3.9940166814911053E-3</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19">
         <v>-3.3260633146255346E-3</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19">
         <v>-4.3689659654760479E-3</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19">
         <v>2.5092965302737909E-2</v>
       </c>
     </row>
@@ -44833,7 +44645,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T19"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44904,1115 +44716,1115 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>3.7763942488993747</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2">
         <v>0.20160839059311714</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2">
         <v>-5.0115337740796052E-4</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2">
         <v>-8.9309537703320219E-4</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2">
         <v>-2.6073193788787429E-3</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2">
         <v>-2.4377212277968286E-3</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2">
         <v>-2.0771104113552459E-3</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2">
         <v>-5.7117112864523041E-4</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2">
         <v>-1.6399376999299805E-4</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2">
         <v>-7.9810706184297816E-4</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2">
         <v>-9.4642333023037609E-4</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2">
         <v>-2.3111513775730171E-4</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2">
         <v>-6.2367212955073692E-4</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2">
         <v>1.1990922599324177E-3</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2">
         <v>-9.3471368425980875E-4</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2">
         <v>-3.5935375495207544E-4</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2">
         <v>2.1976441532392619E-4</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2">
         <v>-1.4852790235837612E-3</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2">
         <v>-8.0884031096164523E-3</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>-3.5162661886621031E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3">
         <v>-5.0115337740796052E-4</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3">
         <v>5.8824810822994287E-3</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3">
         <v>4.6118718521017494E-3</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3">
         <v>4.6043466160977584E-3</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3">
         <v>4.6173621424991443E-3</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3">
         <v>1.5274243611842868E-4</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3">
         <v>9.7948071489650616E-5</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3">
         <v>1.3720153190091458E-4</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3">
         <v>2.5288314520413851E-4</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3">
         <v>4.4808473762878939E-5</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3">
         <v>-2.2188547282229326E-5</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3">
         <v>7.3562136521336009E-5</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3">
         <v>-1.3900536254085692E-6</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3">
         <v>-8.3760580817767143E-5</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3">
         <v>9.3347690716885298E-5</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3">
         <v>-3.2935039557054893E-5</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3">
         <v>2.1355401988440502E-4</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3">
         <v>-4.7159132329863641E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>-0.26605157249639011</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4">
         <v>-8.9309537703320219E-4</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4">
         <v>4.6118718521017494E-3</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4">
         <v>5.4263538623378349E-3</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4">
         <v>4.6460605988739344E-3</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4">
         <v>4.6531433261070938E-3</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4">
         <v>3.1194547230491642E-4</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4">
         <v>2.0666783338453478E-4</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4">
         <v>1.7596493658533535E-4</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4">
         <v>2.4839642039142763E-4</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4">
         <v>1.6008661472038948E-4</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4">
         <v>3.0613558616482579E-5</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4">
         <v>1.7287939600248549E-4</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4">
         <v>1.3023571258744026E-4</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4">
         <v>4.4643715413571726E-6</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4">
         <v>1.5409880755756344E-4</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4">
         <v>3.6220903647570402E-5</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4">
         <v>2.2937994285043774E-4</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4">
         <v>-4.8747912666294397E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>-0.38286734280983098</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5">
         <v>-2.6073193788787429E-3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5">
         <v>4.6043466160977584E-3</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5">
         <v>4.6460605988739344E-3</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5">
         <v>5.6501087593974703E-3</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5">
         <v>4.6650046568898346E-3</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5">
         <v>2.669991983048765E-4</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5">
         <v>1.8205227740838038E-4</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5">
         <v>5.475999032590064E-5</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5">
         <v>-3.7826991898909932E-5</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5">
         <v>1.8292533694658214E-4</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5">
         <v>-1.0620904765789099E-4</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5">
         <v>5.7052948981362386E-6</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5">
         <v>1.1401399012474613E-5</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5">
         <v>-2.198318166474842E-4</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5">
         <v>1.3125911358759885E-4</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5">
         <v>-6.1539280313571828E-5</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5">
         <v>-9.9995513099190598E-6</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5">
         <v>-4.6445781622898585E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>-0.34192199887615993</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6">
         <v>-2.4377212277968286E-3</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6">
         <v>4.6173621424991443E-3</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6">
         <v>4.6531433261070938E-3</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6">
         <v>4.6650046568898346E-3</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6">
         <v>6.9781745100625271E-3</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6">
         <v>3.8825088152120193E-4</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6">
         <v>2.9913487379940908E-4</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6">
         <v>2.4377823026037549E-4</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6">
         <v>6.1225958050640215E-4</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6">
         <v>1.9446654445286719E-4</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6">
         <v>7.4558978762295346E-5</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6">
         <v>2.0172015166448941E-4</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6">
         <v>1.0014142038427664E-4</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6">
         <v>-4.1864719509924261E-5</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6">
         <v>2.293165383210219E-4</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6">
         <v>1.0720826541815416E-4</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6">
         <v>1.0526901684624365E-4</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6">
         <v>-4.9030571989960624E-3</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>1.1644048313620481</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7">
         <v>-2.0771104113552459E-3</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7">
         <v>1.5274243611842868E-4</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7">
         <v>3.1194547230491642E-4</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7">
         <v>2.669991983048765E-4</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7">
         <v>3.8825088152120193E-4</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7">
         <v>1.1126588747476047E-3</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7">
         <v>3.7292486979051995E-5</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7">
         <v>-7.4890828528489668E-5</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7">
         <v>-9.762955777373487E-5</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7">
         <v>-1.560395145439571E-4</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7">
         <v>-3.0570595086651723E-5</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7">
         <v>-1.656746036569302E-4</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7">
         <v>-7.1606042196352632E-5</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7">
         <v>-1.0521096724498393E-4</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7">
         <v>-1.1588188666563216E-4</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7">
         <v>2.9415462620966304E-5</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7">
         <v>-4.254074802990574E-5</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7">
         <v>-6.736439180099811E-4</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>-5.3546122920729626E-2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8">
         <v>-5.7117112864523041E-4</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8">
         <v>9.7948071489650616E-5</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8">
         <v>2.0666783338453478E-4</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8">
         <v>1.8205227740838038E-4</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8">
         <v>2.9913487379940908E-4</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8">
         <v>3.7292486979051995E-5</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8">
         <v>7.0168299547179371E-3</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8">
         <v>2.6385036055809794E-3</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8">
         <v>2.6302556737051223E-3</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8">
         <v>2.6429920809031308E-3</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8">
         <v>2.6374457039771331E-3</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8">
         <v>2.6324937386620604E-3</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8">
         <v>2.6372538736541867E-3</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8">
         <v>2.6468628017713761E-3</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8">
         <v>2.6333868724763006E-3</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8">
         <v>2.6405842033022219E-3</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8">
         <v>2.6223144650967031E-3</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8">
         <v>-2.7998613131418881E-3</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>-0.11467569244774736</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9">
         <v>-1.6399376999299805E-4</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9">
         <v>1.3720153190091458E-4</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9">
         <v>1.7596493658533535E-4</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9">
         <v>5.475999032590064E-5</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9">
         <v>2.4377823026037549E-4</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9">
         <v>-7.4890828528489668E-5</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9">
         <v>2.6385036055809794E-3</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9">
         <v>4.6616279918125945E-3</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9">
         <v>2.6238790088965657E-3</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9">
         <v>2.6213475320420012E-3</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9">
         <v>2.6319508022641042E-3</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9">
         <v>2.6182052545605248E-3</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9">
         <v>2.6244331730174561E-3</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9">
         <v>2.6329298798178939E-3</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9">
         <v>2.6240065911310841E-3</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9">
         <v>2.6182782557136693E-3</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9">
         <v>2.6327700531521732E-3</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9">
         <v>-2.7045184444692435E-3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>-0.12112950549533991</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10">
         <v>-7.9810706184297816E-4</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10">
         <v>2.5288314520413851E-4</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10">
         <v>2.4839642039142763E-4</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10">
         <v>-3.7826991898909932E-5</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10">
         <v>6.1225958050640215E-4</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10">
         <v>-9.762955777373487E-5</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10">
         <v>2.6302556737051223E-3</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10">
         <v>2.6238790088965657E-3</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10">
         <v>5.7868548740378717E-3</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10">
         <v>2.629900231105486E-3</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10">
         <v>2.6327230000520183E-3</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10">
         <v>2.6278811647852994E-3</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10">
         <v>2.6282590332022296E-3</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10">
         <v>2.6445003411363311E-3</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10">
         <v>2.6075781276401577E-3</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10">
         <v>2.6159155675417383E-3</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10">
         <v>2.6385318296288742E-3</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10">
         <v>-2.7228858565888892E-3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>-0.27748563767578366</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11">
         <v>-9.4642333023037609E-4</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11">
         <v>4.4808473762878939E-5</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11">
         <v>1.6008661472038948E-4</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11">
         <v>1.8292533694658214E-4</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11">
         <v>1.9446654445286719E-4</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11">
         <v>-1.560395145439571E-4</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11">
         <v>2.6429920809031308E-3</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11">
         <v>2.6213475320420012E-3</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11">
         <v>2.629900231105486E-3</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11">
         <v>6.8129393319993747E-3</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11">
         <v>2.6437227690077648E-3</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11">
         <v>2.625753162668343E-3</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11">
         <v>2.6313236403298973E-3</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11">
         <v>2.6493820146111331E-3</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11">
         <v>2.6261345217738477E-3</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11">
         <v>2.6178049004002878E-3</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11">
         <v>2.6446801598814232E-3</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11">
         <v>-2.6261043632189495E-3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>-7.3163802889426602E-2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12">
         <v>-2.3111513775730171E-4</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12">
         <v>-2.2188547282229326E-5</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12">
         <v>3.0613558616482579E-5</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12">
         <v>-1.0620904765789099E-4</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12">
         <v>7.4558978762295346E-5</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12">
         <v>-3.0570595086651723E-5</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12">
         <v>2.6374457039771331E-3</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12">
         <v>2.6319508022641042E-3</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12">
         <v>2.6327230000520183E-3</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12">
         <v>2.6437227690077648E-3</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12">
         <v>4.6827460523677254E-3</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12">
         <v>2.6256876441093794E-3</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12">
         <v>2.6332561997807883E-3</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12">
         <v>2.6296033772275993E-3</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12">
         <v>2.6345775416910531E-3</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12">
         <v>2.6320039653465266E-3</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12">
         <v>2.6324393748382358E-3</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12">
         <v>-2.5854586257496267E-3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>-0.35890032155550278</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13">
         <v>-6.2367212955073692E-4</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13">
         <v>7.3562136521336009E-5</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13">
         <v>1.7287939600248549E-4</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13">
         <v>5.7052948981362386E-6</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13">
         <v>2.0172015166448941E-4</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13">
         <v>-1.656746036569302E-4</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13">
         <v>2.6324937386620604E-3</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13">
         <v>2.6182052545605248E-3</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13">
         <v>2.6278811647852994E-3</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13">
         <v>2.625753162668343E-3</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13">
         <v>2.6256876441093794E-3</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13">
         <v>5.5183971167295492E-3</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13">
         <v>2.6176617836856085E-3</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13">
         <v>2.6314695327205161E-3</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13">
         <v>2.627929515305499E-3</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13">
         <v>2.6094321137728389E-3</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13">
         <v>2.6326405553792416E-3</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13">
         <v>-2.5922132986329867E-3</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>-0.28771624385775502</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14">
         <v>1.1990922599324177E-3</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14">
         <v>-1.3900536254085692E-6</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14">
         <v>1.3023571258744026E-4</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14">
         <v>1.1401399012474613E-5</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14">
         <v>1.0014142038427664E-4</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14">
         <v>-7.1606042196352632E-5</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14">
         <v>2.6372538736541867E-3</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14">
         <v>2.6244331730174561E-3</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14">
         <v>2.6282590332022296E-3</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14">
         <v>2.6313236403298973E-3</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14">
         <v>2.6332561997807883E-3</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14">
         <v>2.6176617836856085E-3</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14">
         <v>5.1003621132218787E-3</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14">
         <v>2.6269847858126825E-3</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14">
         <v>2.6378246436342852E-3</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14">
         <v>2.6217843251470077E-3</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14">
         <v>2.6157227992537804E-3</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14">
         <v>-2.7112357921276072E-3</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>-0.39531177796844091</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15">
         <v>-9.3471368425980875E-4</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15">
         <v>-8.3760580817767143E-5</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15">
         <v>4.4643715413571726E-6</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15">
         <v>-2.198318166474842E-4</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15">
         <v>-4.1864719509924261E-5</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15">
         <v>-1.0521096724498393E-4</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15">
         <v>2.6468628017713761E-3</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15">
         <v>2.6329298798178939E-3</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15">
         <v>2.6445003411363311E-3</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15">
         <v>2.6493820146111331E-3</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15">
         <v>2.6296033772275993E-3</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15">
         <v>2.6314695327205161E-3</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15">
         <v>2.6269847858126825E-3</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15">
         <v>5.77070774789338E-3</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15">
         <v>2.6424195123902336E-3</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15">
         <v>2.6215507502297865E-3</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15">
         <v>2.6621075617601852E-3</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15">
         <v>-2.4417308246975724E-3</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>-0.18245339590242771</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16">
         <v>-3.5935375495207544E-4</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16">
         <v>9.3347690716885298E-5</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16">
         <v>1.5409880755756344E-4</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16">
         <v>1.3125911358759885E-4</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16">
         <v>2.293165383210219E-4</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16">
         <v>-1.1588188666563216E-4</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16">
         <v>2.6333868724763006E-3</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16">
         <v>2.6240065911310841E-3</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16">
         <v>2.6075781276401577E-3</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16">
         <v>2.6261345217738477E-3</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16">
         <v>2.6345775416910531E-3</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16">
         <v>2.627929515305499E-3</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16">
         <v>2.6378246436342852E-3</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16">
         <v>2.6424195123902336E-3</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16">
         <v>8.9341845609605588E-3</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16">
         <v>2.620417660207337E-3</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16">
         <v>2.6339043852741965E-3</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16">
         <v>-2.6761462165507013E-3</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>-5.7001561243006954E-2</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17">
         <v>2.1976441532392619E-4</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17">
         <v>-3.2935039557054893E-5</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17">
         <v>3.6220903647570402E-5</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17">
         <v>-6.1539280313571828E-5</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17">
         <v>1.0720826541815416E-4</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17">
         <v>2.9415462620966304E-5</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17">
         <v>2.6405842033022219E-3</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17">
         <v>2.6182782557136693E-3</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17">
         <v>2.6159155675417383E-3</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17">
         <v>2.6178049004002878E-3</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17">
         <v>2.6320039653465266E-3</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17">
         <v>2.6094321137728389E-3</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17">
         <v>2.6217843251470077E-3</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17">
         <v>2.6215507502297865E-3</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17">
         <v>2.620417660207337E-3</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17">
         <v>5.9866437508980311E-3</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17">
         <v>2.6238223073371033E-3</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17">
         <v>-2.6494193995736386E-3</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>-1.4297786670785708E-3</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18">
         <v>-1.4852790235837612E-3</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18">
         <v>2.1355401988440502E-4</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18">
         <v>2.2937994285043774E-4</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18">
         <v>-9.9995513099190598E-6</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18">
         <v>1.0526901684624365E-4</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18">
         <v>-4.254074802990574E-5</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18">
         <v>2.6223144650967031E-3</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18">
         <v>2.6327700531521732E-3</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18">
         <v>2.6385318296288742E-3</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18">
         <v>2.6446801598814232E-3</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18">
         <v>2.6324393748382358E-3</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18">
         <v>2.6326405553792416E-3</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18">
         <v>2.6157227992537804E-3</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18">
         <v>2.6621075617601852E-3</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18">
         <v>2.6339043852741965E-3</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18">
         <v>2.6238223073371033E-3</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18">
         <v>9.2279752208818452E-3</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18">
         <v>-2.6607686203638042E-3</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>-1.8207438265889697</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19">
         <v>-8.0884031096164523E-3</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19">
         <v>-4.7159132329863641E-3</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19">
         <v>-4.8747912666294397E-3</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19">
         <v>-4.6445781622898585E-3</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19">
         <v>-4.9030571989960624E-3</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19">
         <v>-6.736439180099811E-4</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19">
         <v>-2.7998613131418881E-3</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19">
         <v>-2.7045184444692435E-3</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19">
         <v>-2.7228858565888892E-3</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19">
         <v>-2.6261043632189495E-3</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19">
         <v>-2.5854586257496267E-3</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19">
         <v>-2.5922132986329867E-3</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19">
         <v>-2.7112357921276072E-3</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19">
         <v>-2.4417308246975724E-3</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19">
         <v>-2.6761462165507013E-3</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19">
         <v>-2.6494193995736386E-3</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19">
         <v>-2.6607686203638042E-3</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19">
         <v>7.9361291391738809E-3</v>
       </c>
     </row>
@@ -46040,14 +45852,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -46055,13 +45867,13 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>3.3220040000000002</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>1.201606</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -46069,21 +45881,21 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>-0.28014929999999999</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>0.39096510000000001</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>0.47399999999999998</v>
       </c>
     </row>
@@ -46091,13 +45903,13 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>-0.1987777</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>0.38538450000000002</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0.60599999999999998</v>
       </c>
     </row>
@@ -46105,13 +45917,13 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>-0.42384159999999999</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>0.38333230000000001</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0.26900000000000002</v>
       </c>
     </row>
@@ -46119,13 +45931,13 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>-0.3839436</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>0.38603229999999999</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0.32</v>
       </c>
     </row>
@@ -46133,13 +45945,13 @@
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>1.5171950000000001</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>8.5161100000000003E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -46147,21 +45959,21 @@
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>-6.4610899999999999E-2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>0.15470610000000001</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.67600000000000005</v>
       </c>
     </row>
@@ -46169,13 +45981,13 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>-0.1597422</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>0.121174</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>0.187</v>
       </c>
     </row>
@@ -46183,13 +45995,13 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>-6.3536999999999996E-2</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>0.1413353</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.65300000000000002</v>
       </c>
     </row>
@@ -46197,13 +46009,13 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>-0.30775429999999998</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>0.1571158</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.05</v>
       </c>
     </row>
@@ -46211,13 +46023,13 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>-0.1516285</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>0.14044200000000001</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -46225,13 +46037,13 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>-3.7318E-3</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>0.1514829</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>0.98</v>
       </c>
     </row>
@@ -46239,13 +46051,13 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>-5.4183E-3</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>0.10261720000000001</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>0.95799999999999996</v>
       </c>
     </row>
@@ -46253,13 +46065,13 @@
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>-0.49765799999999999</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>0.13691249999999999</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>0</v>
       </c>
     </row>
@@ -46267,13 +46079,13 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>-6.9823300000000005E-2</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>0.27667580000000003</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>0.80100000000000005</v>
       </c>
     </row>
@@ -46281,13 +46093,13 @@
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>-0.2048912</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>0.1580975</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>0.19500000000000001</v>
       </c>
     </row>
@@ -46295,27 +46107,27 @@
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>-0.51920160000000004</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>0.21671409999999999</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>-1.7618050000000001</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>0.39915440000000002</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>0</v>
       </c>
     </row>
@@ -46336,14 +46148,14 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>0.20810000000000001</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -46371,14 +46183,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -46386,299 +46198,299 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>1.9220710000000001</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>0.36276370000000002</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>7.3598899999999995E-2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>0.1011314</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>0.46700000000000003</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>1.8977600000000001E-2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>9.6676399999999996E-2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0.84399999999999997</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>-0.1241206</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>9.7509700000000005E-2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0.20300000000000001</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>-0.1136001</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>0.1065963</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0.28699999999999998</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>1.832838</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>4.2043200000000003E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>5.53499E-2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>9.8907300000000004E-2</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.57599999999999996</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>9.3226000000000003E-3</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>8.6884699999999995E-2</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>0.91500000000000004</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>-8.0419900000000002E-2</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>9.72523E-2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.40799999999999997</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>-1.9808200000000002E-2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>8.6937700000000007E-2</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.82</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>-8.2798099999999999E-2</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>9.21984E-2</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>0.36899999999999999</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>-8.64013E-2</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>8.9165999999999995E-2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>-0.19490389999999999</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>8.5807700000000001E-2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>-0.23719660000000001</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>9.3477199999999996E-2</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>1.6128E-3</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>0.1071569</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>0.98799999999999999</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>-8.8836700000000005E-2</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>9.5828999999999998E-2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>0.35399999999999998</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>-8.4288600000000005E-2</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>0.1237255</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>0.496</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>-1.9734039999999999</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>0.11475200000000001</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>0</v>
       </c>
     </row>
@@ -46694,19 +46506,19 @@
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>8.14E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>0.33410000000000001</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -46732,14 +46544,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -46747,303 +46559,303 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>5.9753109999999996</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>1.446493</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>-0.24413109999999999</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>0.16255240000000001</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>-0.58418099999999995</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>0.14954229999999999</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>-0.73888339999999997</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>0.14546190000000001</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>-0.68960630000000001</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>0.15277589999999999</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>0.99962569999999995</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>6.0135099999999997E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>1.25781E-2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>0.13117690000000001</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.92400000000000004</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>-0.25731369999999998</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>0.1018121</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>-5.4468900000000001E-2</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>0.148701</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.71399999999999997</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>-5.1002499999999999E-2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>0.1276919</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.69</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>-0.32287589999999999</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>0.12618650000000001</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>-0.1222989</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>0.11936239999999999</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>0.30599999999999999</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>-0.1957014</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>9.4777700000000006E-2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>3.9E-2</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>-0.29324670000000003</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>0.1154872</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>-9.8002500000000006E-2</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>0.15076310000000001</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>0.51600000000000001</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="F19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>-0.2358585</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>0.1205817</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>0.05</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>-2.1484E-2</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>0.1725748</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>-1.679454</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>0.15840760000000001</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>0</v>
       </c>
     </row>
@@ -47059,19 +46871,19 @@
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>0.14860000000000001</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -47099,14 +46911,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -47114,303 +46926,303 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>3.7763939999999998</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>0.44900820000000002</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>-3.5162699999999998E-2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>7.6697299999999996E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>0.64700000000000002</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>-0.2660516</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>7.3663800000000001E-2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>-0.38286730000000002</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>7.5167200000000003E-2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>-0.341922</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>8.3535499999999999E-2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>1.1644049999999999</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>3.3356499999999997E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>-5.3546099999999999E-2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>8.3766499999999994E-2</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.52300000000000002</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>-0.11467570000000001</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>6.8276100000000006E-2</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>-0.1211295</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>7.6071399999999997E-2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.111</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>-0.2774856</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>8.2540500000000003E-2</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>1E-3</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>-7.3163800000000001E-2</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>6.8430599999999994E-2</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>0.28499999999999998</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>-0.35890030000000001</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>7.4285900000000002E-2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>-0.28771619999999998</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>7.1416800000000003E-2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>-0.39531179999999999</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>7.5965199999999997E-2</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>-0.18245339999999999</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>9.4520800000000002E-2</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>-5.7001599999999999E-2</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>7.7373399999999995E-2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>0.46100000000000002</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>-1.4298E-3</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>9.6062400000000006E-2</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>-1.8207439999999999</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>8.9084999999999998E-2</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>0</v>
       </c>
     </row>
@@ -47426,19 +47238,19 @@
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>5.8099999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>0.1991</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/input/reg_unemployment.xlsx
+++ b/input/reg_unemployment.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8884BE5E-0401-4EA6-87DE-E077A3A2C37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62771247-2D8A-437A-9F7A-39B0F4D7B65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{CC9AB010-6F1C-42A2-A1E7-CC06071EB15C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC9AB010-6F1C-42A2-A1E7-CC06071EB15C}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,21 @@
     <sheet name="UK_RatesFemaleGraduates" sheetId="6" r:id="rId12"/>
     <sheet name="UK_RatesFemaleNonGraduates" sheetId="7" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -360,7 +371,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -370,6 +381,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -722,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DD3FED-033E-405B-A2A7-67A35968B641}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -851,13 +863,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EC0B5F-04C9-4F5F-A901-B8AAE6DEDE0A}">
-  <dimension ref="A1:AX66"/>
+  <dimension ref="A1:BH66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX66" sqref="AX66"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -866,7 +878,7 @@
     <col min="5" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1017,8 +1029,18 @@
       <c r="AX1" s="4">
         <v>2024</v>
       </c>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
     </row>
-    <row r="2" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>16</v>
       </c>
@@ -1170,7 +1192,7 @@
         <v>0.32057885000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>17</v>
       </c>
@@ -1322,7 +1344,7 @@
         <v>0.24913356000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>18</v>
       </c>
@@ -1474,7 +1496,7 @@
         <v>0.19593476999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>19</v>
       </c>
@@ -1626,7 +1648,7 @@
         <v>0.17182712999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -1778,7 +1800,7 @@
         <v>0.15967402</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>21</v>
       </c>
@@ -1930,7 +1952,7 @@
         <v>0.13140270999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>22</v>
       </c>
@@ -2082,7 +2104,7 @@
         <v>0.1082795</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>23</v>
       </c>
@@ -2234,7 +2256,7 @@
         <v>8.8274959999999986E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>24</v>
       </c>
@@ -2386,7 +2408,7 @@
         <v>6.5812979999999993E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>25</v>
       </c>
@@ -2538,7 +2560,7 @@
         <v>5.5256269999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>26</v>
       </c>
@@ -2690,7 +2712,7 @@
         <v>3.6772130000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>27</v>
       </c>
@@ -2842,7 +2864,7 @@
         <v>3.6527290000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>28</v>
       </c>
@@ -2994,7 +3016,7 @@
         <v>2.6608559999999996E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>29</v>
       </c>
@@ -3146,7 +3168,7 @@
         <v>2.5161919999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>30</v>
       </c>
@@ -10905,13 +10927,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9172C708-9303-4B74-B36A-400E8C4455B4}">
-  <dimension ref="A1:AX66"/>
+  <dimension ref="A1:BH66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX66" sqref="AX66"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10920,7 +10942,7 @@
     <col min="3" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -11071,8 +11093,18 @@
       <c r="AX1" s="4">
         <v>2024</v>
       </c>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
     </row>
-    <row r="2" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>16</v>
       </c>
@@ -11224,7 +11256,7 @@
         <v>0.32057885000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>17</v>
       </c>
@@ -11376,7 +11408,7 @@
         <v>0.24913356000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>18</v>
       </c>
@@ -11528,7 +11560,7 @@
         <v>0.19593476999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>19</v>
       </c>
@@ -11680,7 +11712,7 @@
         <v>0.17182712999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -11832,7 +11864,7 @@
         <v>0.15967402</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>21</v>
       </c>
@@ -11984,7 +12016,7 @@
         <v>0.13140270999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>22</v>
       </c>
@@ -12136,7 +12168,7 @@
         <v>0.1082795</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>23</v>
       </c>
@@ -12288,7 +12320,7 @@
         <v>9.5490260000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>24</v>
       </c>
@@ -12440,7 +12472,7 @@
         <v>8.6285799999999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>25</v>
       </c>
@@ -12592,7 +12624,7 @@
         <v>7.5845690000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>26</v>
       </c>
@@ -12744,7 +12776,7 @@
         <v>5.0565230000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>27</v>
       </c>
@@ -12896,7 +12928,7 @@
         <v>5.3880789999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>28</v>
       </c>
@@ -13048,7 +13080,7 @@
         <v>4.4968840000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>29</v>
       </c>
@@ -13200,7 +13232,7 @@
         <v>3.7355399999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>30</v>
       </c>
@@ -20959,9 +20991,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36656541-FCAB-471F-B3CC-C2331CBC317D}">
-  <dimension ref="A1:AX66"/>
+  <dimension ref="A1:CL66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -20974,7 +21006,7 @@
     <col min="5" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -21125,8 +21157,24 @@
       <c r="AX1" s="4">
         <v>2024</v>
       </c>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
     </row>
-    <row r="2" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>16</v>
       </c>
@@ -21277,8 +21325,10 @@
       <c r="AX2" s="5">
         <v>0.26019811999999998</v>
       </c>
+      <c r="AY2"/>
+      <c r="AZ2"/>
     </row>
-    <row r="3" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>17</v>
       </c>
@@ -21429,8 +21479,10 @@
       <c r="AX3" s="5">
         <v>0.18180854000000002</v>
       </c>
+      <c r="AY3"/>
+      <c r="AZ3"/>
     </row>
-    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>18</v>
       </c>
@@ -21581,8 +21633,10 @@
       <c r="AX4" s="5">
         <v>0.14871978999999996</v>
       </c>
+      <c r="AY4"/>
+      <c r="AZ4"/>
     </row>
-    <row r="5" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>19</v>
       </c>
@@ -21733,8 +21787,10 @@
       <c r="AX5" s="5">
         <v>0.14520216999999999</v>
       </c>
+      <c r="AY5"/>
+      <c r="AZ5"/>
     </row>
-    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -21885,8 +21941,10 @@
       <c r="AX6" s="5">
         <v>9.8097610000000016E-2</v>
       </c>
+      <c r="AY6"/>
+      <c r="AZ6"/>
     </row>
-    <row r="7" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>21</v>
       </c>
@@ -22037,8 +22095,10 @@
       <c r="AX7" s="5">
         <v>8.9078409999999997E-2</v>
       </c>
+      <c r="AY7"/>
+      <c r="AZ7"/>
     </row>
-    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>22</v>
       </c>
@@ -22189,8 +22249,10 @@
       <c r="AX8" s="5">
         <v>8.8558600000000001E-2</v>
       </c>
+      <c r="AY8"/>
+      <c r="AZ8"/>
     </row>
-    <row r="9" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>23</v>
       </c>
@@ -22341,8 +22403,11 @@
       <c r="AX9" s="5">
         <v>5.0640470000000007E-2</v>
       </c>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="CL9" s="7"/>
     </row>
-    <row r="10" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>24</v>
       </c>
@@ -22493,8 +22558,11 @@
       <c r="AX10" s="5">
         <v>4.37875E-2</v>
       </c>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="CL10" s="7"/>
     </row>
-    <row r="11" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>25</v>
       </c>
@@ -22645,8 +22713,11 @@
       <c r="AX11" s="5">
         <v>3.5014460000000004E-2</v>
       </c>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="CL11" s="7"/>
     </row>
-    <row r="12" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>26</v>
       </c>
@@ -22797,8 +22868,11 @@
       <c r="AX12" s="5">
         <v>2.1639590000000004E-2</v>
       </c>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="CL12" s="7"/>
     </row>
-    <row r="13" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>27</v>
       </c>
@@ -22949,8 +23023,11 @@
       <c r="AX13" s="5">
         <v>2.6975739999999998E-2</v>
       </c>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="CL13" s="7"/>
     </row>
-    <row r="14" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>28</v>
       </c>
@@ -23101,8 +23178,11 @@
       <c r="AX14" s="5">
         <v>3.2589880000000002E-2</v>
       </c>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="CL14" s="7"/>
     </row>
-    <row r="15" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>29</v>
       </c>
@@ -23253,8 +23333,11 @@
       <c r="AX15" s="5">
         <v>1.9616940000000003E-2</v>
       </c>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="CL15" s="7"/>
     </row>
-    <row r="16" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>30</v>
       </c>
@@ -23405,8 +23488,11 @@
       <c r="AX16" s="5">
         <v>2.8011589999999996E-2</v>
       </c>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="CL16" s="7"/>
     </row>
-    <row r="17" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>31</v>
       </c>
@@ -23557,8 +23643,11 @@
       <c r="AX17" s="5">
         <v>2.2562310000000002E-2</v>
       </c>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="CL17" s="7"/>
     </row>
-    <row r="18" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>32</v>
       </c>
@@ -23709,8 +23798,11 @@
       <c r="AX18" s="5">
         <v>2.8440979999999998E-2</v>
       </c>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="CL18" s="7"/>
     </row>
-    <row r="19" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>33</v>
       </c>
@@ -23861,8 +23953,11 @@
       <c r="AX19" s="5">
         <v>2.2318650000000002E-2</v>
       </c>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="CL19" s="7"/>
     </row>
-    <row r="20" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>34</v>
       </c>
@@ -24013,8 +24108,11 @@
       <c r="AX20" s="5">
         <v>2.2305889999999998E-2</v>
       </c>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="CL20" s="7"/>
     </row>
-    <row r="21" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>35</v>
       </c>
@@ -24165,8 +24263,11 @@
       <c r="AX21" s="5">
         <v>2.1616710000000001E-2</v>
       </c>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="CL21" s="7"/>
     </row>
-    <row r="22" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>36</v>
       </c>
@@ -24317,8 +24418,11 @@
       <c r="AX22" s="5">
         <v>1.7932989999999999E-2</v>
       </c>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="CL22" s="7"/>
     </row>
-    <row r="23" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>37</v>
       </c>
@@ -24469,8 +24573,11 @@
       <c r="AX23" s="5">
         <v>1.9648470000000001E-2</v>
       </c>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="CL23" s="7"/>
     </row>
-    <row r="24" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>38</v>
       </c>
@@ -24621,8 +24728,11 @@
       <c r="AX24" s="5">
         <v>2.0679350000000006E-2</v>
       </c>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="CL24" s="7"/>
     </row>
-    <row r="25" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>39</v>
       </c>
@@ -24773,8 +24883,11 @@
       <c r="AX25" s="5">
         <v>2.6637729999999998E-2</v>
       </c>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="CL25" s="7"/>
     </row>
-    <row r="26" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>40</v>
       </c>
@@ -24925,8 +25038,11 @@
       <c r="AX26" s="5">
         <v>1.9886649999999999E-2</v>
       </c>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="CL26" s="7"/>
     </row>
-    <row r="27" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>41</v>
       </c>
@@ -25077,8 +25193,11 @@
       <c r="AX27" s="5">
         <v>1.955728E-2</v>
       </c>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="CL27" s="7"/>
     </row>
-    <row r="28" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>42</v>
       </c>
@@ -25229,8 +25348,11 @@
       <c r="AX28" s="5">
         <v>2.2265529999999999E-2</v>
       </c>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="CL28" s="7"/>
     </row>
-    <row r="29" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43</v>
       </c>
@@ -25381,8 +25503,11 @@
       <c r="AX29" s="5">
         <v>2.2124769999999998E-2</v>
       </c>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="CL29" s="7"/>
     </row>
-    <row r="30" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44</v>
       </c>
@@ -25533,8 +25658,11 @@
       <c r="AX30" s="5">
         <v>2.075113E-2</v>
       </c>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="CL30" s="7"/>
     </row>
-    <row r="31" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45</v>
       </c>
@@ -25685,8 +25813,11 @@
       <c r="AX31" s="5">
         <v>1.851042E-2</v>
       </c>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="CL31" s="7"/>
     </row>
-    <row r="32" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>46</v>
       </c>
@@ -25837,8 +25968,11 @@
       <c r="AX32" s="5">
         <v>2.3261609999999999E-2</v>
       </c>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="CL32" s="7"/>
     </row>
-    <row r="33" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>47</v>
       </c>
@@ -25989,8 +26123,11 @@
       <c r="AX33" s="5">
         <v>3.0736720000000006E-2</v>
       </c>
+      <c r="AY33"/>
+      <c r="AZ33"/>
+      <c r="CL33" s="7"/>
     </row>
-    <row r="34" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>48</v>
       </c>
@@ -26141,8 +26278,11 @@
       <c r="AX34" s="5">
         <v>1.7331159999999998E-2</v>
       </c>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="CL34" s="7"/>
     </row>
-    <row r="35" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>49</v>
       </c>
@@ -26293,8 +26433,11 @@
       <c r="AX35" s="5">
         <v>2.0583360000000002E-2</v>
       </c>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="CL35" s="7"/>
     </row>
-    <row r="36" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>50</v>
       </c>
@@ -26445,8 +26588,11 @@
       <c r="AX36" s="5">
         <v>1.68921E-2</v>
       </c>
+      <c r="AY36"/>
+      <c r="AZ36"/>
+      <c r="CL36" s="7"/>
     </row>
-    <row r="37" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>51</v>
       </c>
@@ -26597,8 +26743,11 @@
       <c r="AX37" s="5">
         <v>1.2943199999999998E-2</v>
       </c>
+      <c r="AY37"/>
+      <c r="AZ37"/>
+      <c r="CL37" s="7"/>
     </row>
-    <row r="38" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>52</v>
       </c>
@@ -26749,8 +26898,11 @@
       <c r="AX38" s="5">
         <v>1.6397169999999999E-2</v>
       </c>
+      <c r="AY38"/>
+      <c r="AZ38"/>
+      <c r="CL38" s="7"/>
     </row>
-    <row r="39" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>53</v>
       </c>
@@ -26901,8 +27053,11 @@
       <c r="AX39" s="5">
         <v>2.2326510000000001E-2</v>
       </c>
+      <c r="AY39"/>
+      <c r="AZ39"/>
+      <c r="CL39" s="7"/>
     </row>
-    <row r="40" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>54</v>
       </c>
@@ -27053,8 +27208,11 @@
       <c r="AX40" s="5">
         <v>1.9069510000000001E-2</v>
       </c>
+      <c r="AY40"/>
+      <c r="AZ40"/>
+      <c r="CL40" s="7"/>
     </row>
-    <row r="41" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>55</v>
       </c>
@@ -27205,8 +27363,11 @@
       <c r="AX41" s="5">
         <v>2.4882430000000001E-2</v>
       </c>
+      <c r="AY41"/>
+      <c r="AZ41"/>
+      <c r="CL41" s="7"/>
     </row>
-    <row r="42" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>56</v>
       </c>
@@ -27357,8 +27518,11 @@
       <c r="AX42" s="5">
         <v>2.275458E-2</v>
       </c>
+      <c r="AY42"/>
+      <c r="AZ42"/>
+      <c r="CL42" s="7"/>
     </row>
-    <row r="43" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>57</v>
       </c>
@@ -27509,8 +27673,11 @@
       <c r="AX43" s="5">
         <v>1.7978999999999998E-2</v>
       </c>
+      <c r="AY43"/>
+      <c r="AZ43"/>
+      <c r="CL43" s="7"/>
     </row>
-    <row r="44" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>58</v>
       </c>
@@ -27661,8 +27828,11 @@
       <c r="AX44" s="5">
         <v>2.0993350000000001E-2</v>
       </c>
+      <c r="AY44"/>
+      <c r="AZ44"/>
+      <c r="CL44" s="7"/>
     </row>
-    <row r="45" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>59</v>
       </c>
@@ -27813,8 +27983,11 @@
       <c r="AX45" s="5">
         <v>1.9619069999999995E-2</v>
       </c>
+      <c r="AY45"/>
+      <c r="AZ45"/>
+      <c r="CL45" s="7"/>
     </row>
-    <row r="46" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>60</v>
       </c>
@@ -27965,8 +28138,11 @@
       <c r="AX46" s="5">
         <v>2.1355597999999996E-2</v>
       </c>
+      <c r="AY46"/>
+      <c r="AZ46"/>
+      <c r="CL46" s="7"/>
     </row>
-    <row r="47" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>61</v>
       </c>
@@ -28117,8 +28293,9 @@
       <c r="AX47" s="5">
         <v>2.77878181E-2</v>
       </c>
+      <c r="CL47" s="7"/>
     </row>
-    <row r="48" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>62</v>
       </c>
@@ -28269,8 +28446,9 @@
       <c r="AX48" s="5">
         <v>3.422003819999999E-2</v>
       </c>
+      <c r="CL48" s="7"/>
     </row>
-    <row r="49" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>63</v>
       </c>
@@ -28421,8 +28599,9 @@
       <c r="AX49" s="5">
         <v>4.0652258300000001E-2</v>
       </c>
+      <c r="CL49" s="7"/>
     </row>
-    <row r="50" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>64</v>
       </c>
@@ -28573,8 +28752,9 @@
       <c r="AX50" s="5">
         <v>4.7084478400000004E-2</v>
       </c>
+      <c r="CL50" s="7"/>
     </row>
-    <row r="51" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>65</v>
       </c>
@@ -28725,8 +28905,9 @@
       <c r="AX51" s="5">
         <v>5.3516698500000001E-2</v>
       </c>
+      <c r="CL51" s="7"/>
     </row>
-    <row r="52" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>66</v>
       </c>
@@ -28877,8 +29058,9 @@
       <c r="AX52" s="5">
         <v>5.9948918599999991E-2</v>
       </c>
+      <c r="CL52" s="7"/>
     </row>
-    <row r="53" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>67</v>
       </c>
@@ -29029,8 +29211,9 @@
       <c r="AX53" s="5">
         <v>6.6381138699999995E-2</v>
       </c>
+      <c r="CL53" s="7"/>
     </row>
-    <row r="54" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>68</v>
       </c>
@@ -29181,8 +29364,9 @@
       <c r="AX54" s="5">
         <v>7.2813358800000005E-2</v>
       </c>
+      <c r="CL54" s="7"/>
     </row>
-    <row r="55" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>69</v>
       </c>
@@ -29333,8 +29517,9 @@
       <c r="AX55" s="5">
         <v>7.9245578900000002E-2</v>
       </c>
+      <c r="CL55" s="7"/>
     </row>
-    <row r="56" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>70</v>
       </c>
@@ -29485,8 +29670,9 @@
       <c r="AX56" s="5">
         <v>8.5677798999999999E-2</v>
       </c>
+      <c r="CL56" s="7"/>
     </row>
-    <row r="57" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>71</v>
       </c>
@@ -29637,8 +29823,9 @@
       <c r="AX57" s="5">
         <v>9.211001910000001E-2</v>
       </c>
+      <c r="CL57" s="7"/>
     </row>
-    <row r="58" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>72</v>
       </c>
@@ -29790,7 +29977,7 @@
         <v>9.8542239199999992E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>73</v>
       </c>
@@ -29942,7 +30129,7 @@
         <v>0.1049744593</v>
       </c>
     </row>
-    <row r="60" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>74</v>
       </c>
@@ -30094,7 +30281,7 @@
         <v>0.11140667940000001</v>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>75</v>
       </c>
@@ -30246,7 +30433,7 @@
         <v>0.1178388995</v>
       </c>
     </row>
-    <row r="62" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>76</v>
       </c>
@@ -30398,7 +30585,7 @@
         <v>0.12427111960000001</v>
       </c>
     </row>
-    <row r="63" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>77</v>
       </c>
@@ -30550,7 +30737,7 @@
         <v>0.13070333969999998</v>
       </c>
     </row>
-    <row r="64" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:90" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>78</v>
       </c>
@@ -41066,7 +41253,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="B2" sqref="B2:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41137,7 +41324,7 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <v>3.3220039193875528</v>
       </c>
       <c r="C2">
@@ -41196,10 +41383,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>-0.28014931706682594</v>
       </c>
       <c r="C3">
@@ -41258,10 +41445,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>-0.19877766854638357</v>
       </c>
       <c r="C4">
@@ -41320,10 +41507,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>-0.42384157126915017</v>
       </c>
       <c r="C5">
@@ -41382,10 +41569,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>-0.38394364531610237</v>
       </c>
       <c r="C6">
@@ -41444,10 +41631,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>1.5171954960451808</v>
       </c>
       <c r="C7">
@@ -41506,10 +41693,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>-6.4610856082136625E-2</v>
       </c>
       <c r="C8">
@@ -41568,10 +41755,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="19">
         <v>-0.15974223353976583</v>
       </c>
       <c r="C9">
@@ -41630,10 +41817,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="19">
         <v>-6.3536962200238786E-2</v>
       </c>
       <c r="C10">
@@ -41692,10 +41879,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <v>-0.30775426382312232</v>
       </c>
       <c r="C11">
@@ -41754,10 +41941,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>-0.15162850249887386</v>
       </c>
       <c r="C12">
@@ -41816,10 +42003,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <v>-3.7317922791812561E-3</v>
       </c>
       <c r="C13">
@@ -41878,10 +42065,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="19">
         <v>-5.4183327711139016E-3</v>
       </c>
       <c r="C14">
@@ -41940,10 +42127,10 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <v>-0.49765802607006887</v>
       </c>
       <c r="C15">
@@ -42002,10 +42189,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="19">
         <v>-6.9823297500294743E-2</v>
       </c>
       <c r="C16">
@@ -42064,10 +42251,10 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="19">
         <v>-0.20489121093656346</v>
       </c>
       <c r="C17">
@@ -42126,10 +42313,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>-0.51920158172421094</v>
       </c>
       <c r="C18">
@@ -42188,10 +42375,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="19">
         <v>-1.7618049762229764</v>
       </c>
       <c r="C19">
@@ -42259,7 +42446,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42330,7 +42517,7 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <v>1.9220710453212315</v>
       </c>
       <c r="C2">
@@ -42389,10 +42576,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>7.3598916060736888E-2</v>
       </c>
       <c r="C3">
@@ -42451,10 +42638,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>1.8977610924120047E-2</v>
       </c>
       <c r="C4">
@@ -42513,10 +42700,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>-0.12412062488765985</v>
       </c>
       <c r="C5">
@@ -42575,10 +42762,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>-0.11360011656508247</v>
       </c>
       <c r="C6">
@@ -42637,10 +42824,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>1.832838053376479</v>
       </c>
       <c r="C7">
@@ -42699,10 +42886,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>5.5349903818609388E-2</v>
       </c>
       <c r="C8">
@@ -42761,10 +42948,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="19">
         <v>9.3226009408149454E-3</v>
       </c>
       <c r="C9">
@@ -42823,10 +43010,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="19">
         <v>-8.0419910063983621E-2</v>
       </c>
       <c r="C10">
@@ -42885,10 +43072,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <v>-1.9808186534610195E-2</v>
       </c>
       <c r="C11">
@@ -42947,10 +43134,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>-8.27981408125429E-2</v>
       </c>
       <c r="C12">
@@ -43009,10 +43196,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <v>-8.6401271925290818E-2</v>
       </c>
       <c r="C13">
@@ -43071,10 +43258,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="19">
         <v>-0.19490393303561573</v>
       </c>
       <c r="C14">
@@ -43133,10 +43320,10 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <v>-0.23719661875889966</v>
       </c>
       <c r="C15">
@@ -43195,10 +43382,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="19">
         <v>1.6127753782126325E-3</v>
       </c>
       <c r="C16">
@@ -43257,10 +43444,10 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="19">
         <v>-8.8836692077451318E-2</v>
       </c>
       <c r="C17">
@@ -43319,10 +43506,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>-8.4288550485971225E-2</v>
       </c>
       <c r="C18">
@@ -43381,10 +43568,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="19">
         <v>-1.9734041268446605</v>
       </c>
       <c r="C19">
@@ -43452,7 +43639,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="K23" sqref="K23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43523,7 +43710,7 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <v>5.975311123373471</v>
       </c>
       <c r="C2">
@@ -43582,10 +43769,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>-0.24413111658645587</v>
       </c>
       <c r="C3">
@@ -43644,10 +43831,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>-0.58418104417849592</v>
       </c>
       <c r="C4">
@@ -43706,10 +43893,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>-0.73888341891446052</v>
       </c>
       <c r="C5">
@@ -43768,10 +43955,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>-0.68960625064994885</v>
       </c>
       <c r="C6">
@@ -43830,10 +44017,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>0.99962566534652375</v>
       </c>
       <c r="C7">
@@ -43892,10 +44079,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>1.2578063180959748E-2</v>
       </c>
       <c r="C8">
@@ -43954,10 +44141,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="19">
         <v>-0.2573137466624002</v>
       </c>
       <c r="C9">
@@ -44016,10 +44203,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="19">
         <v>-5.4468930786818137E-2</v>
       </c>
       <c r="C10">
@@ -44078,10 +44265,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <v>-5.10025056596791E-2</v>
       </c>
       <c r="C11">
@@ -44140,10 +44327,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>-0.3228758675310372</v>
       </c>
       <c r="C12">
@@ -44202,10 +44389,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <v>-0.12229887893727533</v>
       </c>
       <c r="C13">
@@ -44264,10 +44451,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="19">
         <v>-0.19570143890896316</v>
       </c>
       <c r="C14">
@@ -44326,10 +44513,10 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <v>-0.2932466872478387</v>
       </c>
       <c r="C15">
@@ -44388,10 +44575,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="19">
         <v>-9.80024829195945E-2</v>
       </c>
       <c r="C16">
@@ -44450,10 +44637,10 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="19">
         <v>-0.23585854208658888</v>
       </c>
       <c r="C17">
@@ -44512,10 +44699,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>-2.148395583679014E-2</v>
       </c>
       <c r="C18">
@@ -44574,10 +44761,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="19">
         <v>-1.6794537820929836</v>
       </c>
       <c r="C19">
@@ -44645,7 +44832,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="B2" sqref="B2:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44716,7 +44903,7 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <v>3.7763942488993747</v>
       </c>
       <c r="C2">
@@ -44775,10 +44962,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>-3.5162661886621031E-2</v>
       </c>
       <c r="C3">
@@ -44837,10 +45024,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>-0.26605157249639011</v>
       </c>
       <c r="C4">
@@ -44899,10 +45086,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>-0.38286734280983098</v>
       </c>
       <c r="C5">
@@ -44961,10 +45148,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>-0.34192199887615993</v>
       </c>
       <c r="C6">
@@ -45023,10 +45210,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>1.1644048313620481</v>
       </c>
       <c r="C7">
@@ -45085,10 +45272,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>-5.3546122920729626E-2</v>
       </c>
       <c r="C8">
@@ -45147,10 +45334,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="19">
         <v>-0.11467569244774736</v>
       </c>
       <c r="C9">
@@ -45209,10 +45396,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="19">
         <v>-0.12112950549533991</v>
       </c>
       <c r="C10">
@@ -45271,10 +45458,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <v>-0.27748563767578366</v>
       </c>
       <c r="C11">
@@ -45333,10 +45520,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>-7.3163802889426602E-2</v>
       </c>
       <c r="C12">
@@ -45395,10 +45582,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <v>-0.35890032155550278</v>
       </c>
       <c r="C13">
@@ -45457,10 +45644,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="19">
         <v>-0.28771624385775502</v>
       </c>
       <c r="C14">
@@ -45519,10 +45706,10 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <v>-0.39531177796844091</v>
       </c>
       <c r="C15">
@@ -45581,10 +45768,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="19">
         <v>-0.18245339590242771</v>
       </c>
       <c r="C16">
@@ -45643,10 +45830,10 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="19">
         <v>-5.7001561243006954E-2</v>
       </c>
       <c r="C17">
@@ -45705,10 +45892,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>-1.4297786670785708E-3</v>
       </c>
       <c r="C18">
@@ -45767,10 +45954,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="19">
         <v>-1.8207438265889697</v>
       </c>
       <c r="C19">
@@ -45837,9 +46024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D29755F-03F5-4832-BD4A-46B3397AFE2F}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:Y20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45852,14 +46037,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -45867,13 +46052,13 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>3.3220040000000002</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>1.201606</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -45881,21 +46066,21 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>-0.28014929999999999</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>0.39096510000000001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>0.47399999999999998</v>
       </c>
     </row>
@@ -45903,13 +46088,13 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>-0.1987777</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>0.38538450000000002</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>0.60599999999999998</v>
       </c>
     </row>
@@ -45917,13 +46102,13 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>-0.42384159999999999</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>0.38333230000000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>0.26900000000000002</v>
       </c>
     </row>
@@ -45931,13 +46116,13 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>-0.3839436</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>0.38603229999999999</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>0.32</v>
       </c>
     </row>
@@ -45945,13 +46130,13 @@
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>1.5171950000000001</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>8.5161100000000003E-2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
     </row>
@@ -45959,21 +46144,21 @@
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>-6.4610899999999999E-2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>0.15470610000000001</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>0.67600000000000005</v>
       </c>
     </row>
@@ -45981,13 +46166,13 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>-0.1597422</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>0.121174</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>0.187</v>
       </c>
     </row>
@@ -45995,13 +46180,13 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>-6.3536999999999996E-2</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>0.1413353</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>0.65300000000000002</v>
       </c>
     </row>
@@ -46009,13 +46194,13 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>-0.30775429999999998</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <v>0.1571158</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>0.05</v>
       </c>
     </row>
@@ -46023,13 +46208,13 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>-0.1516285</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>0.14044200000000001</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -46037,13 +46222,13 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>-3.7318E-3</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>0.1514829</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>0.98</v>
       </c>
     </row>
@@ -46051,13 +46236,13 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>-5.4183E-3</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <v>0.10261720000000001</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>0.95799999999999996</v>
       </c>
     </row>
@@ -46065,13 +46250,13 @@
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>-0.49765799999999999</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="12">
         <v>0.13691249999999999</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>0</v>
       </c>
     </row>
@@ -46079,13 +46264,13 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>-6.9823300000000005E-2</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>0.27667580000000003</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>0.80100000000000005</v>
       </c>
     </row>
@@ -46093,13 +46278,13 @@
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>-0.2048912</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <v>0.1580975</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>0.19500000000000001</v>
       </c>
     </row>
@@ -46107,27 +46292,27 @@
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>-0.51920160000000004</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <v>0.21671409999999999</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>-1.7618050000000001</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="14">
         <v>0.39915440000000002</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="15">
         <v>0</v>
       </c>
     </row>
@@ -46148,14 +46333,14 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>0.20810000000000001</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -46183,14 +46368,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -46198,299 +46383,299 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>1.9220710000000001</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>0.36276370000000002</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>7.3598899999999995E-2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>0.1011314</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>0.46700000000000003</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>1.8977600000000001E-2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>9.6676399999999996E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>0.84399999999999997</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>-0.1241206</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>9.7509700000000005E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>0.20300000000000001</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>-0.1136001</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>0.1065963</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>0.28699999999999998</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>1.832838</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>4.2043200000000003E-2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="9"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>5.53499E-2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>9.8907300000000004E-2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>0.57599999999999996</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>9.3226000000000003E-3</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>8.6884699999999995E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>0.91500000000000004</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>-8.0419900000000002E-2</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>9.72523E-2</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>0.40799999999999997</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>-1.9808200000000002E-2</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <v>8.6937700000000007E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>0.82</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>-8.2798099999999999E-2</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>9.21984E-2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>0.36899999999999999</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>-8.64013E-2</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>8.9165999999999995E-2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>-0.19490389999999999</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <v>8.5807700000000001E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>2.3E-2</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>-0.23719660000000001</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="12">
         <v>9.3477199999999996E-2</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>1.6128E-3</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>0.1071569</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>0.98799999999999999</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>-8.8836700000000005E-2</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <v>9.5828999999999998E-2</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>0.35399999999999998</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>-8.4288600000000005E-2</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <v>0.1237255</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <v>0.496</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>-1.9734039999999999</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="14">
         <v>0.11475200000000001</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="15">
         <v>0</v>
       </c>
     </row>
@@ -46506,19 +46691,19 @@
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>8.14E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>0.33410000000000001</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -46544,14 +46729,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -46559,303 +46744,303 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>5.9753109999999996</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>1.446493</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="F4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>-0.24413109999999999</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>0.16255240000000001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>-0.58418099999999995</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>0.14954229999999999</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>-0.73888339999999997</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>0.14546190000000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>-0.68960630000000001</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>0.15277589999999999</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>0.99962569999999995</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>6.0135099999999997E-2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="9"/>
-      <c r="F10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>1.25781E-2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>0.13117690000000001</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>0.92400000000000004</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>-0.25731369999999998</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>0.1018121</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>-5.4468900000000001E-2</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>0.148701</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>0.71399999999999997</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>-5.1002499999999999E-2</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <v>0.1276919</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>0.69</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>-0.32287589999999999</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>0.12618650000000001</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>-0.1222989</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>0.11936239999999999</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>0.30599999999999999</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>-0.1957014</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <v>9.4777700000000006E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>3.9E-2</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>-0.29324670000000003</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="12">
         <v>0.1154872</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>-9.8002500000000006E-2</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>0.15076310000000001</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>0.51600000000000001</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>-0.2358585</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <v>0.1205817</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>0.05</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>-2.1484E-2</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <v>0.1725748</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>-1.679454</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="14">
         <v>0.15840760000000001</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="15">
         <v>0</v>
       </c>
     </row>
@@ -46871,19 +47056,19 @@
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>0.14860000000000001</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -46896,7 +47081,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46911,14 +47096,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -46926,303 +47111,303 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>3.7763939999999998</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>0.44900820000000002</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>-3.5162699999999998E-2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>7.6697299999999996E-2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>0.64700000000000002</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>-0.2660516</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>7.3663800000000001E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>-0.38286730000000002</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>7.5167200000000003E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>-0.341922</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>8.3535499999999999E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>1.1644049999999999</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>3.3356499999999997E-2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="9"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>-5.3546099999999999E-2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>8.3766499999999994E-2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>0.52300000000000002</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>-0.11467570000000001</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>6.8276100000000006E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>-0.1211295</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>7.6071399999999997E-2</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>0.111</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>-0.2774856</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <v>8.2540500000000003E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>1E-3</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>-7.3163800000000001E-2</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>6.8430599999999994E-2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>0.28499999999999998</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>-0.35890030000000001</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>7.4285900000000002E-2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>0</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>-0.28771619999999998</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <v>7.1416800000000003E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>-0.39531179999999999</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="12">
         <v>7.5965199999999997E-2</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>0</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>-0.18245339999999999</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>9.4520800000000002E-2</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>-5.7001599999999999E-2</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <v>7.7373399999999995E-2</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>0.46100000000000002</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>-1.4298E-3</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <v>9.6062400000000006E-2</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>-1.8207439999999999</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="14">
         <v>8.9084999999999998E-2</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="15">
         <v>0</v>
       </c>
     </row>
@@ -47238,19 +47423,19 @@
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>5.8099999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>0.1991</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
